--- a/Donnees/fichier_traduit.xlsx
+++ b/Donnees/fichier_traduit.xlsx
@@ -1470,7 +1470,8 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>All of the activities that we will develop and organize will have no budget and no lucrative goals: this will not be a limit but it will turn to our advantage in the goal of creating and environment of non-self-saving and collaboration._x000D_Tell us who you are, enter your project or just step by having a look.</t>
+          <t>All of the activities that we will  develop and organize will have no budget and no lucrative aims: this will not be a limit but it will  turn to our advantage in the goal of creating an environment of unselfish sharing and collaboration._x000D_
+Tell us who you are, introduce your project or just step by to have a look.</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -3280,7 +3281,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>BLINDSIDE is an independent contemporary arts space located in the heart of Melbourne established in 2004. We are committed to supporting and promoting contemporary art practice across a wide range of media through an ever-changing program of exhibitions, screenings, events and workshops. BLINDSIDE supports a moving arts community in Melbourne and beyond—encouraging artistic experimentation, innovation and facilitating critical dialogue.</t>
+          <t>BLINDSIDE is an independent contemporary arts space located in the heart of Melbourne established in 2004. We are committed to supporting and promoting contemporary art practice across a broad range of media through an ever-changing program of exhibitions, screenings, events and workshops. BLINDSIDE supports a thriving arts community in Melbourne and beyond—encouraging artistic experimentation, innovation and facilitating critical dialogue.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -4342,14 +4343,23 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>_x000D_ Kings Artist Run is a non-for-profit gallery in Melbourne’s CBD_x000D__x000D_Kings Artist Run provides a location for contemporary art practice, supporting distinctive experimental projects by artists at all stages of their careers. Kings ARI assists and promotes the development of solo exhibitions, group and thematic projects, along with a program of events that include performance, film screenings, public chats and talks._x000D_x000D_functioning as a collective of artists, writers, curators and academics, Kings Artist Run was formed to explore, interpret and participate in the mediation of new and cultural meanings. In 2013 Kings artist _x000D_icodes</t>
+          <t xml:space="preserve">_x000D_
+Kings Artist Run is a non-for-profit gallery in Melbourne’s CBD_x000D_
+_x000D_
+_x000D_
+Kings Artist Run provides a location for contemporary art practice, supporting distinctive experimental projects by artists at all stages of their careers. Kings ARI assists and promotes the development of solo exhibitions, group and thematic projects, along with a program of events that includes performance, film screenings, public gatherings and talks._x000D_
+_x000D_
+Functioning as a collective of artists, writers, curators and academics, Kings Artist Run was formed to explore, interpret and participate in the mediation of new social and cultural meanings. In 2013 Kings Artist Run celebrated its 10th anniversary._x000D_
+_x000D_
+</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Kings Run currently supports a range of projects across three exhibitions in which artists, collectors and curators are provided with a supportive platform within which to form new work. Kings Artist also develops and incorporates DUSPACE, an additional independent space in the gallery, distinctively offering and opportunity for artists, collectors and curators to expand their practices in unconventional situations, circumstances and places. Kings Artist also presents a program of unique ‘one’ events and actions through its Flash Program, as well as supporting studio artists and writers through the provision of the materials belonging to the Kings_ofs</t>
+          <t>Kings Artist Run currently supports a range of projects across three exhibition spaces in which artists, collectives and curators are provided with a supportive platform within which to form new work. Kings Artist Run also fosters and incorporates DUDSPACE, an additional independent space within the gallery, distinctively offering an opportunity for artists, collectives and curators to expand their practice within unconventional situations, circumstances and locations. Kings Artist Run also presents a program of singular ‘one off’ events and actions through its Flash Night Program, as well as managing and supporting studio artists and writers through the provision of workspaces within the Kings Artist Run community._x000D_
+The annual exhibition program at Kings Artist Run is formed around individual exhibition projects interspersed with thematic curatorial projects. Therefore each half-year of the exhibition and event program involves a thematic grouping of focused projects evoking and forming a discourse around specific subjects, supported by allied events and talks. Notably, Kings Artist Run equally supports artists wishing to undertake single or individual projects unrelated to our programming themes, locating these individual exhibition projects within a gallery culture involving focused curatorial undertakings that form a platform for initiating new ideas as a way of developing critical social relations.</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -4610,7 +4620,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Buy-self is an artist collective which collections and proposals objects that are not mass-produced but are the output of artistic processes.</t>
+          <t>Buy-Sellf is an artist collective which collects and proposes objects that are not mass-produced but are the outcome of artistic processes.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5511,13 +5521,19 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>The roots of Artpool go back to the Chapel Exhibitions held in György's summer studio, the Balatonbográr Chapel, from 1970 to 1973. By the time the police closed it down in August of that year, the Balatonbográr studio had established itself as the center of officially prohibited arts, and in retrospect, one of the crops of cultural change in Hungary._x000D_ Six years later, in 1979, György Galanzay made another attempt to create an alternative art institute, one that would make room in art. They established Artpool at a time when keeping with the official arts of the year.</t>
+          <t>The roots of Artpool go back to the Chapel Exhibitions held in artist György Galántai's "summer studio", the Balatonboglár Chapel, from 1970 to 1973. By the time the police closed it down in August of that year, the Balatonboglár studio had established itself as the center of officially proscribed avant-garde art, and in retrospect, one of the cradles of cultural change in Hungary._x000D_
+Six years later, in 1979, György Galántai and Júlia Klaniczay made another attempt to create an alternative art institute, one that would make room for the new trends in art. They established Artpool at a time when art forms out of keeping with the official cultural policy were denied access to the public. Periodically banned, but on the whole tolerated, Artpool organized manyexhibitions and art events, and published several anthologies and art catalogues between 1979 and 1990. From 1983 to 1985, they put out eleven "illegal" issues of "Aktuális Levél" (Artpool Letter), a "samizdat" art magazine which continues to serve as the sole documentary source on the non-official art of those years._x000D_
+Artpool's aim was to provide contemporary Hungarian artists with information and potential contacts on the international art scene, as well as to publicize and document the activities of Hungarian artists out of favor with those who dictated the cultural policy of the time. Collecting what documents were extant on the alternative art of the `60s, `70s and `80s, Artpool set up an archivewhich, they hoped, would provide future generations with ammunition and inspiration when it came to moral stands and artistic struggles of their own._x000D_
+In the ten years of its "illegal" existence, the archive accumulated several rarecollections of international significance._x000D_
+Subsequent to the political changes of 1989, Artpool, which already had an international reputation, was officially recognized, and was open to the public._x000D_
+The Artpool Art Research Center has been operating with funding from the Budapest Municipal Council since 1992.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1979: ARTPOOL'S PERIODIC SPACE (APS), Periodic Art Space ("what is periodic is constant" /Gallantai). Exhibitions, events, actions organised by Artpool at different locations. The series of events were inspired by Robert Filliou's postcard.(APS No.1)_x000D_1991 NEWKAPOLCS GALLERY, Kapolcs, 1991-1995, Artpool's independent summer art space, to recall the memory of the Balatonbográr Chapel Studio (closed by the authorities in 1973) in the Kapolcs house of György Galantia. From 1992 it has been served as the site for summer projects of the Budapest Art Research Center.</t>
+          <t>1979: ARTPOOL'S PERIODIC SPACE (APS), Periodic Art Space ("what is periodic is constant" /Galántai). Exhibitions, events, actions organised by Artpool at different locations. The series of events were inspired by Robert Filliou's postcard.(APS no.1)_x000D_
+1991 NEWKAPOLCS GALLERY, Kapolcs, 1991-1995, Artpool's independent summer art space, to recall the memory of the Balatonboglár Chapel Studio (closed by the authorities in 1973) in the Kapolcs house of György Galántai. From 1992 it served as the site for summer projects of the Budapest Artpool Art Research Center.</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -5802,18 +5818,19 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Gertrude Contemporary is valued nationally and respected internationally as a dynamic centre for the production and presentation of contemporary art. With the artist placed firmly at the centre of our community, we foster a culture of risk, collaboration and critical-thinking to generate innovative programs that engage hearings in creative exchange.</t>
+          <t>Gertrude Contemporary is valued nationally and respected internationally as a dynamic centre for the production and presentation of contemporary art.  With the artist placed firmly at the centre of our community, we foster a culture of risk, collaboration and critical-thinking to generate innovative programs that engage audiences in creative exchange.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Gertrude Contemporary opened in 1985 in a large converted home in Fitzroy, Melbourne and led the way as Australia's first combined gallery and studio complex. Named initially after its address - 200 Gertrude Street - the organization has since expanded, transforming from an address to an entity, and changing its name to Gertrude Contemporary in 2010. _x000D Since 1985 we have accumulated a lot of scholars of past exhibition and studio artists including some of Australia's leading names in contemporary art. In fact, every artist who has represented Australia at the Venice Biennial since 1999 has both held a study or participated in an exhibition at Gertrude Contempority.</t>
+          <t xml:space="preserve">Gertrude Contemporary opened in 1985 in a large converted warehouse in Fitzroy, Melbourne and led the way as Australia’s first combined gallery and studio complex. Named initially after its address - 200 Gertrude Street -  the organisation has since expanded, transforming from an address to an entity, and changing its name to Gertrude Contemporary in 2010. _x000D_
+Since 1985 we have accumulated a vast alumni of past exhibiting and studio artists including some of Australia’s leading names in contemporary art. In fact every artist who has represented Australia at the Venice Biennial since 1999 has either held a studio or participated in an exhibition at Gertrude Contemporary. This select community of Australia’s most pivotal contemporary artists has expanded in recent years to include our increasing international presence, with leading artists and curators from all over the world exhibiting in our galleries and staying in our studios. As a key generator for ideas in Australia, and with the momentum of our history behind us, Gertrude Contemporary is now the oldest, continually running contemporary art centre in Australia. </t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Gertrude Contemporary presents approximately 20 exhibitions annually featureing work by Australian and international artists across three gallery spaces with a focus on new work, commissions and expanded practice. Running along our Exhibition Program is the Gertrude Contemporary Studio Program, which consists of six non-resident studies, available to artists in the first five years of their professional practice and provided for two-year tenures. Gertrude Contemporary also has a residential study for visiting international artists, curators and writers of residences between two-weeks to three-months, as well as production of northern international tour exhibitions per year. We also offer Geruns a program as Gerte’n’s program as a whole</t>
+          <t>Gertrude Contemporary presents approximately 20 exhibitions annually featuring work by Australian and international artists across three gallery spaces with a focus on new work, commissions and expanded practice. Running alongside our Exhibition Program is the Gertrude Contemporary Studio Program, which consists of sixteen non-residential studios, available to artists in the first fifteen years of their professional practice and provided for two-year tenures. Gertrude Contemporary also has a residential studio for visiting international artists, curators and writers for residencies of between two-weeks to three-months, as well as producing several international touring exhibitions per year. We also offer a world class Education Program, Volunteer and Internship Programs, Gertrude’s Table Patrons Program, annual Gertrude Editions as well as an active publishing program.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -6226,7 +6243,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TCB art inc. is a space run by artists based in Melbourne, Australia, dedicated to providing a space where young, emerging and established artists like have the artistic freedom to explore, experiment and take risks within their practices.</t>
+          <t>TCB art inc. is a space run by artists based in Melbourne, Australia, dedicated to providing a space where young, emerging and established artists alike have the artistic freedom to explore, experiment and take risks within their practices.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6236,7 +6253,9 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>The gallery was established in 1998 by artists Blair Goodwin and Thomas Deverall, who identified a vital position for a young person's audience. What has been developed a lo-fi, high-energy project with ambitions, offering support and emerging artists at a very "grassy level" and facilitating dialogue between them and non-art communities. During its 16 years of operation, TCB has supported and developed the artists from Australia and the Asia-Pacific region, and the</t>
+          <t>The gallery was established in 1998 by artists Blair Trethowan, Sharon Goodwin and Thomas Deverall, who identified a vital position for a non-commercial, non-profit space in Melbourne’s CBD that exposed the work of young and emerging artists to a wide and disparate audience. What has developed is a lo-fi, high-energy project with ambitious aims, offering support and assistance to young and emerging artists at a very “grass roots” level and facilitating ongoing dialogue between them and the broader art and non-art communities. During its 16 years of operation, TCB has supported and developed the careers of over 600 young and emerging artists from Australia and the Asia-Pacific Region, many of whom presented their first solo exhibition at the gallery._x000D_
+In 2001 TCB moved from its original home in the Port Philip Arcade into Waratah Place off Chinatown. This space was shared with Uplands Gallery, and a unique relationship developed, which saw an artist run initiative working successfully along side a commercial gallery. This relationship has further consolidated TCB’s position within the community, enabling us to reach a much broader audience and gain invaluable experience in running the gallery. This model was further beneficial in giving many younger artists the opportunity to work and exhibit alongside more established and experienced artists, offering valuable experience and ensuring them a broader audience._x000D_
+In August 2006, Uplands Gallery relocated to Prahran, leaving TCB with the opportunity to occupy and run the entire space at Waratah Place. The gallery more than doubled in physical size, allowing for the provision of more exhibition allotments as well as the opportunity to undertake larger scale and more ambitious projects to broaden the scope of the gallery. This growth and regained autonomy has allowed TCB to cement its place as one of Melbourne’s leading independent artist run spaces.</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -6638,12 +6657,16 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>West Space was established in 1993 by Brett Jones and Sarah Stubbs and was, at the time, one of the few artists-run initiatives to present a critically engaged, multi-art program accessible to practitioners through peer-assisted applications._x000D The organization quick-grew in statue and reputation, moving in 2000 with the assistance of the City of Melbourne to a location in Anthony Street, between RMIT University and the Queen's new chapter._x000D_ In 2011 moving to our much larger and centrally located site, at the level of the City of Melbourne's building site, this city's vastness of equipment for thousands of dollars in</t>
+          <t>West Space was established in 1993 in Footscray by Brett Jones and Sarah Stubbs and was, at the time, one of the few artist-run initiatives to present a critically engaged, multi-art form program accessible to practitioners through peer-assessed applications._x000D_
+The organisation quickly grew in stature and reputation, moving premises in 2000 with the assistance of the City of Melbourne to a location in Anthony Street, between RMIT University and the Queen Victoria Market._x000D_
+In 2011 West Space began an exciting new chapter, moving to our much larger and centrally located current site, at Level 1 of the City of Melbourne owned building City Village at 225 Bourke Street. This substantially greater size has enabled us to radically expand our artistic program, offering more opportunities for audiences to engage with innovative arts events in the heart of Melbourne._x000D_
+West Space has developed a significant reputation amongst Australian and international arts organisations. This has been forged through a sustained belief in the importance of artist-run culture to practitioners, audiences and the art industry, and has manifested in a critically renowned exhibition program and a prolific range of self-generated projects and publications. Over the past 22 years West Space has exhibited over 2500 individual artists, produced 45 publications and a journal comprising 13 issues, and developed over 60 projects, including 10 international projects in Singapore, Milan, Vancouver, Toronto, Osaka, Seoul, Glasgow, Hong Kong, Oyama and Paris.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>West Space Projects are programmed to run along our application-based program and provide support to artist-initiated/developed exhibitions, publications, sound releases, performances, international exchanges and forums._x000D_ These ambitious projects negotiated innovative approaches to cultural debate, production, presentation, collaboration and exchange. They extend across arts and into non-arts areas. The West Space Projects Program enables West Space to actively generate, contribute to and support quality cultural development, alongside performing the more common artist-run-space role of presenting an application-based exhibition program.</t>
+          <t>West Space Projects are programmed to run alongside our application-based program and provide support to artist-initiated/ developed exhibitions, publications, sound releases, performances, international exchanges and forums._x000D_
+These ambitious projects negotiate innovative approaches to cultural debate, production, presentation, collaboration and exchange. They extend across artforms and into non-arts areas. The West Space Projects Program enables West Space to actively generate, contribute to and support quality cultural development, alongside performing the more usual artist-run-space role of presenting an application-based exhibition program.</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -6772,7 +6795,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Founded in 2011 by Aida Mahmudova, Yarat Contemporary Art Space is a non-commercial organization dedicated to the promotion and development of Contemporary art in Azerbaijan. Based in Baku, Yarat aims to create a platform, in the country and internationally, for established as well as emerging artists, implementing itss through organised exhibitions, events and educational programs. Looking to the future, one of the key objectives of YARAT is to form dialogue, exchange and bridge the gap between different cultures as well as art institutions.</t>
+          <t>Founded in 2011 by Aida Mahmudova, YARAT Contemporary Art Space is a non-commercial organisation dedicated to the promotion and nurturing of Contemporary art in Azerbaijan. Based in Baku, YARAT aims to create a platform, in the country and internationally, for established as well as emerging artists, implementing its aim through organising exhibitions, events and educational programs. Looking to the future, one of the key objectives of YARAT is to form dialogue, exchange and bridge the gap between different cultures as well as art institutions.</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -6896,7 +6919,11 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Conical is an independent contemporary art space that supports the production and presentation of new work by local and international artists._x000D_With an interest in space, temporary and conceptual movements in visual art, Conical’s focus is on site-related activities, especially those that embrace transcendent and fragmented responses to place._x000D_Emphasing a reciprocal exchange between artist and organization, Conical acts as an integral agent in the process of implementation exhibitions and projects._x000D_ An opportunity is provided for both independent and representative artists to test or consolidate their practices. The provision of time, space and dialogue encourages risk and criticism._x000D_over the past</t>
+          <t>Conical is an independent contemporary art space that supports the production and presentation of new work by local and international artists._x000D_
+With an interest in spatial, temporal and conceptual movements in visual art, Conical’s focus is on site-related activities, particularly those that embrace transient and fragmented responses to place._x000D_
+Emphasising a reciprocal exchange between artist and organization, Conical acts as an integral agent in the process of realizing exhibitions and projects._x000D_
+An opportunity is provided for both independent and represented artists to test or consolidate their practice. The provision of time, space and dialogue encourages risk and criticality._x000D_
+Over the past decade Conical has continued to evolve its operational model in response to the currencies of contemporary discourse. Director, Adrien Allen, shapes a flexible program of exhibitions and projects – both internally curated and application based.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6906,7 +6933,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2013_x000D_ An increasing soil supply of choices, Conical has built a particular set of conditions for artists to respond._x000D_ Over the past eleven years of continuous programming much documentary material has been assembled, including images, text and recorded conversations. Some appear on our website, some still to be archived. For many reasons, now feels like the right time to consolidate, reflect this material, as a document and as an inducer of new projects._x000D Beyond remembering activities of ‘living archive’ that further conical is</t>
+          <t>2013_x000D_
+In an increasingly crowded landscape providing a plethora of choices, Conical has built a particular set of conditions for artists to respond to._x000D_
+Over the past eleven years of continual programming much documentary material has been amassed, including images, text and recorded conversations. Some appears on our website, some has yet to be archived. For many reasons, now feels like the right time to consolidate, reflect upon and develop this material, both as a document and as an instigator of new projects._x000D_
+Beyond memorialising past activities the idea of a ‘living archive’ that further propels Conical’s self-reflexive agenda is of interest and has an exciting potential to manifest in a variety of forms, recasting the Conical project._x000D_
+Conical announces that our current exhibition is the final for thetime being._x000D_
+After supporting spatial, temporal and conceptual practices in Melbourne since 2001 Conical will no longer operate an annual program of exhibitions. However, the space will continue to be used for Conical projects, and at other times may be available for hire (all enquiries to info@conical.org.au).</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -7038,7 +7070,8 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>SEA Foundation is located in the heart of the “Vemarkt Quartier” VMK, the area that plays a vital role in building new creative activity in Tilburg.SEA Foundation has its own exhibition space: Project Tilburg Gust van Dijk. _x000D_SEA Foundation is a private, non-profit, artist-run initiative that initiatives and coordinates events, residences and exhibitions.</t>
+          <t>SEA Foundation is located in the heart of the “Veemarkt Kwartier” VMK, the area that plays a vital role in shaping new creative activity in Tilburg.SEA Foundation has its own exhibition space: Project Space Tilburg Gust van Dijk. _x000D_
+SEA Foundation (SEA) is a private, non-profit, artist-run initiative that initiates and coordinates events, residencies and exhibitions. SEA provides on-going space for production, presentation and research.In all their activities the organization is fueled by visual arts. Transgressing the boundaries between cultures and disciplines, SEA Foundation always puts context and the idea before the medium. By working in different cultural contexts worldwide, the foundation generates discussion by exposing and intervening within, as well as being part of, cultural processesthat concentrate on current (emerging) social, political and ecological issues. SEA supports these processes in becoming more productive, visible and solid.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -7049,7 +7082,15 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>The target of the SEA Foundation is to connect to a nature. SEA Foundation is an independent organization. It is to develop, with which we choose long-term cooperation and work in contemporaryness.</t>
+          <t>The main objective of SEA Foundation is to connect with society and to anchor Art &amp; Culture in a natural way. SEA Foundation is an independent not-for-profit organization._x000D_
+Our strength is to develop, guide and realise an entire trajectory with a permanent result, with which we choose for long term cooperation and working in togetherness._x000D_
+The combination of knowledge, abilities and experience translates itself in services such as:_x000D_
+in Artists Practice -   Coaching -   Empowerment -    Fundraising -   Project management -   Enterpreneurial skills_x000D_
+Visual arts are central in all our activities. We awaken your imagination with our creative approach, vision and plans._x000D_
+Our work is more than just developing new ideas, drafting plans or organising events. We supply concrete and practical advice on how to elaborate ideas and realise projects. We guide and support you in the whole process of bringing projects to a successful realisation._x000D_
+Communicative, open and direct, we are trying to get through to people, to activate them with our enthusiasm and to show new perspectives from a different angle. Like this we accomplish a mind shift, create strong connections and initiate new forms for cooperation and growth._x000D_
+We make undiscovered abilities available and open creative potential with the power of the three D’s: Dream, Dare and Do! And doing this we not only think but also share. In this way, old insights are replaced with new ones._x000D_
+We initiate change and forge new connections.</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -7344,7 +7385,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Contemporary Art / Contemporary Art</t>
+          <t>Art contemporain / Contemporary Art</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -7603,7 +7644,7 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Bell street project space is the curatorial project of artists Alex Lawler and Marita Fraser. From 2006 - 2010 it was an artist run in initial housed in a shop front at 22 bellgasse in the second district of Vienna. From 2011 it exists as an independent mobile project based out of London.</t>
+          <t>Bell street project space is the curatorial project of artists Alex Lawler and Marita Fraser. From 2006 - 2010 it was an artists run inniative housed in a shop front at 22 glockengasse in the second district of Vienna. From 2011 it exists as an independant mobile project based out of London.</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8145,18 +8186,30 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>periscope is an event-led for young (visual) artists, which exists and operates since 2006 in the City of Salzburg. Ever since then periscope helps realize, it is an ambiton to work as a vital included space. _x000D ¡ periscope stands for our purposes: we were created a stable platform for young artists, offers a place to discuss and develop projects. We wanted to cooperate with different people, organizations and social networks, bringing people with similar interests.</t>
+          <t>periscope is an event-led off-space for young (visual) artists, which exists and operates since  2006 in the City of  Salzburg. (Austria) Ever since then periscope continuously helps realising, presenting and promoting projects of young contemporary artists. It is an ambiton to work as a vital inclusive space. _x000D_
+∎ periscope stands for our intentions: we wanted to generate a stable platform for young artists, offer a place to present, discuss and develop projects. We wanted to cooperate and link with different people, organisations and social networks, bring together different people with similar interests._x000D_
+We wanted gain for young art and artist, as well as for periscope as an by artists organised space a place and support in the Salzburg art landscape._x000D_
+∎ A periscope is an instrument for observation from a concealed position._x000D_
+periscope: the name seemed to fit: in under water concealed submarines they give a panorama view of the surface. periscope stands für a glimpse of another new sphere, stands for deliberatly seeking contact, and stands for readily connecting. _x000D_
+Apart from periscope:project:space, which is the infrastructure we can offer, periscope also offers personal support by each member and friend for projects to be realised. _x000D_
+∎ periscope exists as non-profit organisation, with the legal structure of an registered association. The Initiative is carried by commited friends and interested Zeitgenossen on a voluntary basis.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Founding members and Initiators are the three young artists:_x000D_ Stefan Hezinger _x000D_ Elisabeth Schmirl _x000D_ Bernhard Lochmann _x000D_ Karin Peyker (since 2009)_x000D_ Laila Huber (since 2011)</t>
+          <t>Founding members and  Initiators are the three young artists:_x000D_
+Stefan Heizinger        _x000D_
+Elisabeth Schmirl     _x000D_
+Bernhard Lochmann  _x000D_
+Karin Peyker (seit 2009)_x000D_
+Laila Huber (seit 2011)</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Every since periscope started operation, the project space turned out to be extremely versatile. Now we can say: When we start new projects this one of our proposals. We are very interested in continuously putting this Versatility to the test. periscope prefers to realize and help visualizing, projects which are distinctive, room-filling and -changing and are dealing with the special space situations we offer._x000D_</t>
+          <t xml:space="preserve">Ever since periscope started operating, the project space turned out to be extremely versatile.  Now we can say: When we start new projects this one of our propositions. We are very interested in continuously putting this Versatility to the test. periscope prefers to realize and helps visualing, projects which are distinctive,room-filling and -changing and are dealing with the  special space situations we offer._x000D_
+ </t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -8710,7 +8763,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>It was found in 2001 by the artists Mike Schierloh and Job van Liefland in an auto body shop as a non-for-profit space for art beyond the hierarchies of the art market.</t>
+          <t>It was founded in 2001 by the artists Maik Schierloh and Joep van Liefland in an auto body shop as a not-for-profit space for art beyond the hierarchies of the art market.</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -9108,7 +9161,10 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Founded in September 1972, Open Space is a non-profit artist-run centre located in Victoria, British Columbia. For over strong years, Open Space has supported professional artists who use hybrid and experimental approaches to media, art, music, and performance. As an exhibition and performance centre, Open Space reflects the wide diversity of contemporary art practices in Victoria, across Canada, and beyond. Our committee to contemporary artists is an inclusive situation, embracing work by artists of different disciplines, media, generations, cultures, and communities._x000D_Open Space supports experimental arts practices in all contemporary arts disciplines, acting as an audiovisual arts, acting as an audiovisual arts.</t>
+          <t xml:space="preserve">Founded in September 1972, Open Space is a non-profit artist-run centre located in Victoria, British Columbia. For over forty years, Open Space has supported professional artists who utilize hybrid and experimental approaches to media, art, music, and performance. As an exhibition and performance centre, Open Space reflects the wide diversity of contemporary art practices in Victoria, across Canada, and beyond. Our commitment to contemporary artists is an inclusive situation, embracing work by artists of different disciplines, media, generations, cultures, and communities._x000D_
+_x000D_
+Open Space supports experimental artistic practices in all contemporary artsdisciplines, acting as a laboratory for engaging art, artists, and audiences. _x000D_
+</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -9530,7 +9586,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>For Site is Hong Kong's leading contemporary art centre and one of the oldest and most active independent art institutions in Asia. It produces exhibitions, publications and discuss projects assisted at forgetting a critical understanding of local and international phenomenon in art and society.</t>
+          <t>Para Site is Hong Kong's leading contemporary art centre and one of the oldest and most active independent art institutions in Asia. It produces exhibitions, publications and discursive projects aimed at forging a critical understanding of local and international phenomena in art and society.</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -9540,12 +9596,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Founded in early 1996 as an artist run space, Para Site was Hong Kong's first institution of contemporary art and a crucial self-organised structure within the city's civil society, during the uncertain period prior to its handover to Mainland China. Throughout the years, Para Site has evolved into a professional contemporary art centre, engaged in a wide range of activities and collaborations with other art institutions, museums, bienniums and academic structures in Hong Kong and the international landscape. After the first year in Kennedy Town, Para Site relocated to Po Yan Street in Sheung Wan (at No. 2 in the initial years and at No. 4 until 2014). For Site moved to North Point/Quarry Bay in Cos (Fourty Bay) (Fourty Bay in 2015).</t>
+          <t xml:space="preserve">Founded in early 1996 as an artist run space, Para Site was Hong Kong's first institution of contemporary art and a crucial self-organised structure within the city’s civil society, during the uncertain period preceding its handover to Mainland China. Throughout the years, Para Site has evolved into a professional contemporary art centre, engaged in a wide array of activities and collaborations with other art institutions, museums, biennials and academic structures in Hong Kong and the international landscape. After the first year in Kennedy Town, Para Site relocated to Po Yan Street in Sheung Wan (at no. 2 in the initial years and at no. 4 until 2014). Para Site moved to North Point/Quarry Bay in early 2015. The institution has been led by Tobias Berger (2005-2008), Alvaro Rodriguez Fominaya (2008-2011) and Cosmin Costinas (since 2011). </t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Through its history, Para Site's activities have included a range of different formats, together with which a smaller parallel exhibition space, Para/Site Central, hosted by Hanart TZ Gallery in Central (1997-2008); P/S magazine (1997-2006), a bilingual publication which was Hong Kong's first visual arts magazine and a central platform for the development of art writing and of a discursive scene in the city; and the Curatorial Training Programme (2007-2010). Since 2012, For Site has been running an International Art Residence Program.</t>
+          <t xml:space="preserve">Throughout its history, Para Site's activities have included a range of different formats, among which a smaller parallel exhibition space, Para/Site Central, hosted by Hanart TZ Gallery in Central (1997-2008); P/S magazine (1997-2006), a bilingual publication which was Hong Kong's first visual arts magazine and a central platform for the development of art writing and of a discursive scene in the city; and the Curatorial Training Programme (2007-2010). Since 2012, Para Site has been running an International Art Residency Programme. </t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -9814,7 +9870,12 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Voltaire was launched in 1994 by a collective of two artists who set up a studio space in a dissuasive trauma on Voltaire Road, Clapham. In 1999 the organization moved to its current location on Nelson's Row, close to Clapham High Street and grow to become a registered charity in 2001. The move to a wider site enabled us to expand our studios and offer a dedicated gallery space in a strand, attaching to the studio which remains unique resources for the area.</t>
+          <t xml:space="preserve">Studio Voltaire was initiated in 1994 by a collective of twelve artists who set up a studio space in a disused tram shed on Voltaire Road, Clapham. In1999 the organisation moved to its current location on Nelson’s Row, close to Clapham High Street and grew to become a registered charity in 2001. The move to a larger site enabled us to expand our provision of affordable studios and offer a dedicated gallery space in a Victorian former chapel, adjacent to the studios, both of which remain unique resources for the local area._x000D_
+Our studios currently house over 45 London based artists, ranging from internationally recognised practitioners to recent graduates and includes two groups supporting artists with learning difficulties – Actionspace and Intoart. In recent years, the studios have also hosted a number of residencies for national and international artists; partners have included Berlin Senate, Collective Gallery, British Council, Outset and Royal College of Art._x000D_
+Through an ambitious public programme of exhibitions, commissions, live events and offsite projects we play a key role in supporting emerging practices and ideas, often giving artists their first solo exhibition in London. We like to invest in the production of work by commissioning new projects that may not always be possible within institutional or commercial frameworks. Our programme is intergenerational, supporting emerging and underrepresented practices and allowing artists to develop new work on their own terms. This unique way of working allows us to develop long-term relationships with artists, often working together on multiple occasions._x000D_
+Studio Voltaire’s gallery space is characterised by a dramatic vaulted ceiling and is flooded with natural light, providing a dynamic space to work in that is very unusual in London. Previous exhibited artists include Nairy Baghramian, Phyllida Barlow, Simon Bedwell, Juliette Blightman, Nicholas Byrne, Spartacus Chetwynd, Chris Evans, Thea Djordjadze, Liam Gillick, Anthea Hamilton, Emma Hedditch, Intoart, Goshka Macuga, Dawn Mellor, Henrik Olesen, Elizabeth Price, Jo Spence, Joanne Tatham &amp; Tom O’Sullivan, Donald Urquhart, Lawrence Weiner and Cathy Wilkes._x000D_
+We are committed to widening participation from individuals and groups who may not typically access contemporary art. Since 2002 Studio Voltaire has been running wide reaching education projects and in 2011 we initiated Not Our Class,a unique programme of participation and research based within a community and contemporary art context._x000D_
+2014 marked 20 years of Studio Voltaire supporting artists. In this time we have grown from a local artist collective to receive regular funding from Arts Council England as a sign of best practice.  We continue to generate the majority of our core income independently via studio rents, commercial hires and trading. Our strengths and ambitions have grown over the years and we are proud of our unique way of working, which remains close to the creative process at a grassroots level and places great emphasis on risk-taking. By placing the artist at the centre of everything we do we aim to continue to develop our programmes to engage with wider audiences into the future. </t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
@@ -9944,7 +10005,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>White Columns presents a starting program of exhibitions, projects, talks, screenings, and events. It is a non-for-profit gallery which is open to the public, free-of-charge.</t>
+          <t xml:space="preserve">White Columns presents an ongoing program of exhibitions, projects, talks, screenings, and events. It is a not-for-profit gallery which is open to the public, free-of-charge. </t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -9954,7 +10015,8 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>White Columns is New York's oldest alternative art space. It was found in 1970 by Jeffrey Lew and Gordon Matta-Clark as an experimental platform for artists. Originally located in Soho (and known as the 112 Workshop 112 Green Street), the organization was named White Colons when it moved to Spring Street in 1979. In 1991 White Colons moved to Christopher Street in the West Village, and in 1998 the gallery relocated to its present address on the border of the West Village and Meat Packing District. Over the past three years, hundreds of artists have benefited from early exposure and support at White Colums, Highston, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, New York, South and New York, South, South and New York, South and New York, South and New American.</t>
+          <t>White Columns is New York's oldest alternative art space. It was founded in 1970 by Jeffrey Lew and Gordon Matta-Clark as an experimental platform for artists. Originally located in SoHo (and known as the 112 Workshop/112 Greene Street), the organization was renamed White Columns when it moved to Spring Street in 1979. In 1991 White Columns moved to Christopher Street in the West Village, and in 1998 the gallery relocated to its present address on the border of the West Village and Meat Packing District. Over the past forty-three years, hundreds of artists have benefited from early exposure and support at White Columns, including: Gordon Matta-Clark, Jene Highstein, Barry Le Va, Alice Aycock, Richard Nonas, Jackie Windsor, Willoughby Sharp, Susan Rothenberg, Kiki Smith, Harmony Hammond, William Wegman, Peter Fend, Sonic Youth, Barbara Ess, John Miller, David Robbins, Jack Goldstein, John Stezaker, David Wojnarowicz, Michael Smith, Douglas Blau, Ashley Bickerton, Group Material, Felix Gonzalez-Torres, Andres Serrano, Fred Wilson, Sturtevant, Cady Noland, ACT-UP, Lorna Simpson, John Currin, Sean Landers, Verne Dawson, Marlene McCarty, Lutz Bacher, Tom Burr, Jim Hodges, Glenn Ligon, Jack Pierson, Kathe Burkhart, Richard Phillips, Sarah Sze, and Aida Ruilova, amongst many others. Since 2005, we have presented the work of more than 500 artists - of all generations - in more than 100 individual exhibitions and projects, including: Michele O’Marah, Carter, Aurie Ramirez, Simon Martin, Judy Linn, Jack Jaeger, Eileen Quinlan, Elena Pankova, Robin Graubard, Frank Majore, Dodie Bellamy, Kevin Killian, Colter Jacobsen, John Stezaker, William Scott, Mitzi Pederson, Luke Fowler, Paul Butler, Steven Claydon, Sarah Anne Lobb, Simon Bedwell, Donald Urquhart, Graham Durward, and Lars Laumann, amongst many others._x000D_
+StaffMatthew Higgs Director/Chief CuratorErin Somerville Deputy Director/CuratorSean Keenan Curatorial Associate/ArchivistCortney Andrews Financial Coordinator Kerri Ammirata Gallery AssociateBoard of DirectorsGregory Miller President, Stephen Abramson, Polly Apfelbaum, Carmine Boccuzzi, Gavin Brown, Eileen Cohen, Gregory Crewdson, Eric Diefenbach, Carol Dorsky, Martin Eisenberg, Yvonne Force Villareal, Jeanne Greenberg Rohatyn, Monica Halpert, Nathan Kacew, Marilyn Minter, Frank Moore, Corrie Sandelman, Pam Sanders, Lorna Simpson, Randy Slifka, Kevin YaoHonorary BoardBill ArningPaul Ha Cady NolandLauren RossAndres SerranoLisa Yuskavag</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -10084,18 +10146,20 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>The Artists Village (TAV) is a contemporary art group in Singapore. Founded by contemporary artist Tang Da Wu in 1988 at 61-B Loong Gambas in Sembawang. He enabled like-made contemporary artists to critically re-look and examine existing topics, values and concepts of art making in Singapore. _x000D_MEBERS _x000D Agnes Yit, Andree Weschler, Arab Ayab, Ben Puah, Chan Chandramohan, Cheng Guangfeng, Ching Seok Tin, Chchuopherson Ho, Dan Yeo, Ezzam Rahman, Farah, Ghazi Alsot, Giles Massot, Ivan Wijon, Jacquelyn Soo, Jennifer Teo, Kai Hiah, Kai Lampar, Koh Jang-Lang,</t>
+          <t>The Artists Village (TAV) is a contemporary art group in Singapore. Founded by contemporary artist Tang Da Wu in 1988 at 61-B Lorong Gambas in Sembawang. He enabled like-minded contemporary artists to critically re-look and examine existing assumptions, values and concepts of art making in Singapore. _x000D_
+MEMBERS _x000D_
+Agnes Yit, Andree Weschler, Arif Ayab, Ben Puah, Chan Chandramohan, Cheng Guangfeng, Chng Seok Tin, Christopherson Ho, Chua Chin Chin, Dan Yeo, Ezzam Rahman, Farah Ong, Ghazi Alqudzi, Gilles Massot, Iwan Wijono, Jacquelyn Soo, Jason Lee, Jennifer Teo, Jeremy Hiah, Kai Lam, Koh Nguang How, Lim Shengen, Marienne Yang, Marcel Gaspar, Mideo M Cruz, Paisan Plienbangchang, Shin-Young Park, Sophia Natasha Wei, Tang Dawu, Tien Woon, Urich Lau.</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>The Artist Village was Singapore's first artist colony, which able artists to explore radical new ways and ideals in making art that is in synch with the social changes and state affairs in the late 1980s. From 1989 onwards, the village came alive with pre-garde performances and art exhibitions with 7 art shows that year. At the height of the village history, The Artist Village housed 35 artists with 50 other artists participating in other art activities organized by the village. In 1990, The Artist Village organized a 24-hour art event called The Time Show. It brought together artists working in all forms of media in one art show.</t>
+          <t>The Artist Village was Singapore's first artist colony, which enables artists to explore radical new ways and ideologies in making art that is in synch with the societal changes and state affairs in the late 1980's. From 1989 onwards, the village came alive with avant-garde performances and art exhibitions with 7 art shows that year. At the height of the village history, The Artist Village housed 35 artists with 50 other artists participating in other art activities organised by the village. In 1990, The Artist Village organised a 24-hour art event called The Time Show. It brought together artists working in all forms of multimedia in one art show. Sadly that same year, the village's land was repossessed by the Singapore Government for urban development.</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>The Artists Village is dedicated to the promotion and encouragement of experimental and alternative artists in Singapore. It then to establish an open space for artists to mature at their own peace, and to provide an environment driving for artists to experiment, experience and exchange ideas.</t>
+          <t>The Artists Village is dedicated to the promotion and encouragement of experimental and alternative arts in Singapore. It endeavors to establish an open space for artists to mature at their own pace, and to provide an environment conducive for artists to experiment, experience and exchange ideas.</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -11240,18 +11304,22 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>The ARTOs Cultural and Research Foundation was found by the artists Achilles Kentonis and Maria Papacharalambous. It is a contemporary arts and science centre dedicated to research and creativity: two magical worlds of adventure and discovery, incorporating sojourns into the fields of learning, chaos and imagination. Its premises, both transcendental and material, inspires the contemporary artist/creator and the scientist/creator alike, offering to both a platform, promoting them at a local as well as at an international level, with quality being the main criterion._x000D_</t>
+          <t xml:space="preserve">The ARTos Cultural and Research Foundation was founded by the artists Achilleas Kentonis and Maria Papacharalambous. It is a contemporary arts and science center dedicated to research and creativity: two magical worlds of adventure and discovery, encompassing sojourns into the fields of learning, chaos and imagination. Its premises, both transcendental and material, inspire the contemporary artist/creator and the scientist/creator alike, offering to both a platform, promoting them at a local as well as at an international level, with quality being the main criterion._x000D_
+ </t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>The Foundation is housed in premises which once hosted the apothecies of Nicosia's Omologites parish, Hehte the inspiration for its name: “artos” or “bread”, the product of the bakeries, a stable Dietary item for the people of Cyprus through the ages; at the same time, there’s “Arts Operating System”, which places us directly in the modern era of the technology which, incidentally, we should never forget, meaning “the systematic treatment of an art”, and that, according to Zenios,” is the bread which premises for the people of Cyprus; and the traditional architecture of the inhabitants of the city of the city, whose furnishings a</t>
+          <t xml:space="preserve">The Foundation is housed in premises which once hosted the bakeries of Nicosia’s Agii Omologites parish, hence the inspiration for its name: “artos” or “bread”, the product of the bakeries, a staple dietary item for the people of Cyprus through the ages; at the same time, there’s “ARTos” (ARTs Operating System), which places us directly in the modern era of the apotheosis of Technology which, incidentally, we should never forget, etymologically means “the systematic treatment of an art”, and tha Art, according to Zenios, “…is the Bread (artos) which gladdens the soul”!_x000D_
+The very premises themselves constitute another unique experience to the visitor. The traditional architecture of the 1901 building converses with the industrial edifice of 1950 which once housed the bakeries, while at the same time we see incorporated into the entire complex a modern extension completed in 2003, thus creating an autonomous work of art marked by artful plasticity and rhythm. One could say that this is a space inspiring and challenging creativity, a situation, in any case, constituting that which is desired._x000D_
+Furthermore, during the refurbishment process and by opportune coincidence, we discovered and reconstructed a complex comprising nine unique ancient tombs dating back to the Hellenistic or, according to others, archaic period. In this way, the Foundation, with a solid foothold in the past, has, at the same time, its sights turned towards the future; it is inspired by ancient art and, through the use of modern technology, serves Cyprus’ timeless civilization, providing a platform for artistic and scientific creativity on a local and at the same time international level._x000D_
+ </t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>It functions as a multidimensional space, organizing and supporting the production of multifaceted events from the world of theatre, music, dance, cinema, visual arts, letters and sciences. At the same time, its multipurpose spaces are available to individuals, organizations and other agencies for the hosting of events, presentations, seminars, symposium, conferences and scientific or other workshops.</t>
+          <t>It functions as a multidimensional space, organizing and undertaking the production of multifaceted events from the world of theatre, music, dance, cinema, visual arts, letters and sciences. At the same time, its multipurpose spaces are available to individuals, organizations and other agencies for the hosting of events, presentations, seminars, symposia, conferences and scientific or other workshops.</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -11506,7 +11574,7 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Setting out in 1999 in Sang-Su Dong, and then moved to a base in Seo-Kyo Dong, alternative Space Loop is about entering up a new chapter of its history starting from the year 2005. Loop plans to expand size-wise; however its very first committee for suggesting alternatives for Korean Art scene remains the same. Loop will keep sticking to its foremost responsibility of defining alternative Asian art and culture by confronting Western-oriented globalization. In addition, Loop plans to set up a new platform for Asian contemporary art industry, and promotions and art market that is dynamic yet right. Loop objects to an alternative for the Korean Art scene remain the same.</t>
+          <t>Setting out in 1999 in Sang-Su Dong, and then moved to a basement in Seo-Kyo Dong, alternative Space Loop is about to entering upon a new chapter of its history starting from the year 2005. Loop plans to expand size-wise; however its very first commitment for suggesting alternatives for Korean Art scene remains the same. Loop will keep sticking to its foremost responsibility of defining alternative Asian art and culture by confronting Western-oriented globalization. In addition, Loop plans to set up a new platform for Asian contemporary art industry, and promotes an art market that is dynamic yet upright. Loop objects to an alternative for the sake of an alternative. With clear vision and mission, Loop will become a truly alternative space that challenges the mainstream art institutions. In order to advocate artists to produce more and better quality works, and also to define identities for Asian contemporary arts, Loop will continue the following activities.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -12228,18 +12296,19 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>SSamzi Space, sponsored and operated by SSamzi Co. Ltd. (President Chun Ho-kyun), opened in June 2000 as a composite-culture space to promote cutting-edge art in Korea. It is located in the area of Hong-ik University, which is the hotbed of art production and consumption in Seoul and also the main Gahering spot for artists. SSamzi Space, which has become an incubator for new generation art, is linked to and is an extension of the SSamzi Art Project launched in March 1998. SSamzi Space's three galleries, named the Main Gallery (3F), Project Gallery (2F), and Garage Gallery (1F) and the Media Theater "Baramzios" are created, together to create the wastes of wastes of waste, wastes of wastes of waste and wastes of wastes of wastes of waste.</t>
+          <t xml:space="preserve">SSamzie Space, sponsored and operated by SSamzie Co. Ltd. (president Chun Ho-kyun), opened in June 2000 as a composite-culture space to promote cutting-edge art in Korea. It is located in the area of Hong-ik University, which is the hotbed of art production and consumption in Seoul and also the main gathering spot for artists. SSamzie Space, which has become an incubator for new generation art, is linked to and is an extension of the SSamzie Art Project launched in March 1998. SSamzie Space's three galleries, namely, the Main Gallery (3F), Project Gallery (2F), and Garage Gallery(1F) and the Media Theater "Baram"(2F) together make up the activity space presenting on a regular basis various exhibitions, performances, concerts and events. The art studios located on the 4th to 6th floors are the creative spaces of the young artists. The 5th floor, the main office as well as an archive, is provided with art books, journals, catalogues, videos, and artist portfolios. </t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>SSAMZIE AR PROJECTSSamzi launched the 'Ssamzi Art Project' to support and sponsor artists during the unprecedented financial crisis of the IMF in 1998. Even though SSAMZI has previously established a background of art based product designs, performances from comprehensive fashion shows, art prints, art advertisements, art books, and various cultural event sponsorships, this market a new deal of SSAMZI's art support. Through art studies, overseas exhibition promotion, and Gallery Hyundai exhibition programs, the 'SAMZI Art Hyundai' has become the puzzle for the creativity of young early-guarded artists. Moreover, the range of the project has reached experimental and progressive events, including dances,</t>
+          <t>SSAMZIE ART PROJECTSSamzie launched the 'SSamzie Art Project' to support and sponsor artists during the unprecedented financial crisis of the IMF in 1998. Although SSamzie had previously established a background of art based product designs, performances from comprehensive fashion shows, art prints, art advertisements, art books, and various cultural event sponsorships, this marked a new peak of SSamzie's art support. Through art studios, overseas exhibition promotion, and Gallery Hyundai exhibition programs, the 'SSamzie Art Project' has become the bedrock for the creativity of young avant-garde artists. Moreover, the range of the project has reached experimental and progressive art genres, including, among others, underground music, progressive dance, and independent films.</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>PRORAMGLARIES (1F, 3F)The three galleries of SSamzie regular hold to eight exhibitions, curated to meet the characteristics of each exhibition, which is: "The Emerging only exhibitions of young artists."</t>
+          <t>PROGRAMGALLERIES (1F, 2F, 3F)The three galleries of SSamzie Space regularly hold six to eight exhibitions, curated to meet the characteristics of each gallery. The annual project exhibitions, which form the main frame of the exhibition programs, are: "The Emerging": the simultaneous solo exhibitions of three young emerging artists."Pick &amp; Pick": one leading artist, 'picked' by SSamzie Space 'picks' his junior artists and pupils to form a group exhibition."Title Match": the two-person exhibition for a dialogue and friendly rivalry between a 20th century avant-garde artist and a young futuristic artist of the 21st century. International exchange exhibition: the international group exhibition based on the shared experiences of mutual visits between Korean and foreign artists.Artist Studio (4F, 5F, 6F)The artist studios epitomize the character of SSamzie Space, different from ordinary galleries and museums. Each year, new artists are invited to the Studio Program and are then provided with studio space and supported for their creative endeavors. At the end of their one-year-long residency, artists hold "The Open Studio" exhibition to show the fruits of their artmaking and also to donate one of their works, which form the basis of the 'SSamzie Art Collection'. In 2001, the Studio Program was expanded to include foreign artists and project teams, which later evolved into the short-term residency program for foreign artists and overseas Korean artists. Each year an Australian artist is invited to the short-term program through Asialink and in 2005 the exchange studio program between the international artist-in-residency programs will begin.THE MEDIA THEATER "Baram (Wind)" (2F)Concerts by underground rock bands are mainstays for the evenings and occasionally, art performances, avant-garde films, and media art festivals are hold here as well, with which "Baram" has been recognized as an alternative space and has attracted attention from the mass media. All concerts and performances are programmed by "Ssamnet" which casts on Internet broadcasting network of "SSamzie". At the same time, "Ssamnet" has also become devoted to selecting new artists, marketing, planning concerts, and producing albums._x000D_
+Archive (5F)The archive is stocked with art books, journals, catalogues, videos, and portfolios of progressive young artists. Once all preparations are ready, the archive will be open to the public via a membership program. It is expected that this archive can serve as an information and reference center for new generation art.</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -12366,7 +12435,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Grimmuseum gUG is a non-profit artists-run institution that promotes visual art, performance art and sound art in the premises of the form Luise Grimm Museum in Kreuzberg, Berlin. Grimmuseum was found in 2010 by artist Enrico Centonze with the goal to create an interdisciplinary platform for established as well as emerging Berlin-based artists and curators.</t>
+          <t xml:space="preserve">Grimmuseum gUG is a non-profit artists-run institution that promotes visual art, performance art and sound art in the premises of the former Luise Grimm Museum in Kreuzberg, Berlin. Grimmuseum was founded in 2010 by artist Enrico Centonze with the goal to create an interdisciplinary platform for established as well as emerging Berlin-based artists and curators. </t>
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
@@ -12628,13 +12697,13 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>G39 is an artist-run in the centre of Cardiff, Wales's capital city. The organization recently relocated from a narrative where it originated, to an expansive warhouse. Here you can see a wide-range program from major exhibitions and formal symposia to experimental projects and intimate events. In addition to the gallery program, also works in excellent locations for individual projects. The organization also runs the artist resource – and opened space for artists.</t>
+          <t>G39 is an artist-run gallery in the centre of Cardiff, Wales’ capital city. The organisation recently relocated from a narrow three storey building where it originated, to an expansive warehouse. Here you can see a wide-ranging programme from major exhibitions and formal symposia to experimental projects and intimate events. In addition to the gallery programme, g39 also works in offsite locations for individual projects. The organisation also runs Wales Artist Resource Programme – WARP - an open-access resource and training space for artists. G39 focuses on contemporary work and consciously programmes a mix of work from Wales with work from further afield, placing work by established names alongside work by emerging or lesser known artists. The focus is on experimentation and risk and g39 aims to provide the opportunities to showcase new work rather than relying on selling. The organisation exists with the generous support of the Arts Council Of Wales and in 2004 it became the first artist-run space in Wales to be supported by a revenue agreement with ACW. In 2008 g39 was recognised as a Beacon company, an award that aims to ‘enable those companies and organisations which consistently create work of high quality and achieve levels of excellence to develop’. The Arts Council currently provide around 60% of the organisation's total costs and the remainder is provided through different trusts and organisations and, crucially, the input of a number of volunteers on the project. Between 2008 and 2011 the WARP programme was generously supported by the Esmée Fairbairn Foundation.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Grunt was established in 1998 and incorporated in 2000; it is an artist running in the heart of Cardiff and is part of a community and part of a resource. Founded by artists Chris Brown and Anthony Shapland and supported by numerous artists about its lifetime, it has organized exhibitions both in the permanent 'white cube' space as well as officted</t>
+          <t>G39 was established in 1998 and incorporated in 2000; it is an artist run organisation in the heart of Cardiff and is part gallery, part community and part resource. Founded by artists Chris Brown and Anthony Shapland and supported by numerous artists over its lifetime, it has organised exhibitions both in the permanent ‘white cube’ space in Cardiff city centre as well as using offsite temporary venues including digital display boards, billboards, shipping containers, warehouses and empty shop units. The project started in the upstairs, disused rooms of a former travel agent on Mill Lane. Shapland, who grew up in Bargoed, lived in the space after returning from studies to Wales in the mid-nineties renting the top floor, a run-down flat with no shower (the nearby Empire Pool providing showers). This eventually became a studio space as well as basic accommodation. Having worked at The Tannery, an artist run space in London, Shapland was keen to see what could be done in Wales and realised the potential for the city centre space as a showing space for other artists. At that time he was involved in delivering an artists project for Ffotogallery with another artist, Chris Brown. Brown had arrived in Wales to start an MA in Newport and was equally keen to get involved in generating a project. There seemed to be a new interest in younger artists in Wales, running parallel with a new found confidence in Welsh music, film and literature. Around that time the Centre for Visual Arts was about to open, with a lot of hopes for its future,Jennie Savage was running SKIP, an art-zine that was bringing together artists and writers, the first Ffresh show atChapter (www.chapter.org) opened, curated by Karen MacKinnon, a cross section of new work being produced at that time in Wales and Show1, curated by John Hambley in a temporary space at Jacobs market followed a similar path. Hambley, a Fine Art graduate from Cardiff, went on to become an arts officer at the Arts Council Of Wales(www.artswales.org), and was instrumental in expanding the knowledge of artist run practice at the Council. The phenomenon of artist-initiated projects is by no means novel and the motivations and ambitions of different spaces are as varied as their output. The idea of providing independent or new ways of working acknowledges a certain ideological belief that the self-empowering nature of artist-run spaces could be used to shape culture. A willingness to be open to change, being flexible enough to adapt and respond to dominant political or cultural trends – whether for or against – has ensured that these spaces have maintained a key position in the mechanisms of the artworld. Shapland and Brown started working on the project together and an application was made to develop the idea of a showing space in Mill Lane. With the impermanence of the building in mind the two devised a naming system that would incorporate change; taking the g from gallery and the street number of whichever building the project moved to the project made the threat of change part of its being. It could be g39, g40, g101 but the formula stayed the same. Finally, with the support of the landlord of the time a period of rent-free use was negotiated in exchange for some renovation and a modest grant enabled work to start in 1997. Calling in favours from friends and family and developing links with artists that were keen to see the project develop the space was re-built, re-wired and re-plumbed on a shoestring. The first show, Pistol, opened in July 1998. Curatorially the show was a bit free-form but it signalled what was to become the ethos of the space – extending generosity and trust to artists to help them deliver their work to the highest standards possible, sustaining a mix of artists working in Wales while acting as a conduit for work from further afield; an open door policy with a focus on dialogue. And plenty of tea. After a year of project funding one of the ways g39 could continue was to apply for lottery funding. This involved a whole set of box-ticking, hoop-jumping and goalpost-shifting criteria and the application took up most of 1999. The process of making this application shaped the organisation, it had to have a board of trustees and to register as a company Ltd by guarantee, policies had to be written up and set in stone and a constitution and mission statement had to be drafted. Suddenly g39 became a more permanent and tangible thing, it had to shape itself as a project that answered lottery criteria that seemed to shift in the political breeze. Lottery was established to be an answerable and measurable way of distributing public money; it was necessarily predicated on quantity assessment, not quality and certainly not innovation or risk. During this time the largest lottery project in the city – the Centre for Visual Arts - closed its doors after just 14 months; the backlash against ACW lottery management of the project was considerable. G39's lottery funding was for a three-year period and the organisation had to exist in a permanent state of form filling and quarterly reports. Thankfully, this method of funding ended at midnight on the last day of the year in 2003. The relief of getting to the end of this period was short lived as three applications to ACW were refused and the organisation prepared to close its doors. The building was emptied, applications from artists were returned, it seemed that the project had come to a natural end. Recognising the impact this would have, arts officers Emma Geliot and Antony Owen-Hicks went back to the Council and developed an interim rescue package: one year later the space was taken on as a Revenue client, and has subsequently gained Beacon status. By virtue of surviving this long the space may have become part of the establishment, but its history of flexibility in times of crisis and sense of adaptability keeps the threat of bureaucracy, and the stagnation that comes with it, at bay. The space has grown a few times in this history. Between Christmas and the New year in 1999 the space extended into the shop-space beneath and then to a linked room on the top floor which provided offices. In 2002 drilling started on the ground floor and a hatch cut through reinforced concrete into a previously unseen cellar space. It had been sealed in 1974 and had not been used since. This gave g39 increased storage and intermittent gallery space. Then in 2008 negotiations started with the shop next door to sub-let an extra space in the adjacent building. The project has gone from two small upstairs rooms to become four high (including the cellar) and two across. It now houses a gallery programme, a resource space for artists and an office. There is barely an inch of wasted space in the building and curating for a relatively awkward domestic sized space is always a challenge. Though the physical space is small – the size of a three-storey townhouse – its catchment is far larger, encompassing networks of artists, groups and galleries that the space is actively involved in. It is clear that their attention to this network, and a commitment to working with artists to present pioneering work in a clear and accessible manner, that has generated and sustained support from visitors and artists alike. G39 is active in curating projects internationally within other galleries and acts as an important showcase of work from Wales as well as a conduit for work from further afield. Shapland recently co-curated Flourish for the Moravska galleries (http://www.moravska-galerie.cz/en/) in the Czech republic with Marek Pokorny and Anima in Montreal with B312 (www.galerieb-312.qc.ca), both key landmark shows of work from Wales. The organisation sees its role as a ‘bridge’ between the artist, and the public, and a key component of the curatorial rationale is bringing contemporary work to new audiences. It provides a much-needed link in the Cardiff artscene as an independent intermediary space which has flexibility and sense of experimentation; something that larger, more established spaces cannot so readily maintain. Across the UK the development of the studios with showing space has been a model that has been used again and again, based on a socialist principle of working collectively for the good of everyone. In the past these spaces were seen as ‘alternative’ and loaded with ‘anti-establishment’ connotations, mirroring the indie music label ethos or ‘zine cultures. However, this dated version of a world with clear values drawn in black and white has been blurred. In the nineties many London artist-led projects were bankrolled by dealers and collectors who generated the self-fulfilling prophecy that they could gain kudos – and wealth – by assisting the emergence of the yBas. More recently many artist-run spaces have built themselves on more commercial models, in their structures and participation in art fairs, with certain artists taking the role of dealers and representing other artists. The boundaries between artists, curators, writers and dealers have never been so fluid. In Wales the pressures and motives have been different; in the absence of a prominent economic driver, artist-run activity has had to address other issues. The cultural factors of national identity, of a sense of being peripheral, and of the schisms caused by both language and geographic boundaries are omnipresent; though these are countered by a willingness to engage on an international level and the interesting tension in the pull forward of the contemporary and the pull back of tradition. Since the outset of the g39 project there has been a sense that curatorial strategy could address these issues; if the space was to play a key cultural role it first had to develop a strong relationship with artists in Wales while acting as a conduit for work from elsewhere. It was essential that this understanding was at its core. This has meant that g39 has been engaged in creating a sense of cohesion, evolving in parallel but in different ways than its metropolitan counterparts.</t>
         </is>
       </c>
       <c r="L95" t="inlineStr"/>
@@ -12894,7 +12963,7 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>It has already been that “art space pool” (former alternative space pool, heritage pool) has sustained itself as one of the few artists-runs based in Seoul, Korea. As most of the international art community, may, pool is a non-profit organization initiated and founded by artists, artists-curators and artists back in 1999. Reflecting the historic pool has built itself for a decade, 2010 pools its new chapter of a vision of “integration and openness”.</t>
+          <t xml:space="preserve">It has already been ten years that “art space pool”(former alternative space pool, hereinafter pool) has sustained itself as one of rare artists-run contemporary art spaces based in Seoul, Korea. As most of national art community, and some of international art community, may know, pool is a non-profit art organization initiated and founded collectively by artists, artists-curators and art critics back in 1999. Reflecting the historical enterprise pool has built so far for over a decade, 2010 pool starts its new chapter of an organizational career with a vision of “integrity amid openness.” pool is honored to inherit the historical legacy of autonomy and criticality voiced by artists themselves throughout the modern and contemporary art of Korea, and is responsible for sharing the legacy with a wider circle of cultural producers worldwide through more various programs and activities. From the last winter, pool and its newly appointed director have prepared for another big leap in the history of pool from a local art organization towards an art institution interconnecting busy flow between trans-local contemporary art scenes of today. Some of the most visible and distinct features of new 2010 pool are the change of its official name and of its physical space, which hopefully tells more open, yet strong manifestation of its institutional identity and agenda slightly in a different method and tone. The new name, “art space pool” indicates pool is still a platform for supporting art experimentations and producing new ideas, but not strictly serving for a registered notion of an alternative itself. 2010 pool rather attempts to diversify the kinds of alternative by developing various ways and modes of encounters, relationships and collaborations among cultural producers and the public. Pool respects its institutional identity as an artists-run organization and fosters the value of reality, action, utterance and institution of critique in contemporary art praxis. And the year 2010 is the time when pool re-launches itself for balanced dedication to its original mission and contemporary trans-regional trajectory of art practices today. The new space, new bilingual website, new international networks, new public programs, new institutional partnership programs and even new staffs of 2010 pool greet every one of you at the onset of 2010 season. </t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -13026,7 +13095,9 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A variety and increasingly high profile art scene has emerged in Glasgow with Transmission at its centre. Transmission provides a place where artists can meet, talk and exhibit along with local and international peers and influences._x000D_Transmission was set up in 1983 by graduates from Glasgow School of Art who were dissatisfied with the lake of exhibition spaces and opportunities for young artists in Glasgow. Through sponsorship and support from the Scottish Arts Council (now Creative Scotland) they managed and maintained a space in which to display their work and the work of a rapidly growing local artists._x000D_They started to invite artists who had influenced them and showedcases in abundance and vice versa.</t>
+          <t>A diverse and increasingly high profile art scene has emerged in Glasgow with Transmission at its centre. Transmission provides a place where artists can meet, talk and exhibit along with local and international peers and influences._x000D_
+Transmission was set up in 1983 by graduates from Glasgow School of Art who were dissatisfied with the lack of exhibition spaces and opportunities for young artists in Glasgow. Through sponsorship and support from the Scottish Arts Council (now Creative Scotland) they managed and maintained a space in which to exhibit their work and the work of a rapidly growing collective of local artists._x000D_
+They began to invite artists who had influenced them to show in the gallery and become part of this dialogue. The range of contacts grew through projects with similar organisations such as City Racing in London and Artemisia in Chicago and this exchange of ideas has continued with Transmission providing a model for other collectives like Catalyst in Belfast and Generator in Dundee.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -13036,7 +13107,11 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Charleston's Committee since 1983:_x000D_Alistair Magie, John Roeside, Michelle Baucke, Alistair Strachan,_x000D_Gordon Muir, Carl Rhodes, Peter Thompson, Simon Brown, Douglas Aubrey (second committee)__x000D_Richard Taylor, Tommy Lydon, Billy Clark, Karen Streng, Scott Paterson, Anne Elliot, Christine Borland, Joan Sutherland, Anne Vince, Claire Barchall, Elsie, Rodney, Katrina,awgline, Davidson, Davidson, Davidson, Davidson, Davidson, Davidson, Davidson, Davidson, Davidson, Davidson, and David Woodley's son James, and David's son James, and David's son James and Mary's sisters.</t>
+          <t>Committee Members since 1983:_x000D_
+Alistair Magee, Lesley Raeside, John Rogan, Michelle Baucke, Alistair Strachan (first committee)_x000D_
+Gordon Muir, Malcolm Dickson, Carl Rhodes, Graham Johnstone, Peter Thompson, Simon Brown, Douglas Aubrey (second committee)_x000D_
+Richard Walker, Jayne Taylor, Tommy Lydon, John Main, Billy Clark, Karen Strang, Gillian Steel, Scott Paterson, Anne Elliot, David Allen, Christine Borland, Mike Ellen, Peter Gilmour, Euan Sutherland, Anne Vance, Douglas Gordon, Craig Richardson, Claire Barclay, Elsie Mitchell, Roderick Buchanan, Katrina Brown, Jacqueline Donachie, Martin Boyce, Simon Starling, Kirsty Ogg, Eva Rothschild, Will Bradley, Toby Webster, Tanya Leighton, Judith Weik, Caoline Kirsop, Toby Paterson, Sarah Tripp, Robert Johnston, Ewan Imrie, Julian Kildear, Lucy Skaer, Sophie Macpherson, Rose Thomas, Alan Michael, Fred Pedersen, Anna MacLauchlan, Danny Saunders, Alex Pollard, Clare Stephenson, Lorna Macintyre, Laurence Figgis, Kate Davis, Gregor Wright, Jane Topping, Nick Evans, Charlie Hammond, Lotte Gertz, Lynn Hynd, Lucy MacEachan, Iain Hetherington, Michael Stumpf, Michael Hill Johnston, Cara Tolmie, Laura Aldridge, Giles Bailey, Tim Facey, Victoria Skogsberg, Conal McStravick, Helen Tubridy, Levi Hanes, Jens Strandberg, Salomeh Grace, Sophie Mackfall, Rebecca Wilcox, Tom Varley, Mark Briggs, Amelia Bywater, Carrie Skinner, Claire Shallcross, Chris Dyson, Darren Rhymes, Hannes Hellström, Emilia Muller-Ginorio, Kari Robertson, John Nicol, and Ashanti Harris._x000D_
+This is a list of everyone who has served as a Transmission committee member from 1983 to the present. The second committee entirely replaced the first but after that the groupings are less defined. Some people stayed for the standard two years (occasionally more), others left after a few months. At times there were only two people on the committee, the standard is now six.</t>
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
@@ -13170,18 +13245,22 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Collective was established in 1984 to support new and emerging artists to exhibit their work in Edinburgh and has been fundamental to the cultural vitality of Scotland. Now collective commissions new work by artists who are at a pivotal stage in their development._x000D_</t>
+          <t xml:space="preserve">Collective was established in 1984 to support new and emergent artists to exhibit their work in Edinburgh and has been fundamental to the cultural vitality of Scotland. Now Collective commissions new work by artists who are at a pivotal stage in their development._x000D_
+ </t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>About the City Observatory and the City Dome site on Calton Hill, one of the main pillars of a UNESCO World Heritage Site. A 10-minute walk from Waverley Station, Calton Hill is a very-visited historical landmark, which commands views of the city, Arthur's Seat, the Firth of Forth and beyond. Standing next to the National Monument and The Nelson monument, the walled houses of the City House and City Observatory which was designed by William Playfari in 1818. The City Observatory is designed in the classical Greek station, Calton Hill is a great-visited landmark and was a central feature during the past year.</t>
+          <t>About the City ObservatoryCollective is based in the City Observatory and City Dome site on Calton Hill, one of Edinburgh’s principal hills which forms part of a UNESCO World Heritage Site. A 10-minute walk from Waverley Station, Calton Hill is a much-visited historic landmark, which commands views over the city, Arthur’s Seat, the Firth of Forth and beyond. Standing alongside the National Monument and The Nelson Monument, the walled complex houses the City Dome and City Observatory which was designed by William Henry Playfair in 1818. The City Observatory is designed in the classical Greek style and was a central feature during the Enlightenment period in Edinburgh. There still remains a charged atmosphere, where the excitement of early scientific advances and the legacy of the Enlightenment can still be felt._x000D_
+Collective is working closely with City of Edinburgh Council and Edinburgh World Heritage, to develop the whole City Observatory site. We have refurbished the City Dome, which is now our major new exhibition space, with the Satellites Programme being housed in temporary accommodation on site._x000D_
+Collective is now developing plans to open up the entire walled complex to the public by 2016 with new facilities for artists and audiences.</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Collective invite a wide audience to engage with new contemporary art through our ambitious program of exhibitions, commissions, participation and off-site projects. These include our Satellites Programme, Observers' Walks, All Sided Games and other events._x000D_ Our program presents contemporary art in all its diversity. We create a space for dialogue with current developments and debates contextualising them to make them relevant to our site, artists and audiences.</t>
+          <t>Collective invite a wide audience to engage with new contemporary art through our ambitious programme of exhibitions, commissions, participatory and off-site projects. This includes our Satellites Programme, Observers' Walks, All Sided Games and other events._x000D_
+Our programme presents contemporary art in all its diversity. We create a space for dialogue with current developments and debates contextualising them to make them relevant to our site, artists and audiences.</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -13304,7 +13383,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Brain Factory is a private gallery and non-profit organization found in 2003 by Lee Sukjin and Tom Lee, who are dedicated to promoting contemporary Korean art and artists, and providing advisory services to new and young artists to promote the presentation of their exhibitions. The Brain Factory also serves as an open studio for young artists in order to encourage their creativity and confidentiality stepping out into the art world. Originally by the gallery director Tom Lee, with workshops and training for young Korean artists, the Brain Factory has served both as gallery and study for up and coming local artists ever since.</t>
+          <t xml:space="preserve">Brain Factory is a private gallery and non-profit organization founded in 2003 by Lee Sukjin and Tom Lee, who are dedicated to promoting Korean contemporary art and artists, and providing consulting services to new and young artists to improve the presentation of their exhibitions. The Brain Factory also serves as an open studio for young artists in order to encourage their creativity and confidence stepping out into the art world. Initiated by the gallery director Tom Lee, with workshops and training for young Korean artists, the Brain Factory has served both as gallery and studio for up and coming local artists ever since. </t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -13315,7 +13394,8 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Nearly 10 to 11 exhibitions a year are on show at the Brain Factory. The whole plan and concept of each exhibition revolves completely around the artist. In this place, non-commercial concerns distract the young artists’ calling and untamed creativity. The Brain Factory continues hosting a variety of experimental events and shows open to new and young artists. Comparable to other galleries, artists and curators are able to carry out their exhibition program as a team throughout the year. It encourages active communication and involvement between curators and artists during the exhibition. This system is based on the fact that the best outputs for an exhibition cannot depend on one side_counters.</t>
+          <t xml:space="preserve">Approximately 10 to 11 exhibitions a year are on show at the Brain Factory. The whole plan and concept of each exhibition revolves entirely around the artist. In this place, no commercial concerns distract the young artists’ challenging and untamed creativity. The Brain Factory continues hosting a variety of experimental events and shows open to new and young artists. Compared to other galleries, artists and curators are able to carry out their exhibition program as a team throughout the year. It encourages active communication and involvement between curators and artists during the exhibition. This system is based on the fact that the best outcomes for an exhibition cannot depend on one side alone, but rather are generated by the cooperation between artists and curators._x000D_
+ </t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -13751,7 +13831,9 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>The space is located in Ard El Lewa, a densely popular informal area located between two of Cairo's informal areas, Imbiba and Boulak El Dakrour. artlewa creates a space for the formation and activation of dialogue between artists and society; facilitates arts projects, offers workshops for community members and emerging artists, exhibits art-in-residence in addition to providing special projects to enrich the civil and cultural life in Ard El Lewa, and use art to test the urban environment._x000D_artlewa has created a space for reflection during this time of transition; a space for rejuvenation of ideas and progressive thought and connection to the cities of El Leva and cities of origin and cities of the city and cities of origins of the city.</t>
+          <t>The space is located in Ard El Lewa, a densely populated informal area located between two of Cairo’s informal areas, Imbiba and Boulak El Dakrour. artellewa creates a space for the formation and activation of dialogue between artists and society; facilitates artists projects, offers workshops for community members and emerging artists, exhibits art and hosts artists-in-residence in addition to providing special projects to enrich the civic and cultural life in Ard El Lewa, and use art to improve the urban environment._x000D_
+artellewa aims to create a space for reflection during this time of transition; a space for rejuvenation of ideas and progressive thought and connect Ard El Lewa and its inhabitants with the broader culture of the city and the world through art, and creates a unique opportunity for Egyptian and foreign artists to interact and experiment with the local community and environment._x000D_
+artellewa creates a space for the formation and activation of dialogue between artists and society.</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -13762,7 +13844,12 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Projects and Activities:_x000D (1) Exhibitions: held in the artlewa Dockan, a small workshop open to the street. In addition to the work of established and emerging artists from Egypt, each year crafts hold the first exhibition of one young Egyptian artist._x000D (2) Artists-led workshops: crafts coordinated and offer free of cost workshops, to community members and artists. Manly in the field of visual arts, and culture fields in general._x000D (3) Artists-in-Residence: hosts who interact with the community El-Lewa, research and produce works with the</t>
+          <t>Projects and Activities:_x000D_
+(1) Exhibitions: held in the artellewa Dokkan, a small workshop open to the street. In addition to exhibiting the work of established and emerging artists from Egypt and abroad, each year artellewa holds the first exhibition of at least one young Egyptian artist._x000D_
+(2) Artists-led Workshops: artellewa coordinate and offer free of cost workshops, to community members and emerging artists. Manly in the field of visual arts, and culture fields in general._x000D_
+(3) Artists-in-Residence: hosts foreign artists who interact with the community and environment of Ard El Lewa, research and produce artworks, show their work in the artellewa Dokkan , and build networks with the Cairo arts community. Artists have hailed from 13 countries, including Lebanon, Palestine, Sudan, Turkey, Jordan, Spain, Switzerland, Norway and the United States._x000D_
+(4) Other Events: including a weekly cinema series curated by a resident of Ard El Lewa, showing films with a relationship to the community. Meet-the-artist events offer the public the opportunity to hear about the work of local and international artists._x000D_
+(5) Special Projects: which enrich the civic and cultural life in Ard El Lewa, and use art to improve the urban environment.</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -14015,7 +14102,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Boatlab is a non-profit organization for the development of independent projects. Founded in 2000 and until 2007 located in the historical Telegraph in Berlin-Mitte, by now boatlab remains in the same historical townbad Wedding, aka stattbad; boatlab provides study, production and office space for groups and individuals (activists, artists, curators, engineers, filmmakers, programmers, publishers, writers etc.) working with old and/or new media technology.</t>
+          <t>Bootlab is a non-profit organisation for the advancement of independent projects. Founded in 2000 and until 2007 located in the historic Telegrafenamt in Berlin-Mitte, by now bootlab resides in the likewise historic Stadtbad Wedding, aka stattbad; bootlab provides studio, production and office space for groups and individuals (activists, artists, curators, engineers, filmmakers, programmers, publishers, writers etc.) working with old and/or new media technology.</t>
         </is>
       </c>
       <c r="L105" t="inlineStr"/>
@@ -14267,7 +14354,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Alexandria Contemporary Arts Forum (ACAF) is a non-for-profit multidisciplinary art initiative founded in December 2005. Located inside a flat near Alexandria's downtown district, ACAF was proactively initiated and run by a small group of artists/ practitioners. With a focus on contemporary art, (new) media, and discursive practices ACA's frame of reference is the social context it exists in local and global, until it is interested in developing projects that explore the foundations of this context. Alexandria Contemporary Arts Forum works to develop a reputation in relation to contemporary life and culture.</t>
+          <t>Alexandria Contemporary Arts Forum (ACAF) is a not-for-profit multidisciplinary arts initiative founded in December 2005. Located inside a flat near Alexandria's downtown district, ACAF was proactively initiated and is run by a small group of artists/practitioners. With a focus on contemporary art, (new) media, and discursive practice ACAF's frame of reference is the wider social context it exists within locally and globally, thus it is interested in developing projects that explore the boundaries of this context. Alexandria Contemporary Arts Forum works to cultivate a deeper awareness of art in relation to all aspects of contemporary life and culture. Central to its mission is an ongoing engagement with projects that bring together established and emerging artists, university students, and diverse practitioners in contexts that recognize the value of an informal, non-hierarchal, open-ended circulation of information and experience. The forum is in a constant state of flux and incorporates new fields of interest and activity guided by its socio-cultural compass. ACAF enhances its projects by programming lectures, symposia, screenings and other events that are all admission free, in addition to housing a small library which features a growing collection of contemporary art publications for the benefit of the local arts community.</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -14278,7 +14365,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Encourage and promote the essential link between contemporary arts and contemporary society through its projects, programs, and exhibitions.Provide and sustain a space for accessible contemporary visual arts, media and culture, while maintaining a strong critical foundation.Function as a dynamic comeue that promotes all contemporary art forms while affiliated with critical, experimental, and interdisciplinary practices all through its locality and the promotion of cultural lessons.Help in forcing critical issues of the contemporary arts, media and cultural skills.</t>
+          <t>Encourage and promote the essential link between contemporary arts and contemporary society through its projects, programs, and exhibitions.Provide and sustain a space for accessible contemporary visual arts, media and culture, while maintaining a strong critical grounding.Function as a dynamic venue that promotes all contemporary art forms while affiliating itself with critical, experimental, media-based, and interdisciplinary art practices all throughout taking into consideration its locality and the promotion of socio-cultural awareness.Help in furthering critical awareness of the pressing issues that shape the outlook of contemporary art practice and incite interesting dialogues about contemporary aesthetic, cultural, and social challenges. Assist in providing young talents with the knowledge and information they need to create progressive forms of art. ACAF attempts to achieve this through special workshop programs, an intensive series of lectures and artist talks, general dialogue, and keeping a relevant art library.Curate and occasionally host projects and exhibitions both in ACAF's space and in alternative and public venues with the view to attracting new and diverse audiences.Promote collaborative ventures with similar initiatives in Egypt, in the North Africa/Middle East region and internationally.</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -14716,7 +14803,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>The Maudite is a platform for artistic and multidisciplinary projects in a variety of fields: visual arts, sound experiences, performance, and literature, along with others. The activities include curating exhibitions, film screenings, organizing conferences, seminars and other research activities that connect with critical theory. It is also a document centre on contemporary art (see DOC CENTR), which is constantly fed through nationally and</t>
+          <t>La Maudite is an artists run space created by two artists and a researcher/curator based in Paris and is aimed at articulating art practices, curatorial practices and research. Situated in Belleville neighborhood, La Maudite is a platform for artistic and multidisciplinary projects in a variety of fields: visual arts, film, sound experiences, performance, and literature, among others. The activities include curating exhibitions, film screenings, organizing conferences, seminars and other research activities that interconnect with critical theory. It's also a document center  on Brazilian contemporary art (see DOC CENTER), which is constantly fed through donations. It aims to promote activities locally, nationally and internationally, collaborating with public and private institutions, involving artists and a wide array of communities to launch creative networks.</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -14731,7 +14818,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>The activities include curating exhibitions, film screenings, organizing conferences, seminars and other research activities that interconnect with critical theory. It is also a document centre on Brazilian contemporary art_x000D_Directors: Beatriz Toledo and Wagner Morales_x000D_communication: Olga Olgorodova_x000D_Founders: Beatriz Toledo, Camila Bechelany and Wagner Morales_x000D__x000D__x000D_Traines who passed by: Paulo Assumption, Flavia Darochí, Carolina Cataldi Pedrosa, Maélic Beets, Laura Piasek and Valerie Vial</t>
+          <t>The activities include curating exhibitions, film screenings, organizing conferences, seminars and other research activities that interconnect with critical theory. It's also a document center on Brazilian contemporary art_x000D_
+Directors: Beatriz Toledo and Wagner Morales_x000D_
+Communication: Olga Olgorodova_x000D_
+Founders: Beatriz Toledo, Camila Bechelany and Wagner Morales_x000D_
+ _x000D_
+Trainees who passed by:  Paulo Assumpção, Flavia Daroczi, Carolina Cataldi Pedrosa, Maëlic Beets, Laura Piasek  and Valerie Vial</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -15446,7 +15538,9 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>The Museum of conceptual Art was found in the 1970 by Tom Marioni, describing it as a "social art".The museum moved into its official location on January 3, 1973 in San Francisco, California._x000D Until the museum closed in 1984, he organized many groundbreaking shows, including Sound Sculpture As in 1970. MOCA has integrated history as one of the first alternative art spaces. Marion had one-person shows in northern meaning veins for early conceptual art, together with them the Richard Demarco Gallery in Edinburgh in 1972 and Gallery Foxal in Warsaw in 1975. In 1977 he had a solo show, The Sound of Flight, at the de Young. _x000D_After the closure of unites the modern art with moca, the</t>
+          <t>The Museum of Conceptual Art was founded in the 1970 by Tom Marioni, describing it as a "social artwork".The museum moved into its official location on January 3, 1973 in San Francisco, California._x000D_
+Until the museum closed in 1984, he organized many groundbreaking shows, including Sound Sculpture As in 1970. MOCA has entered history as one of the first alternative art spaces. Marioni had one-person shows in several significant venues for early conceptual art, among them the Richard Demarco Gallery in Edinburgh in 1972 and Gallery Foksal in Warsaw in 1975. In 1977 he had a solo show, The Sound of Flight, at the de Young. _x000D_
+After the closing of MOCA, Marioni continued his commitment to “a social work of art" with the ongoing Society of Independent Artists. The Archives of MOCA were purchased by the Berkeley Art Museum in 1994.</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -15740,7 +15834,9 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Established in 1994, Gasworks is a contemporary art organization based in South London, encouraging the exchange of ideas between exhibitions and offering a program of exhibitions, artists' residences, international community and educational projects. Seven studios are awarded to London-based artists and four are reserved for the International Residence Programme for non-UK based artists. Gasworks hosts up to six residences a year, encouraging the exchange of ideas between international and local practitioners. The non-prescriptive and process-based nature of the residences are allowing to develop new context, or to conduct profits from London-based artists, such as</t>
+          <t xml:space="preserve">Established in 1994, Gasworks is a contemporary art organisation based in South London, housing eleven artists' studios and offering a programme of exhibitions and events, artists’ residencies, international fellowships and educational projects. Seven studios are rented to London-based artists and four are reserved for the International Residency Programme for non-UK based artists. Gasworks hosts up to sixteen residencies a year, encouraging the exchange of ideas between international and local practitioners. The non-prescriptive and process-based nature of the residencies allows visiting artists to develop projects in response to their new context, or to conduct research benefiting from London’s resources. As a result, residencies generally culminate in an Open Studio. The residencies programme is also accompanied by activities such as talks and seminars, aiming to introduce the general public to international artists and their practice.The exhibition space accommodates four main projects a year, as well as a series of small-scale events. The programme includes solo and thematic exhibitions, screenings, workshops and seminars. Gasworks focuses on visual arts practice in its broadest sense, including design, documentary filmmaking and media art, amongst other areas of activity. These are all linked by a commitment to constantly reassess the position of artists within their wider cultural, social and political frameworks. _x000D_
+The residencies and exhibitions programmes regularly cooperate, often to facilitate research and production for international artists invited to develop a project for the exhibitions and events programme. Gasworks runs a Participation programme which responds to, as well as operates independently from, the residencies and exhibitions. The programme aims to instigate dialogue and exchange through art, and to work with local groups and organisations to widen access to contemporary art._x000D_
+Find out more about Gasworks and how we work with artists in this short film produced by Artquest:http://bit.ly/GasworksIntroGasworks is also part of Triangle Network, an international network of artists and organisations set up in 1982 whose activities include residencies and workshops. Triangle provides Gasworks with unique connections to artists and organisations in more than thirty countries around the world. Each year, through the Arts Council England’s International Artists Fellowship Programme, Gasworks organises residencies for six to eight UK-based artists in one of the Triangle partners' organisations, in countries including Cuba, China, South Africa, Kenya and India. </t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -17427,13 +17523,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Established in 1973 the Western Front is one of Canada's leading artist-run centres for contemporary art and new music. We produce and present visual art, exhibitions, new music concerts and workshops, media-art residences, performance art and other artist-drive initiatives. The Western Front currently maintains programs in Exhibitions, Media Art and New Music, as well as an extensive archive of audio-visual materials. Through this various programming we continue to be a crucial platform for interdisciplinary, experimental art practices in Canada and internationally.</t>
+          <t>Established in 1973 the Western Front is one of Canada’s leading artist-run centres for contemporary art and new music. We produce and present visual art, exhibitions, new music concerts and workshops, media-art residencies, performance art and other artist-driven initiatives. The Western Front currently maintains programs in Exhibitions, Media Art and New Music, as well as an extensive archive of audio-visual materials. Through this diverse programming we continue to be a crucial platform for interdisciplinary, experimental art practices in Canada and internationally.</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>The Western Front was founded in 1973 by eight artists (Martin Bartlett, Mo van Nostrand, Kate Craig, Henry Greenhow, Glenn Lewis, Eric Metcalfe, Michael Morris, Vincent Trasov) who wanted to create a space for the exploration and creation of new art forms. It quickly became a centre for poets, dancers, musicians and visual artists interested in exploration and interdisciplinary practices. As a focal point of experimental art practice through the 1970s and 80s, the Western Front, in connection with other centres like it, played a major role in the development of electronic and networked forms in a national and international context.</t>
+          <t>The Western Front was founded in 1973 by eight artists (Martin Bartlett, Mo van Nostrand, Kate Craig, Henry Greenhow, Glenn Lewis, Eric Metcalfe, Michael Morris, Vincent Trasov) who wanted to create a space for the exploration and creation of new art forms. It quickly became a centre for poets, dancers, musicians and visual artists interested in exploration and interdisciplinary practices. As a focal point of experimental art practice through the 1970’s and 80’s, the Western Front, in connection with other centres like it, played a major role in the development of electronic and networked art forms in a national and international context._x000D_
+Over its 43-year history the Western Front has promoted critical investigations into and surrounding interdisciplinary, media-based, anti-object, and ephemeral practices with particular attention to the contexts and economies in which art is produced. While general curatorial priorities have remained dedicated to these practices, the Western Front’s internal structure has continued to evolve and a number of distinct programs have been established and retired over the years including Performance Art, Movement Arts, Literary Arts and Front Magazine. The Western Front still continues to program events and exhibitions related to these genres, but no longer supports fully dedicated departments.</t>
         </is>
       </c>
       <c r="L129" t="inlineStr"/>
@@ -18368,7 +18465,9 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Deborah Bowmann is a project run by artists Amary Daudel and Victor Delestre recently located in Brussels after a first season of exhibitions/collections held in Amsterdam. Deborah Bowmann stands between a brand and an exhibition space and instead embodys a study practice and a curatorial practice.Deborah Bowmann commissions in developing new menners of thinking commodity and trade in both aesthetic and economic terms in the fields of sculpture and design.Deborah Bowmann develops through collaboration with young artists and various actors._x000D Recent collaborators include:Thea Djordjadze, Stéphane Bouvet, and thos, Clemente, Leaunff and E.</t>
+          <t xml:space="preserve">Deborah Bowmann is a project run by artists Amaury Daurel and Victor Delestre recently relocated in Brussels after a first season of exhibitions/collections held in Amsterdam. Deborah Bowmann stands between a brand and an exhibition space and thus embodies a studio practice and a curatorial practice.Deborah Bowmann commits in developing new manners of thinking commodity and commerce in both aesthetic and economic terms in the fields of sculpture and design.Deborah Bowmann develops through collaboration with young artists and various actors._x000D_
+Recent collaborators includes :Thea Djordjadze, Stéphane Barbier Bouvet, Clémence Seilles, Laurent Ledeunff, Estrid Lutz &amp; Émile Mold, Vincent Knopper, Heather and Rositta, Émilie Ferrat, Jurjen Van Houte, Habitdenous©, Jeanne Magnenat, Leïla Arenou &amp; Laure Jaffuel, Fabien Vallos and Lény Bernay.Deborah Bowmann also develops through invitations and has been invitated by Triangle France, Galerie Treize, SSBA-SALON._x000D_
+ </t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -18651,7 +18750,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>THE GALLERY GALLERY WITHOUT SUBSIDIES OF SPONS. THE GALLERY MOVES CENTRAL IN MARSEILS AND THE DYNAMIC, ANarchIC, AND THE ORIGINAL TRECTORY. THE GARD IS THE ARBORATORY EXPERIMENTAL LABORATION LOCATED IN AARNAUD DESCHIN'S A Partheille. THE ARCHIT-designED SPACE HOSTS EXHIBITIONS AND DEVELOPS IN THE WAYS IN THE STUDILD. BEY OF THE PROTECTIONAL AS SPECIES OF THE GALLERIES IN THE DYMALLERIES AND THE STILLATION OF THE GALLERALERS AND THE GALLERALERALERS AND THE PROGIVES OF THE FURALATION OF THE FURALS OF THE FURAL TOR.</t>
+          <t xml:space="preserve"> LA GAD IS A PRIVATE GALLERY WITHOUT SUBSIDIES OR SPONSORS. THE GALLERY MOVES AROUND ITS CENTER IN MARSEILLES IN A DYNAMIC, ANARCHIC, AND ORIGINAL TRAJECTORY.LA GAD IS AN ART LABORATORY EXPERIMENT LOCATED IN ARNAUD DESCHIN’S APARTMENT IN MARSEILLE. THE ARCHITECT-DESIGNED SPACE HOSTS EXHIBITIONS AND DEVELOPS THEM IN A WAY SIMILAR TO AN ARTIST IN HIS STUDIO. BEYOND THE COMMERCIAL ASPECT THE GALLERIST IS ALSO PRESENT IN A STRONG CURATORIAL ROLE. AFTER GRADUATING FROM MARSEILLE ART SCHOOL ARNAUD DESCHIN HAS COLLABORATED WITH OVER 120 EMERGING AND ESTABLISHED ARTISTS FROM AROUND THE WORLD. LA GAD HAS CURATED OVER 50 EXHIBITIONS IN MARSEILLES AND OTHER LOCATIONS, AND IS PRESENT AT INTERNATIONAL ART FAIRS.THE AIM OF THE GALLERY IS TO EXHIBIT AND PROMOTE EMERGING ARTISTS IN GROUP AND SOLO EXHIBITIONS. LA GAD WISHES TO SURPRISE ITS AUDIENCE IN ORDER TO CREATE NEW ENCOUNTERS AND CIRCULATE ARTISTS THROUGH NEW NETWORKS.THE CONTEMPORARY ARTISTIC LANDSCAPE OF LA GAD, MAINLY ORIENTED TOWARDS CONCEPTUAL ART, MATERIAL WORKS, ARTISTS’ STORIES, OR THE HISTORY OF THE ‘WHITE CUBE’, IS NOW AFFIRMED BY A NEWFOUND SUPPORT TO FIGURATIVE PAINTING.2016 IS AN IMPORTANT TURNING POINT FOR THE GALLERY AS LA GAD OPENS A NEW SPACE DESIGNED BY ARTIST FRED PRADEAU WHOSE WORK QUESTIONS STANDARDIZED SPACES. ARNAUD DESCHIN HAS OFFERED HIS NEW SPACE AS THE CREATION FOR A MAJOR AND TOTAL ART PIECE THAT WILL HOST A WHOLE NEW TEAM IN MARSEILLE. THE CURRENT SPACE WILL BE OFFERED FOR RENT AS A SPECIAL ACCOMMODATION: SPENDING A NIGHT OR TWO IN THE MIDDLE OF AN ART EXHIBITION, WITHIN HUNDREDS OF ART PIECES. WELCOME TO THE LAB!</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -18794,7 +18893,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>The Number Shop - Studies and Gallery is an artist-run organisation in the centre of Edinburgh. We provide studies for 10 practitioners as well as a flexible use display space for visiting artists. TNS maintains a clear together to support recent-grades and early-carer/emerging creatives from a wide range of creative backgrounds by providing affordable city centre spaces in which to work and exhibit.TNS is no to connect with external organizations in an effort to develop creative relationships and encourage more creative opportunities, if you are interested in working together, please get in touch!</t>
+          <t>The Number Shop - Studios and Gallery is an artist-run organisation in the centre of Edinburgh. We provide studio's for 10 practitioners as well as a flexible use exhibition space for visiting artists. TNS maintains a clear aim to support recent-graduates and early-career/emerging creatives from a wide range of creative backgrounds by providing affordable city centre spaces in which to work and exhibit.TNS is keen to connect with external organisations in an effort to develop working relationships and encourage more creative opportunities, if you are interested in working together, please get in touch!</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -18805,7 +18904,8 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Studio The Number Shop provides it's residents with a defined personal space, as well as shared floor space in which to work. Facilities include; wireless Internet access, tools and equipment, kitchen, and reception area. Studio Resident artists can use the Project Space between exhibitions and have 24 hours access to the building.</t>
+          <t xml:space="preserve">STUDIO The Number Shop studios provides it's residents with a defined personal space, as well as shared floor space in which to work. Facilities include; wireless internet throughout, a shared store facility, tools and equipment, kitchen, W.C. and reception area. Studio Resident artists can use the Project Space between exhibitions and have 24 hour access to the building.GALLERY_x000D_
+TNS hosts exhibitions from visiting artists in our Project Space. The Project Space (3.3 x 3.8m) has 3 white wall-space aspects as well as large street facing windows with a roller blind that can be used as a projection screen. There is access to the kitchen and WC during events and full disabled access.Exhibitions &amp; ProposalsIf you would like to submit a proposal for an exhibition in our Project Space please contact ali@thenumbershop.org We welcome solo shows from external practitioners, as well as small-mid size groups who can think of inventive ways to work with the room's modest dimensions. TNS is keen to build relationships with artist collectives, galleries and cultural institutions across Scotland and beyond. If you are interested in working together or discussing a project we would be very happy to hear from you. </t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -18930,7 +19030,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Founded in 1976, Printed Matter, Inc. is the world's leading non-profit organization dedicated to the dissimination, understanding and appreciation of artists' books and related publications._x000D_ First established in Tribeca by Sol Levitt and Lucy Lippard (with other important artists and artists) Printed Matter was developed in response to the growing interest in publications made by artists. Starting in the early 60s, many of the pioneering conceptual artists (as well as performance, processes, environment, sound and other experimental media) begin to explore the possibilities of the book form as an artistic medium. Large-editation and economically produced publications allowed to work with works that were considered worthy of Newcase, and were included in the</t>
+          <t>Founded in 1976, Printed Matter, Inc. is the world’s leading non-profit organization dedicated to the dissemination, understanding and appreciation of artists' books and related publications._x000D_
+First established in Tribeca by Sol Lewitt and Lucy Lippard (among other important artists and art-workers) Printed Matter was developed in response to the growing interest in publications made by artists. Starting in the early 60s, many of the pioneering conceptual artists (as well as performance, process, environment, sound and other experimental media artists) began to explore the possibilities of the book form as an artistic medium. Large-edition and economically produced publications allowed experimentation with artworks that were democratically accessible, affordable, collaborative, and could circulate outside of the mainstream gallery system. Printed Matter provided a space that championed artists' books as complex and meaningful artworks, helping bring wider visibility to a medium that was not widely embraced at the time._x000D_
+After 13 years on Lispenard Street in Tribeca, Printed Matter moved to a location on Wooster Street in SoHo. The spacious bookshop and large storefront windows allowed for book displays and artists’ installations, contributing to the vibrancy of a neighborhood that was undergoing rapid changes. In 2001 Printed Matter made its move to Chelsea, the center of New York’s art district, and further established its relationship to the contemporary arts. In 2005, we relocated to our current storefront on Tenth Avenue. The space has presented us once again with a street-level window and the opportunity to present exhibitions and programming. With the continuing growth of the organization, we manage to do a lot with the limited space we have, making every visit to Printed Matter new and exciting._x000D_
+Over the years, Printed Matter has maintained a close relationship with the rich history of artists’ publications and continues to carry works from many of our organization's founding artists. Printed Matter’s first catalogue in 1976 included books from a number of artists who would turn out to be major figures of a generation – Kathy Acker, Laurie Anderson, Carl Andre, John Baldessari, Daniel Buren, Susan Hiller, Sol LeWitt, Adrian Piper, Ad Reinhardt, Martha Rosler, Edward Ruscha, and Lawrence Weiner to name a few– many of which are still available to purchase (though most no longer cost $2)._x000D_
+Artists’ books have continued to provide a remarkable reflection on contemporary artistic practices. In recent years the community has witnessed an explosion of independently published projects, resulting in an increased and renewed interest in the field. As artists’ book publishing undergoes this tremendous renaissance, Printed Matter has expanded its services and activities to meet the needs of the field, notably including the establishment of our NY Art Book Fair in 2005 and the inaugural LA Art Book Fair in 2013. We’re thrilled to find that Printed Matter’s mission is more pertinent than ever._x000D_
+In 2012 Printed Matter suffered from flooding caused by Hurricane Sandy, resulting in the loss of 9,000 books and considerable damage of our Archive. We are grateful for the tremendous support of the many individuals and foundations that helped us make steps towards a full recovery. Thank you to everyone who generously reached out to support the organization during our time of need.</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -18941,7 +19046,8 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Printed Matter is located in the heart of the business Chelsea art district, surrounded by hundreds of galleries, arts organizations, and community arts non-profits. With well over 100,000 visitors annually, the active street-level storefront offers a glimpse into the driving state of contemporary artists' publishing, characterising artists' books, Zines, posters, printers, multiples, audio works and a wide selection of out-of-print material. In addition to being packed full of unique publications, we host an array of programs and events on a regular basis. From rotational exhibitions and window installations such as book runches, talks and performances, there is always going on on print-outs and</t>
+          <t>Printed Matter is located in the heart of the busy Chelsea art district, surrounded by hundreds of galleries, arts organizations, and fellow arts non-profits. With with well over 100,000 visitors annually, the active street-level storefront offers a glimpse into the thriving state of contemporary artists’ publishing, featuring artists’ books, zines, posters, prints, multiples, audio works and a broad selection of out-of-print material. In addition to being packed full of unique publications, we host an array of programs and events on a regular basis. From rotating exhibitions and window installations toevents such as book launches, talks and performances, there's always something going on at Printed Matter. The shop also holds the non-profit offices where our small staff can be seen at work on various services in support of book artists and can always help you find what you’re looking for._x000D_
+We are constantly checking in material, and have several hundred new titles available each month. So, visit often and see what new titles we have in stock!</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -19344,7 +19450,8 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>La Mamelle / Art Com is a non-profit artist-run organization, active from 1975-1995. During this period, the organization was interested in alternative forms of making art, experimenting with form and material and asking the definition and warranties of art. The organization was involved in a multiplicity of activities including publishing, maintenance and artists’ space supporting performance art, exhibitions, video production and screenings, a library, distribution artist-produced works, and creating one of the first artists’ online networks._x000D_ Introduction of Judy Malloy with Carl Eugene Loeffler: www.well.com/user/jmalloy/artcom.html</t>
+          <t>La Mamelle / Art Com is a non-profit artist-run organization, active from 1975-1995. During this period, the organization was interested in alternative forms of making art, experimenting with form and material and questioning the definition and boundaries of art. The organization was involved in a multiplicity of activities including publishing, maintaining an artists’ space supporting performance art, exhibitions, video production and screenings, a library, distributing artist-produced works, and creating one of the first artists’ online networks._x000D_
+Entretien de Judy Malloy avec Carl Eugene Loeffler : www.well.com/user/jmalloy/artcom.html</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -19354,7 +19461,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Established in 1975, the organization was in the realm of publishing. The organization was published in 1975. The organization then opened an 8,000 sf space in San Francisco at the beginning of 1976 as an alternative exhibition and performance space. From 1975 through the 1980s the organization supported live art, electronic media including video, artist-cured exhibitions, a book with artists' publications. It established and supported a growing repository of information about art worldwide, and the first video archive in California. In 1980, the organization began using the name Com, and supported programs that promoted the art and technology in</t>
+          <t>Established in 1975, the first venture of the organization was in the realm of publishing. La Mamelle Magazine, v.1(1) was published in summer 1975. The organization then opened an 8,000 sf space in San Francisco at the beginning of 1976 as an alternative exhibition and performance space. From 1975 through the 1980s the organization supported live art, electronic media including video, artist-curated exhibitions, a bookstore with artists’ publications. It established and supported a growing repository of information about new art activities worldwide, and the first Video Art archive in northern California. In 1980, the organization began using the name Art Com, and supported programs that promoted the intersection of the arts and technology. It programmed video and audio works by artists on community access television and radio stations, cable TV and collaborated with other artists on video works and telecommunications projects. As publishers, the last issue in print format of Art Com Magazine (formerly La Mamelle, then Art Contemporary) was published in 1984 and became an e-journal in spring 1986 with the launching of the Art Com Electronic Network. ACEN was one of the first interactive online artists’ networks, conceived as a ’virtual village’ that focused on building a cultural environment and creating art through a global participatory process. From 1980 through the mid 1990s, the organization also ran Contemporary Arts Press Distribution and Art Com Media Distribution, an entrepreneurial effort to distribute artist-produced publications and media to libraries, bookstores, and television stations worldwide.</t>
         </is>
       </c>
       <c r="L143" t="inlineStr"/>
@@ -19738,7 +19845,8 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Founded in 1974, Zona represents a unique example, of internationally recognized, not benefiting an artist-run space. Located in the historical quarter San Nicoló, Zone's involvement between the experimental art movements of the 1970s and 1980s: multimedia art, conceptual art, performance, contrasted with the everyday life of the</t>
+          <t>Founded in 1974 in Florence, Zona represents an unique example, of internationally recognized, non profit artist-run spaces. Situated in the historic quarter San Niccolò, Zona’s involvement with the experimental art movements of the 1970s and 1980s: multimedia art, concrete poetry, Conceptual art, performance, contrasted with the everyday life of the neighborhood.In accordance with its mission - o show interdisciplinary work on an international level - Zona’s program sought a crossover of experimental visual arts, music, architecture, and poetry. The aim of overcoming traditional borders between the disciplines was achieved through a radical, anti-academic organization, and through the confrontation of the audience with unusual insights into multifaceted art experiments and experiences that anticipated developments in the visual arts. Zona’s activities included more than 250 exhibitions/events as well as Zona publications and editions. In 1981 ZonaRadio went online, broadcasting new music and sound by artists. “Zona People” formed a flexible collective, without long term programming. Flexibility was important as there was no financial support either from private sponsors or from public institutions. Zona’s program was completely self-financed by the members of the space. Zona built up an international network that promoted new art movements and opened up the possibility of a global exchange between artists, art critics, and the public._x000D_
+Organization: The nonprofit art space Zona was founded and organized by artists, musicians, poets, and architects, who were living and working in Florence.Mission: Creation of a global network of interdisciplinary art practices and exhibition of international experimental art in Florence.Program: Avant-garde art movements of the 1970s and 1980s, film and video, Conceptual art, Fluxus, performance, concrete and sound poetry, radical architecture, artists’ books and small press, audioworks, ZonaRadio.Today: Zona Archives and Zona Archives Editions</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -19748,7 +19856,20 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Zone does not benefit art space and area archives in Florenceby Maurizio Nannucci_x000D_Zone was created in 1974 out of the need and desire of a group of young artists to infiltrate Florence with contemporary art; the city is an environment historically focused on maintaining the status-quo and tradition, and is not open to change. Only with a profound knowledge of the cities's social, political, cultural, and economic mechanisms, the extraordinary meaning of the artist-run area and what the collective represented. In the 1970s there was high international resistance to the establishment of art galleries and to the ever greater power being acquired by military criticism. As a result, many artists claim to be aware of their</t>
+          <t xml:space="preserve">Zona non profit art space and zona archives in Florenceby Maurizio Nannucci_x000D_
+Zona was created in 1974 out of the need and desire of a group of young artists to infiltrate Florence with contemporary art; the city is an environment historically inclined to maintain the status-quo and tradition, and is not open to change. Only with a profound knowledge of the city's social, political, cultural, and economic mechanisms, can the extraordinary significance of the artist-run space Zona and what the collective represented be appreciated. In the 1970s there was huge international resistance to the establishment art galleries and to the ever greater power being acquired by militant criticism. As a result, many artists claimed their own autonomy, and undertook to create a strategic alternative circuit that would provide a direct link between their own work and the media, modifying the social status of culture and of its environment. Having abandoned 1968-inspired utopias, there was a move toward transparent, independent operations run by the artists themselves. By adopting Walter Benjamin's ideas about the reproducibility of art and Marshall McLuhan's concept of electronic multimedia forms, the artists aimed to eliminate the traditional qualitative parameters of art and to adopt new forms of anti-conformist behavior that would transform the artist’s role in society.  Zona was founded as a nonprofitorganization and space run by artists, architects, and musicians who were living and working in Florence and Tuscany: Maurizio Nannucci, Paolo Masi, Mario Mariotti, Giuseppe Chiari, Massimo Nannucci, Alberto Moretti, Alberto Mayr and Gianni Pettena. The exhibition space was on the Via San Niccolò 119r, inside the historical city center. The founding of Zona took place during a period of great upheaval; a small group of people with great vision and a high level of professionalism undertook to bring the cultural scene in Florence into the contemporary world, and visa versa. As well as Zona, there were galleries such as Schema and Area, the Centro Di publishing company, and video works created by Art Tapes 22 and Edizioni Exempla. All these initiatives helped bring about a period of extreme cultural ferment in the city, driven by the energy of a new generation of artists._x000D_
+Zona ProgramFrom the very beginning the Zona collective decided that information and the exhibition program should be the deciding factors in the identity and activities of the space, rather than individual self-conceit and self-reflecting narcissism. The strategy of opening up the exchange to the international art world meant that different cultures and experimental operative methods became part of Zona’s collective actions. Zona carefully cultivated a network of contacts and shared experiences with artists from different disciplines and tendencies from emerging contemporary fields. For this purpose, Zona People were engaged at Zona, and worked without receiving any financial remuneration. As a further programmatic decision, the members of Zona reinforced their definition of themselves as an integrated body or collective. The confrontation of different disciplines and personalities became a driving force that contributed to the identity of Zona as an organization that was non-hierarchical and led by democratic ideas such as that art production should be inhomogeneous, contradictory, varied and articulate, diffuse and noisy, and non-identifiable in traditional terms, values, and expectations.  _x000D_
+Autonomy and IndependenceZona’s connection with the local public and governmental institutions was characterized by an operative independence and autonomy; thus it was only rarely possible to present exhibitions such as Made in Florence, and others devoted to artists' books and performance. Zona differentiated itself from cultural institutions, and was responsive to sudden changes in the art world. It quickly became an internationally recognized—and preferred—channel for artistic activity, especially when compared with the lethargy and indifference of local institutions. Zona became a pure cultural concept, with a multilingual and multi-ethnic composition, a space that was neither shared nor transitory, a shelter in thesteppe, an haven in the desert, in which the artist, like a nomad or explorer, momentarily finds hospitality and feels welcome. The choice of being precarious and semi-clandestine was a very conscious one; it was felt that it was necessary to ignore the certainties of tried and tested methods and communication. This choice entailed certain difficulties, both in terms of how the organization was run as well as financial concerns—it was necessary to find approximately $1,000 a year to support general expenses. In spite of its precarious financial situation, and thanks to its agile and flexible structure and dense network of contacts, Zona was able to realize more than 250 events, exhibitions, concerts, performances, installations, lectures, and video and film presentations.Zona’s program received international acclaims, and established Zona’s reputation on the international contemporary art circuit in the 1970s and 1980s. _x000D_
+Beginnings and Shared ExperiencesThe event that officially inaugurated the space in 1975 was Per Conoscenza, an enquiry into artists of different disciplines active in Florence and Tuscany; a sort of getting to know "who we are and what we do," without becoming lost in local impulses that could subsequently be called regionalism or nationalism. The exhibition was made up of a series of 35 one-day shows, performances, films, and installations (with contributions by Luciano Bartolini, Lapo Binazzi &amp; Ufo, Mario Borillo, Lino Centi, Giuseppe Chiari, Andrea Daninos, Bruno Gambone, Andrea Granchi, Ketty La Rocca, Auro Lecci, Mario Mariotti, Paolo Masi, Gianni Melotti, Verita Monselles, Alberto Moretti, Massimo Nannucci, Maurizio Nannucci, Adolfo Natalini &amp; Superstudio, Bill Viola, among others). As Zona’s inaugural event, Per Conoscenza created a basic formula that would be used again in 1978 and 1981 for other events such as Aroma (which included Carlo Bertocci, Fabrizio Corneli, Luciana Majoni, Monica Sarsini, Marino Vismara).Another paradigmatic event was Monografie curated by Mario Mariotti, an exhibition in 1977 of practitioners who assumed different artistic roles (Lapo Binazzi, Julien Blaine, Corrado Costa, Mario Guaraldi, Paolo Masi, Massimo Nannucci, Maurizio Nannucci, Fulvio Salvadori, etc. ). A series of 28 events allowed over 50 participants to express themselves, either individually or in a group. Artistic practices ranged from artist to editor, from architect to musician, from collector to craftsman._x000D_
+Collective Publishing and Extended Communication   After these first events featuring local artists, a whole series of manifestations followed, through which Zona was able to better demonstrate its role as a catalyst of a wide range of experiences and international events. A perfect example of this was the Small Press Scene exhibition in 1975. Curated by Maurizio Nannucci, it was the first to be devoted to this medium, gathering together more than 250 small press magazines dedicated to experimental visual art, concrete poetry, architecture, and new music (Agentzia, Ana Excetera, Ant Farm, Approches, Archigram, Art and Language, Art Rite, Asa, Axe, Azimuth, Coracle Press / Simon Cutts, Exempla, Fluxus, The Fox, Futura, Geiger, Giorno Poetry System, Integration / Hermann De Vries, La Mamelle, Nul, Le Petit Colosse de Simi / Daniel Spoerri, Poor Old Tired Horse / Ian Hamilton Finlay, Robho, Dieter Rot, Schema Informazione, Stereo Headphone, Tarasque Press, Tau/Ma, Vou, Zaj, etc.). This was the first presentation of artistic production tied to the Intermedia phenomenon, which had started in the 1960s at a time when some artists felt the need to release their work from the production of art objects, and wished to address interests and concerns related to other disciplinary categories. Their work opened up artistic research to other possibilities and experimentation. The small press materials today constitute one of the most consistent aspects of Zona Archives, which has grown consistently and which now contains over 1,000 titles. The initiative continued with a series of artists’ magazines and artists-as-editors presentations such as Oolp (Luigi Ballerini, Mario Diacono), BaoBab and Geiger (Adriano Spatola), The Fox (Joseph Kosuth), Mèla (Maurizio Nannucci), Other Books and So (Ulysses Carrion), File (General Idea),Zweitschrift (Uta Brandes, Michael Erlhoff), Pim (Jeffrey Isaac), Aut, Trib(Tullio Catalano, Maurizio Benveduti), AEIUO (Bruno Corà), Impulse (Elton Garnet), Giorno Poetry System (John Giorno). Small Press Scene was also the name of a 24-hour nonstop event of alternative information about small press, which took place in June 1984. It is also worth mentioning the British Small Press Book Fair (which took place at Zona in May, 1978) dedicated to the activity of small press in Britain, and which presented 50 magazines, including Poor.Old.Tired.Horse by Ian Hamilton Finlay and Archigram edited by Peter Cook. Inbound/Outbound was an exhibition in 1977, the contents of which were sent directly to Zona (who had solicited their participation) by 100 artists from all over the world, with particular attention to East Europe countries, South America, Japan, and Australia._x000D_
+Audioworks and Zona Radio Maurizio Nannuccci started the Fonoteca (1977) a collection of records and cassettes of artists' audioworks and sound poetry, as well as previously unpublished original recordings. An exhibition of sound installations was shown at Zona for the first time; this later became a traveling show and went to museums in France, Austria, Mexico, and elsewhere. In the same year, Albert Mayr’s Suono &amp; Ambiente festival increased awareness of sound art, and provided information about related events in different parts of the world. The festival took place at several venues in Florence, with concerts and musical actions by Beth Andersen, Cornelius Cardew, Giancarlo Cardini, Richard Hyman, and Alvin Lucier among others.Parola e Suono (1979) was a review dedicated to meetings with authors of musical poetry and phonetic researchers. This has to be considered, like other manifestations, as a "work in progress," still open to further contributions. Ulysses Carrion, Henry Chopin, John Giorno, Sten Hanson, Bernard Heidsieck, Isidor Isou, Ferdinand Kriwet, Robert Lax, Maurice Lemaitre, Maurizio Nannucci, Diter Rot, Mimmo Rotella, Gerhard Rühm, Sarkis, and Adriano Spatola were presented, and Zona organized the attendance of other authors such as Brion Gysin, Ernst Jandl, Friederike Mayröcker, and Emmett Williams.A further contribution to the greater understanding and awareness of this form of sound research came with the creation of ZonaRadio. ZonaRadio continued the kind of research into sound seen at the Zona events with a cycle of radiophonic transmissions at the invitation of Florence's broadcasting station Controradio 93,7mHz (as well as from some foreign stations in the Netherlands, Canada, Germany, and Sweden. Over a period of three months Maurizio Nannucci and Albert Mayr broadcast interviews with as well as recordings and sound material by hundreds of artists such as Vito Acconci, Laurie Anderson, Robert Barry, Joseph Beuys, John Cage, Philip Corner, Coum Transmission, Antonio Dias, Brian Eno, Philip Glass, Jack Goldstein, Dick Higgins, Robert Lax, Albert Mayr, Maurizio Nannucci, Michael Snow, Keith Sonnier, Ben Vautier, and Lawrence Weiner. Their approach was an attempt to distance themselves from traditional broadcasting, and rather to adopt an editorial method that, without distorting the meaning of the transmitted works, would emphasize a cognitive approach suited to the medium of radio. In 1982 a special emmission of ZonaRadio was created in connection with the Ars Electronica Festival in Linz. In 1985, once again at the invitiation of Controradio, ZonaRadio Events broadcast new audio material. Yves Bouliane, Logos Gent, Giuseppe Chiari, Steve Piccolo, Bill Viola, and Marino Vismara created solo installations, performances, and concerts produced by Zona Music and realized at the Palazzo Vegni in Florence between 1976 and 1981. In 1984 Albert Mayr invited some protagonists of experimental music to animate the Zona Musica Festival, which took place during five days in different indoor and outdoor venues in the city._x000D_
+Zona’s International Art Network  Connections with both the peripheral and more mainstream art worlds led to exhibitions such as Iceland (1979, including Fridrik Thor Fridriksson, Margrét Jonsdottir,  Steingrimur Eyfjörd Kristmundsson, Magnus Palsson, Bjarni H. Thorarinsson): a presentation of Icelandic art that included artworks, films, books, and documents by 25 artists working at the forefront of contemporary dialogue. June 1984 saw the exhibition Zona Brasil, a manifestation in which Cildo Meireles, Iole de Freitas, and Carmela Gross presented their work in Zona's space. A personal connection with Canadian artists led to a series of artist's interventions (General Idea, Glenn Lewis, Ian Murray, Michael Snow, Vincent Tresov, and Bill Vazan). Zona was also linked closely to magazines and documents (including Parachute, Impulse, Impressions, Fuse,Parallelogramme, File), and was involved in information exchanges with nonprofitspaces such as A Space  and Art Metropole in Toronto, and Western Front in Vancouver. In March 1980 Franklin Furnace's director Martha Wilson gave a lecture at Zona, in which she discussed alternative spaces and archives in New York, focusing particularly on Franklin Furnace, whose archive was purchased by The Museum of Modern Art in New York in the 1990s.Zona Genève, curated in 1983 by Marino Vismara and including work by Françoise Bridel, Vivianne van Singer, Jean Stern, and Anne Sauser Hall, was an exhibition of a group of young artists working in Geneva and involved with the Furor art theory magazine. The show was organized as a result of exchanges with Swiss artist-run spaces in Geneva such as Ecart, Gaetan, and the Centre d'Art Contemporain. A.u.s.t.r.a.l.i.a (May/July 1983), curated by Maurizio Nannucci and Judith Blackall took place around the same time. It was the first European exploration of the Australian art scene, showing a variety of media and with the participation of over 30 artists (including Julie Brown, Juan Davila, John Nixon, Jill Orr, Imants Tiller, and Jenny Watson). Zona also presented videos featuring productions from Berlin and Great Britain; the exhibition America in a Box (1983) showed Sheila Klein and Gail MacCall, and was accomplished through a collaboration of Studio Alchymia, an Italian design studio. The Guerrilla Girls presented an exhibition of their leaflets and documents of political actions regarding discrimination against women in the art world (1985)._x000D_
+Distribution and Circulation of Information  Zona also collected information about other exhibitons, tracing visual art's most significant developments. As a result of Zona’s policy of showing an artist only for an evening, or limiting the event to the time required to make it possible, the space was extremely dynamic, in sharp contrast to the more established spaces in Florence, which were not reactive or responsive to new artistic developments.Zona realized several solo exhibitions and events with artists such as Alighiero Boetti, James Lee Byars, Sarah Charlesworth, James Coleman, Peter Downsbrough, Terry Fox, General Idea, Jeffrey Isaac, Joseph Kosuth, Mario Merz, Steve Piccolo, and Bill Viola. Following the same style of exhibiton, but integrated in a thematic context, group exhibitions were held with artists such as Giuseppe Chiari, Fabrizio Corneli, Mario Mariotti, Paolo Masi, Alberto Moretti, Massimo Nannucci, Maurizio Nannucci, and Marino Vismara.  Steve Piccolo, the bass player of the musical group Lounge Lizard, made particularly notable interventions in Demos Project (with Maurizio Nannucci) and in the Le Pietre Graffiate exhibition; he also performanced with Piero Pelù, the lead singer of the Florentine rock group Litfiba, at the Vivita gallery for the opening party of Nannucci’s solo exhibition in the Sala d’Arme at the Palazzo Vecchio. In February 1978 Magazzini Criminali (Marion d'Amburgo, Sandro Lombardi, and Federico Tiezzi), invaded Zona's space with a series of theatrical events entitled II Carrozzone. A performance-homage to Ketty La Rocca, in which Gianni Melotti, Verita Monselles, and Fulvio Salvadori also took part, was presented in Zona’s cellars.Exhibitions with Mario Merz and Alighiero Boetti corresponded to an open project for which Zona's space was “lent” to a series of galleries. The galleries/gallerists involved in Zona events were Franco Toselli’s Milan Gallery (Merz), Massimo Minini from Brescia (Boetti), followed by the Lucio Amelio’s Napolitan Gallery, which presented Ernesto D'Argenio at Zona Space, as well as Francoise Lambert from Milan who showed Alberto Garutti.Mater Materia (1977) was an exploration by Lanfranco Baldi, Carlo Bertocci, and Paolo Masi into the poetry of materials through images, books, critical articles, samplings, and editions donated by over 80 European and American artists.The series Zona Critica (March–June 1982)presented theoretical information and artworks, documenting a series of contemporary situations new to the critical field. This event characterized the beginning of the 1980s in Italy. Each of the critics invited (Rossella Bonfiglioli, Laura Cherubini, Massimo Carboni, Maria Luisa Frisa, Elio Grazioli, Flaminio Gualdoni, Ida Panicelli, Demetrio Paparoni, Loredana Parmesani, Sandro Sproccati, Barbara Tosi, Giorgio Verzotti) asked an artist to intervene in Zona's space, which became a direct intermediary between the critics and the cultural space: a precursor to other, similar manifestations._x000D_
+Crossing DisciplinesZona Architettura Corretta Londinese (1979), curated by Gianni Pettena with the British Council and the Architectural Association in London's cooperation, proposed, on a weekly basis, an overview of the emerging school of London's young architects who approached their practice through research into the environment and physical space. John Andrews, Nigel Coats, Christopher Harding, Antonio Lagarto, Jenny Löwe, John Ryba, Trisha Pringle, and Peter Wilson followed one another with installations produced and carried out in situ, as interpretations of Zona’s space. Their installations used post-conceptual spatial language and were far from being purely graphic representations of real constructions; these interventions acted as references for those by previous architects such as Lapo Binazzi/UFO, Michele De Lucchi/Cavart, Ugo La Pietra, Adolfo Natalini/Superstudio, Gianni Pettena, who were part of the Architettura Radicale group. In May 1984 Gianni Pettena also organized the Theatrium Artium review, with 12 international architects' plans for the same numbers of pavilions around the amphitheatre in the Cascine Park in Florence.On the occasion of the inauguration of the Istituto Patafisico per l'Etruria and the Proto-Istituto Alternativo Zona,the documents and editions of the College de ’Pataphisique, were shown in Italy for the first time. ZonaPatafisica, 1981, curated by Maurizio Nannucci and Thierry Foulc, presented material from the College de ’Pataphisique archive, with over three hundred publications of books, magazine, cards, booklets by Antonin Artaud, Jean Dubuffet, Marcel Duchamp, Max Ernst, Lucio Fontana, Alfred Jarry, Raymond Queneau, and Man Ray. In 1977, more than ten years before the Centre Georges Pompidou in Paris, Maurizio Nannucci curated an exhibition that gathered together material relating to Situationism, some 20 years after its creation. Zona Internationale Situationniste presented magazines, books, films, and original articles written by the protagonists, as well as related materials from all over Europe—a kind of free consulting library. The opening was memorable for the unexpected presence of Guy Debord.For the exhibition Zona Invitation Postcards in December 1977, Maurizio Nannucci asked Pier Luigi Tazzi and Luciano Bartolini to carry out a first critical enquiry into the unusual subject of invitation cards—not only the exhibition invitation cards sent by galleries and museums, but also those sent by the artists themselves. A series of categories proposed, through the presentation of over three thousands examples collected by Exempla Archive, the creative and original elements that artists use to send messages and to document their own work._x000D_
+Zona Films, Videos, and Multimedia More than once Zona'sspace was turned into a cinema with projections of artist's films. Zona Artist's Films (1976) was an international festival organized by Maurizio Nannucci and Andrea Granchi, which lasted over three months with 40 days of projections. There were also monographic evenings in which many artists took part (Joseph Beuys, Mari Boyen, Marcel Broothaers, Antonio Dias, Herbert Distel, Terry Fox, Dan Graham, Gordon Matta-Clark, Alberto Moretti, Massimo Nannucci, Bruce Nauman, Dennis Oppenheim, Luca Patella, Angela Ricci Lucchi &amp; Yervant Gianikian, Franco Vaccari, etc.).Independent Super8 Films from Australia, 1983, was a festival presented in parallel to the exhibition A.U.S.T.R.A L.I.A,dedicated to new art scene of this continent. In 1975 Bill Viola’s first video installation, Vapore, was presented; at this time he was also contributing to the activity of Art Tapes 22 created by Maria Gloria Bicocchi. Collaborating with Bicocchi Zona organized meetings with Vito Acconci, Daniel Buren, Buckminster Fuller, Tadeusz Kantor, and Living Theatre. Video Arte in Gran Bretagne took place in 1984 and the complete video and film works of Gilbert &amp; George, realized with the assistence of the British Council, were presented. Zona and some of the collective’s artist-members were frequently invited to produce projects in public institutions and museums, often reworking and extending initiatives created in Via San Niccolò, or simply proposing the same projects again. Collaborations took place with the Archives of the Venice Biennale and the Moderna Museetin Stockholm for the Small Press Sceneexhibition, and with the City of Florence for the exhibitions Formato Lib(&amp;)ro, 1978, and Artists’ Books, 1978. The DAV archive (Documentazione Arti Visive, 1980–1982) was also created by Maurizio Nannucci for the City of Florence. Other collaborations were realized with the Paris Biennale;the Padiglione d’Arte Contemporanea in Milan; the Centre Georges Pompidou and Bibliothèque Nationalein Paris for Cent Livres d'Artistes Italiens (1981); as well as with MoMA, New York; the Frankfurter Kunstverein; the British Council, London; and Rai, Rome._x000D_
+Zona ArchivesEstablishing the Zona Archives at this time, and the start of its editorial activity was very important; material is still being added to the archives today. The material that has been collected includes: the small press collection, artists’ books (four thousand books), audioworks by artists with records and tapes of new music (over one thousand items), audioworks by artists and poets, and the concrete poetry collection (more than six thousand documents) with which the Exempla Archive's materials have been merged. Zona has not simply collected and released information, but also have their own autonomous editorial activity, Zona Editions, which has not limited itself to the publication of catalogues and books about Zona events, but has also produced (and continues to do so), records, artists’ books, editions, and multiples by artists such as Paul Armand Gette, John Armleder, Luciano Bartolini, Claude Closky, Robert Filliou, Rainer Ganahl, General Idea, John Giorno, Ian Hamilton Finlay, Dick Higgins, Joseph Kosuth, Robert Lax, James Lee Byars, Sol Lewitt, Paolo Masi, Jonathan Monk, Olivier Mosset, Massimo Nannucci, Maurizio Nannucci, Carsten Nicolai, John Nixon &amp; Marco Fusinato, Yoko Ono, Michael Snow, Rirkrit Tiravanija, Lawrence Weiner, Heimo Zobernig.   Although the artist-run space in Via San Nicolò 119r was closed in 1985, Zona's activity has continued through the archives and the organization of external events. Zona Secret Events (Daniel Buren, Terry Fox, General Idea, Ian Hamilton Finlay, Jenny Holzer, Barbara Kruger, James Lee Byars, Maurizio Nannucci, Lawrence Weiner, etc.) invites artists to intervene in different places in Florence with hidden (often clandestine) works. The presence of these works is voluntarily concealed and any search for them is helped only by insufficient clues. Zona Archives regularly supplies materials, documents, and works to art institutions that request them for their exhibitions. Zona has also produced exhibitions and events. Among these are A.P./Artists Photographs (John Baldessari, Christian Boltanski, Luciano Fabro, Fischli and Weiss, Dan Graham, Jenny Holzer, Barbara Kruger, Ed Ruscha, Cindy Sherman, etc. ), which took place at the Archivio Storico in Marciana, Isola d’Elba (1986), and A.B./Art in Bookform, organized by Maurizio Nannucci and Pier Luigi Tazzi at the Alvar Aalto Museum and the Pori Art Museum in Finland in 1987. Other projects curated by Maurizio Nannucci includeD.i.s.c.o.t.h.e.q.u.e (Maison du livre, de l’image et du son, Villeurbanne/Lyon, 1989), Bookmakers (Limoges, 1995), Murs de Son (Villa Arson, Nice, 1995), and Keeping Time, the sound archive of artists' audioworks (Zona, 1977) was shown at Villa Arson in Nice (1995), the École des Beaux Arts in Bourges (1996), the Kunstmuseum in Bregenz (1997), and the Palazzo delle Papesse in Siena (1998). Nannucci also curated the exhibitionZona People at Mamco, Centre d’art contemporain, Geneva, 2003. Zona’s objectives have never been to celebrate a particular moment of an artist's work, much less its own activity. Rather attention has always been concentrated on communication, information, and recording events that other organizations, with different remits and constraints, would not be able to record. The continuity of the commitment that has always been given to Zona has allowed it to explore areas in which it is possible to research and formulate new models of artistic methodologies and behaviors. It is precisely in terms of the continuity and the attention given to the immediate reception of events, many of which have been forgotten by more official artistic channels, that Zona has built its identity._x000D_
+Small Space, Great Ideas Zonaand its collective places itself in the sphere of an international communication network strongly characterized by ideological problematics that, alone, take on all the artistic (as well as non-artistic) questions of the 1970s and 1980s. The communication is reciprocal and is a base for further elaborations. In this way all the assumptions of non-participation,of delay, of communication's autism, of provincialism are demolished.The capacity and potential to receive everything places Zona in a unique position. Zona, venue of numerous strategic points, took Florence back to a communicative centralization through minimum and marginal signs. In 1985 the members of the Zona collective decided to bring an end to their activities as a group. As a result, the decision was made to close down the space in via San Niccolò 119r, so opening a new chapter in a story that is and will continue to be exemplary.It is to these people and to these events that these pages are dedicated. Memories, but without nostalgia. Bearing witness to a conscious decision, to a gentle but intense experience, and to a path that could possibly still be taken up today. For this reason, this experience cannot be dedicated only to one single place but to the world, and especially to all those artists and people who shared it and those who want to live it today._x000D_
+ </t>
         </is>
       </c>
       <c r="L146" t="inlineStr"/>
@@ -20150,7 +20271,24 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>The CONCLUSION is supported by an international artist and programme based in Leipzig. The team works with a cross-sectional background between arts. The goal is to provide artists to be an opportunity to contact the local art scene. The project is focused on experiments, extended arts around the world.</t>
+          <t xml:space="preserve">THE CONCEPT PILOTENKUECHEThe PILOTENKUECHE supports artists and is an international artist-run residency &amp; art program based in Leipzig, Germany. The non-profit institution is organized by artists for artists. The team operates with a transdisciplinary background between art, theory &amp; diverse sciences. The goal is to provide artists a base to work on and wishes to be an opportunity to get in contact with the local art scene. The project is focusing on synergetic group dynamic, experiments, expanded strategies and transdisciplinary exchange. Selected artists from around the world are invited to come and work at our common used space for an individual period of 3- 5 months or longer. During each round at the artist residency, the group of artists transforms into a kind of synergistic collective. The artists meet to customize the space according to their wishes, to establish and to show temporary projects, to work and to live together. To boost the transfer between artists and actors of other disciplines, cultural and artistic events could be hosted at the studios and guests could be invited therefor. With the participation in our program each artist is offered in detail:_x000D_
+_x000D_
+selected artists participate in our events &amp; exhibitions:_x000D_
+_x000D_
+artist talks event ‘TALK TALK TALK’. Each artist of the project talks about his/her position_x000D_
+preview exhibtion / open studio ‘INTERVIEW’. The artists present their first works in a small group show / open studio_x000D_
+final exhibition. The artists present their works in a group show_x000D_
+weekly ‘Open Studio’ on each thursday from 14 – 18:00h_x000D_
+further events &amp; shows by interest &amp; agreement possible_x000D_
+individual consultations by agreement_x000D_
+_x000D_
+_x000D_
+disciplines: activism, architecture, conceptual, design, digital, drawing, film, installation, intervention, mixed media, technology, intermedia, literature, painting, performance, photography, printmaking, sculpture, sound, video or other disciplines of arts_x000D_
+language: English / German_x000D_
+_x000D_
+In organizing and running this residency project, it is the main goal of the members of the PILOTENKUECHE to offer a platform that encourages dialogues and exchange about artistic practice from different people, coming from different places, and working in different techniques. The PILOTENKUECHE wishes to provide our participants with the experience of accomplishing something as a group; and, moreover, in experimenting with new forms of cooperation, ideally in fostering an independent position in one’s work._x000D_
+ _x000D_
+ </t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -20160,12 +20298,13 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>With its roots in underground and punk the project is and was no white cube or neutral space. But it changed and needs to be a bridge between its origins and established art structures, which are based at the Spinneri complex. It keeps its roots to create alternative processes and experimental thinking about art, philosophy and social relations. With DIY approaches the project approaches to be a base of improvising and learning skills. The project is not fully serviced! It is organised by artists for artists and provides to create intercultural collaboration together.</t>
+          <t>PILOTENKUECHE itself was founded 2007 by Christoph Mayer as a group studio to create exchange between German and Austrian artists. With its roots in underground and punk the project is and was no white cube or neutral space. But it changed and wishes to be a bridge between its origins and established art structures, which are based at the Spinnerei complex. It keeps its roots to create alternative processes and experimental thinking about art, philosophy and social relations. With DIY approaches the project aims to be a base of improving and learning skills. The project is no full service residency! It is organized by artists for artists and provides to create intercultural collaboration together.</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>The concept of the studio is based in Leipzig, Germany. Selected artists from around the world are invited to come and work in the space for an individual period of 3 – 5 months or longer. Each artist is offered his own area within the 243m2 space, where they have 24-hour a day access to work in that space. What the artist do with their time during the residence is up to them – the studio is something like a self running system, so’s why it ever changes._x000D_</t>
+          <t xml:space="preserve">THE CONCEPT OF THE STUDIOThe STUDIO is  based in Leipzig, Germany. Selected artists from around the world are invited to come and work in the space for an individual period of 3 – 5 months or longer. Each artist is offered his own area within the 243m² space, where they have 24-hour a day access to work in that space. What the artist do with their time during the residency is up to them – the studio is something like a self running system, so that’s why it’s ever changing._x000D_
+ </t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -20304,7 +20443,8 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Willy and Hans are assisted by a team of professionals who also volunteer projects and realize them: Giel Louws, curator - Michel Paalvast , visual artist - Harmen Eizenga , philosopher - Ramon de Nennie , graphic designer for publishing decree - Robert Jan Swiss , writer - Johann de Koning , architect Lab4Arch - Peter Steutel , graphic designer Comform . Site area caesura about thanks to Bianca Runge , artist W3Vlissingen The team is inspired by 'Take Care' by Anthony Huberman' by Anthony Foemann's workman. Click here for the artist's work of this article</t>
+          <t>Willy and Hans are assisted by supporting a team of professionals who also voluntarily projects and realize them: Giel Louws, artist | curator | curator - Michiel Paalvast , visual artist - Harmen Eijzenga , philosopher - Ramon de Nennie , artist | graphic designer for publishing decree - Robbert Jan Swiers , writer | musician - Johan de Koning, architect Lab4Arch - Peter Steutel, artist | graphic designer Comform. Site area caesura came about thanks to Bianca Runge , artist | Director W3Vlissingen | Director Le secE t. team caesura is inspired by 'Take Care' by Anthony Huberman. Click here for the PDF of this article._x000D_
+Hans About Vliet was president of Foundation Plus Min and Foundation I was chairman of art workplace Kipvis, was a board member of the Zeeland Kunstuitleen now CBK Zealand, was a board member of arts Middelburg, now in Arts Walcheren, was chairman of the art magazine decree , is attached to the Middelburg town festivals and is one of the initiators behind Art House Zealand.</t>
         </is>
       </c>
       <c r="L150" t="inlineStr"/>
@@ -20438,7 +20578,26 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Artists present only exhibitions of artists. They are an inspiration to new works. The solo artists also care for the experiments in the solo exhibition. By doing this, they give the visitor their work and how to work in the unique way.</t>
+          <t xml:space="preserve">Artists’ initiative Club Solo presents solo exhibitions of leading artists. They are an inspiration to several generations of artists. In addition to new work, they also show key works spanning their entire careers. The solo artists also curate the exhibitions: they get total freedom to experiment in the solo exhibition. By doing this, they give the visitor an insight in their work and way of working in a unique way.Besides this, the solo artists determine the peripheral programme and the content of the publication. Club Solo organises four solo exhibitions each year. The selection of the artists is a joint selection by the core members of Club Solo._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+To challenge the solo artists and to put their artistic position into perspective, curators from two museums – Van Abbemuseum in Eindhoven and the Museum of Contemporary Art in Antwerp – contribute one work from their museum collection to each exhibition. These works are exhibited in a separate space from Club Solo. The museums are free to choose the reacting work. Prior to the exhibition, conversations take place in the studio of the artist and in the museum between the solo artist and the curator of the Van Abbemuseum or M HKA._x000D_
+Accompanying each exhibition is a publication that contains an essay on the artist’s work and a review of the work selected from the museum collection. It also has photographs of the exhibition. Each artist directs their respective publication and hand-picks a writer._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+For each solo exhibition, a five-print run of multiples is produced._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -20838,7 +20997,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Takeaway gallery© was born in the late 2009 on a project of the Roman photographer Stefano Esposito and it is made up of two parallel lines of business.The first one is the gallery itself, seat of the Cultural Association located in Rome, via the Reinella, where there are permanently exposed more than 200 small-sixed works of art made by young emerging artists and successive ones.The second line, to be considered the main one, deals with the promotional activity planning young contemporary artists’ shows and exhibitions with a preference for sculpture and photography plus the organization of cultural events located in different sites and partnerships."</t>
+          <t>Takeawaygallery© was born in the late 2009 on a project of the Roman photographer Stefano Esposito and it is made up of two parallel lines of business.The first one is the gallery itself, seat of the Cultural Association located in Rome, via della Reginella, where there are permanently exposed more than 200 small-sized works of art made both by young emerging artists and successful ones.The second line, to be considered the main one, deals with the promotional activity planning young contemporary artists’ shows and exhibitions with a preference for sculpture and photography plus the organization of cultural events located in different sites thanks to various collaborations and partnerships."Takeawaygallery well-known for its innovative formula, is based on an idea of art within everyone’s reach, founded on its choice to offer small-sized works of art at a reasonable price and with heterogenous expositive offers. It also owns the peculiarity of dynamic exhibitions planned outside the gallery as well, both in regular spaces and outside the usual route of Art”</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -21105,7 +21264,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Flip is a platform to expand on various interests in relation to current culture and artistic practice. the projects are the result of our international network and multidisciplinary collaborations. Continue shifts in context invited inputs and spontaneous events that contribute to the multi-layered and transnational speech that characterizes Flip.The locationThe last flower of the 1690 castle ruffo di Castelcicala in the centre of Naples, forms the base location for Flip.flip is a vision and a project in itself, not specific to a site, but rather an evolving network of activities and locals.</t>
+          <t xml:space="preserve">flip is a platform to expand on various interests in relation to current culture and artistic practice. the projects are the result of our international network and multidisciplinary collaborations. Continuous shifts in context invite inputs and spontaneous occurrences that contribute to the multi-layed and transnational discourse that characterizes flip.The locationThe last floor of the 1690 palazzo ruffo di castelcicala in the centre of napoli, forms the base location for flip.flip is a vision and a project in itself, not specific to a site, but rather an evolving network of activities and locales. </t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -21115,7 +21274,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Federico Del Vecchio (1997) lived and works among Naples, Italy and Glasgow. Del Vecchio is engaged in an independent artistic practice as co-curator of flag project space. After finishing his studies at the Academy of Fine Art in Naples, he attended the Städelschule in Frankfurt am Main, followed by completing the Master at The Glasgow School of Art. He was then at the HIAP – Helsinki International Artist in residence Program supported by 2012 Movin' Up prize for the young Italian artists. He is the recipient of the Marie Curie Fellowship 2015 at the University of Ljubljana, Switzerland, and the</t>
+          <t>Federico Del Vecchio (Naples, 1977) lives and works between Naples, Italy and Glasgow, UK. Del Vecchio is engaged in an independent artistic practice as well as co-curator of flip project space.  After finishing his studies at the Academy of Fine Art in Naples, he attended the Städelschule in Frankfurt am Main, followed by completing the Master in Fine Art at The Glasgow School of Art.  He was then at the HIAP – Helsinki International Artist in residence Program supported by 2012 Movin' Up prize for the mobility of young italian artists abroad. He is the recipient of the Marie Curie Research Fellowship 2015 at the University of Ljubljana, Slovenia.Ala Roushan (Pittsburgh, 1983) lives and works between Toronto, Canada and Napoli, Italy, engaged in speculative design research, writing, curatorial practice and teaching through which she explores the boundaries of design, art and architecture. She is the co-curator/co-director of flip project space. Ala holds an Assistant Professorship at OCAD University, Faculty of Design, Toronto. She is a Ph.D. candidate at the European Graduate School focused on Philosophy, Art &amp; Critical Thought of the Digital. Her interests include investigating advanced digital processes and computational logics in unraveling the generative potential of material intelligence and emergent aesthetics. Ala obtained a Master of Arts in Advanced Architectural Design at the Städelschule Frankfurt, Germany.</t>
         </is>
       </c>
       <c r="L156" t="inlineStr"/>
@@ -21673,7 +21832,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>63rd - 77th STEPS is a project space found and run by the artist Fabio Santacroce. The name refers to the final part of a multi-flower staircase (the area between 63° and 77° step), inside a building from the beginning of the XX century in Bari. Site-specific exhibitions are alternative with off-site and online exhibitions meant as physical and metaphoral extensions of this residual place. 63rd-77th STEPS strains and investigations the limits and potentials of the peripheral, redefining its spatial and temporal framework.</t>
+          <t>63rd - 77th STEPS is a project space founded and run by the artist Fabio Santacroce. The name refers to the final part of a multi-floor staircase (the area between 63 ° and 77 ° step), inside a building from the beginning of the XX century in Bari.Site-specific exhibitions are alternated with off-site and online exhibitions meant as physical and metaphorical extensions of this residual place. 63rd-77th STEPS strains and investigates the limits and potentialities of the periphery, redefining its spatial and temporal framework.</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -21943,7 +22102,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>CONA is an artist-run initiative that aims at creating an adventure for students, artists, designers, and professionals from different fields to as together. It intends to function as an acquiring mind space, a point of contact that will children's ideas, ease speech, stimulating both thought and action. In a word, here is an existing for ideas, perspectives, openings and people to meet, where they can work, think, participate in activities and projects that incorporate disciplines, genres, times and lives Cona will work with the active and contributive involvement of every visitor. We intend to build a digital archive, a resource that can be accessed by all. For this we encourage all to</t>
+          <t>CONA is an artists-run initiative that aims at creating an avenue for students, artists, designers, and professionals from different fields to come together. It intends to function as an ongoing mind space, a point of contact that shall kindle ideas, facilitate discourse, stimulating both thought and action. In a word, here is an adda for ideas, perspectives, happenings and people to meet, where they can work, think, participate in activities and projects that encompass disciplines, genres, times and lives Cona will work with the active and contributive involvement of every visitor participator. We intend to build a digital archive, a resource that can be accessed by all. For this we encourage all to volunteer, share and contribute in any form of data, footage, images, audio or other. A further extension of this archive would be collective engagements in the form of screenings or talks.Cona also offers part of the space as a venue for artist residencies and will also initiate a design centre.Our intention: neither to act as an exhibition space nor just a digital archive, but to be an active catalyst in a continuous situation where thoughts and experiences can be shared and can grow</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -22077,7 +22236,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>The lab believes that if we give artists enough time, space, and foundation to realize their vision, the work they will change the way we experience the world. These are often small proposals that we perceive value, and so we seek out extraordinary artists who are less represented as a result of gender, class, sex, or geography, and whose work is not easily defined and there is indeterminate. As a site of constant experimentation, the lab is all, a catalyst is W.A.E. Certified. W.A.</t>
+          <t>The Lab believes that if we give artists enough time, space, and funding to realize their vision, the work they produce will change the way we experience the world. These are often small propositions that (like all great art) challenge the familiar ways we perceive value, and so we seek out extraordinary artists who are underrepresented as a result of gender, class, race, sexuality, or geography, and whose work is not easily defined and therefore monetized. As a site of constant iteration and indeterminacy, The Lab is, above all, a catalyst for artistic experimentation._x000D_
+The Lab is W.A.G.E. Certified. W.A.G.E. Certification is a program initiated and operated by working artists that publicly recognizes non-profit arts organizations demonstrating a commitment to voluntarily paying artist fees that meet a minimum standard._x000D_
+The Lab is a 501(c)(3) nonprofit organization, federal ID number 94-2952488._x000D_
+We are not accepting artist submissions at this time._x000D_
+Our space is wheelchair accessible and is located 1/2 block from the 16th and Mission BART._x000D_
+Please check our program calendar for hours.</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -22343,7 +22507,8 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Enterprise Projects is an Athens based project by Danai Giannoglou and Vasilis Papageorgiou. Created out of our need to express and share our point of view concerning the contemporary artistic creation,this adventure is at experimenting and convergence; experimenting with the curatorial proposal, artistic creation, self-organised function, and converting with the artistic scene, the Athens audience and the place itself, which houses the project._x000D_ As a structure Enterprise Projects have been functioning independently and periodically since September 2015 in Ampelkipoi, Athens.</t>
+          <t>Enterprise Projects is an Athens based project by Danai Giannoglou and Vasilis Papageorgiou. Created out of our need to express and share our point of view concerning the contemporary artistic creation,this venture aims at experimenting and conversing; experimenting with the curatorial proposal, artistic creation, self-organized function, and conversing with the artistic scene, the Athenian audience and the place itself, which houses the project._x000D_
+As a structure Enterprise Projects has been functioning independently and periodically since September 2015 in Ampelokipoi, Athens.</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -22477,7 +22642,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>TRIPLA, artist run space active since 2016 in Bologna, via Independentza 71 f, Italy. Our space is composed of three shows of a form shop, only visible from the outside 24/7 all year. During this year we hosted events, solo and collective shows by artists from Italy, Switzerland and Germany.</t>
+          <t>TRIPLA, artist run space active since 2016 in Bologna, via Indipendenza 71 f, Italy. Our space is composed of three showcases of a former shop, observable only from the outside 24/7 all year. During this year we hosted happenings, solo and collective shows by artists from Italy, Switzerland and Germany.</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -23179,7 +23344,8 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Art City is a non-for-profit community study dedicated to providing people of all ages with innovative and professional art programming, free of charge. Art City’s primary goal is to provide space and tools for anyone who wishes to express themselves creatively.Nearly two decades ago, Wanda Koop, and internationally renewed artist, saw a need for accessible arts programming in Winnipeg’s West Broadway neighbourhood. In 1998, she found Art City, one of the first organizations of its child in Canada. The idea: that community art programming should be accessible to all._x000D_In 2006, Wanda Kop was made a Member of the Order of Canada in honour of its extraordinary contribution to Canadian art, and her dedication to development to the community.</t>
+          <t>Art City is a not-for-profit community art studio dedicated to providing people of all ages with innovative and professional art programming, free of charge. Art City’s primary goal is to provide space and tools for anyone who wishes to express themselves creatively.Nearly two decades ago, Wanda Koop, an internationally renowned artist, saw a need for accessible arts programming in Winnipeg’s West Broadway neighbourhood. In 1998, she founded Art City, one of the first organizations of its kind in Canada. The idea: that community art programming should be accessible to all._x000D_
+In 2006, Wanda Koop was made a Member of the Order of Canada in honour of her extraordinary contribution to Canadian art, and her dedication to community development through the arts.</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -23447,7 +23613,8 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Ground is an artist-run space operated by visual artists Lito Kattou and Leontios Toumpouris._x000D_ Ground is an interdisciplinary platform open to all forms of artistic practice, willing to encourage dialogue and networking in the context of autonomy and symbiosis.</t>
+          <t>Ground is an artist-run space operated by visual artists Lito Kattou and Leontios Toumpouris._x000D_
+Ground is an interdisciplinary platform open to all forms of artistic practice, willing to encourage dialogue and networking in the context of autonomy and symbiosis.</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -23886,7 +24053,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>El Mentidero is a home in downtown Bogotá. It is content and container-bucket and water at the same time. An exhibition space for non-productive merchandise, selling religious artifacts for non-believers, a set for unrelated relations. Market without marketing. Use and disuse. One for all, all strategically located in its place, El Mentidero closes its doors through to some and others and is housed by insatiable and problematic artists, masses grower of both right and wrong, bosses with PhDs, broken students and broken teachers. Behind these by a new school is being formed, without degrees and without taking and lots of class.</t>
+          <t>El Mentidero is a home in downtown Bogotá. It is content and container-bucket and water at the same time. An exhibition space for non-productive merchandise, selling religious artifacts for non-believers, a set for unrelated relationships. Market without marketing. Use and disuse. One for all, all for one.Strategically located in its place, El Mentidero closes its doors to some and others and is inhabited by insatiable and problematic artists, masses eager of hay and poison, chefs with PhDs, broke students and broken teachers. Behind these doors a new school is being formed, without grades and without degrees but with toga and lots of class.</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -24014,7 +24181,9 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Space opened the 27th 2017 exhibition What is it that shows a work of the group? It was spontaneously created by a group, free from the critical meaning of the term "artistic group", with the porpoise of the complex role that artists have in our contemporary society, and in order to achieve a higher level of research. In situ is more than a set of studies, it's a study devoted to the collective growth, and open-space between the materials of the novels, and the novels of the novels,</t>
+          <t>Spazio In Situ opened the 27th October 2017 presenting the exhibition What if?, that shows a work from each artist of the group. In Situ was spountaneously born by working togheter as a group, free from the critical-historical meaninig of the term “artistic group”, with the purpose of facing the complex role that artists have in our contemporary society, and in order to reach a higher level of artistic research. In Situ is more than a set of studios, it’s a studio devoted to the constant research of ideas, a place where personal growth meets the collective growth, an open-space without any walls between each artist studio. Artworks are free to live in the space, breathing an open-minded atmosphere that leads to a huge network of hyperlinks and unlimited possibilities._x000D_
+In Situ constanly challenge himself re-thinking the space and its role, an example is the exhibition project Contemporary Absurdity, a six solo exhibitions cycle with works by Marco De Rosa, Roberta Folliero, Andrea Frosolini, Christophe Constantin, Francesco Palluzzi, Elisa Selli. The space during the exhibitions turns into a White Cube,  one time sacral space for every artwork that is inside, and now creating an ecosystem in which common objects become icons of a concpt, shifting the viewer from reality to illusion.Text by Sara Fiorelli_x000D_
+The 27th October 2018, Spazio In Situ celebrates two years togheter with the exhibition OUT OF SPACE, giving birth to Spazio In Più and welcoming other five artist studios (Sveva Angeletti, Federica Di Pietrantonio, Chiara Fantaccione, Daniele Sciacca, Guendalina Urbani).</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -24152,7 +24321,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Palette Terre is founded in January 2014 by artist Basteen Cosson, in a part of his apartment located in the south. Visits to the gallery are on rdv or during the vernisages. palette Terre was found in January 2014 by the artist Basteen Cosson, on his 5th floor's apartment hanging south. Visits to the gallery are by appointment or at openings. Do not hesitate to contact us.</t>
+          <t xml:space="preserve">Palette Terre est fondée en Janvier 2014 par l'artiste Bastien Cosson, dans une pièce de son appartement orientée plein sud.  Les visites à la galerie se font sur rdv ou durant les vernissages.Palette Terre was founded in January 2014 by the artist Bastien Cosson, on his 5th floor's apartment facing south. Visits to the gallery are by appointment or at openings. Do not hesitate to contact us. </t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -24436,7 +24605,8 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Gallery 44 Centre for Contemporary Photography is a charitable, non-profit, artist-run centre commissioned to support multi-faceted approaches to photography and lens-based media. Founded in 1979 to establish a supportive environment for the development of artistic practice, Gallery 44’s mandate is to provide a context for meaningful reflection and dialogue on contemporary photography._x000D_Gallery 44 is commissioned to programs that reflect the continuously changing definition of photography by presenting a range of practices that engage timely and critical explorations of the media. Through exhibitions, public engagement, education programs and production facilities our objective is to explore the cultural, culturally and culturally speaking, visually, culturally and culturally.</t>
+          <t>Gallery 44 Centre for Contemporary Photography is a charitable, non-profit, artist-run centre committed to supporting multi-faceted approaches to photography and lens-based media. Founded in 1979 to establish a supportive environment for the development of artistic practice, Gallery 44’s mandate is to provide a context for meaningful reflection and dialogue on contemporary photography._x000D_
+Gallery 44 is committed to programs that reflect the continuously changing definition of photography by presenting a wide range of practices that engage timely and critical explorations of the medium. Through exhibitions, public engagement, education programs and production facilities our objective is to explore the artistic, cultural, historic, social and political implications of the image in our ever-expanding visual world.</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -24446,12 +24616,22 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Gallery 44 was founded in 1979 by a small group of artists in need of production facilities which together to share darkroom and studio space. Forming an important step in making suitable and in creating a supportive community of common goals. In 1980, the collective starting exhibitions and in 1981 began offering workshops._x000D_Gallery moved from its original location on Bathurst Street in 1986, where both production and exhibition facilities were expanded to serve a growing membership. Due to a severe lack of education in elementary and secondary schools, Gallery starting its education in the fourties in 1987.</t>
+          <t>Gallery 44 was founded in 1979 by a small group of artists in need of production facilities who joined together to share darkroom and studio space. Forming a collective was an important first step in making facilities affordable and in creating a supportive community of artists with common goals. In 1980, the collective began mounting exhibitions and in 1981 began offering photography workshops._x000D_
+Gallery 44 moved from its original location on Niagara Street to Bathurst Street in 1986, where both the production and exhibition facilities were expanded to serve a growing membership. Due to a severe lack of photographic education in elementary and secondary schools, Gallery 44 began its Education in the Schools program in 1987. In 1994, Gallery 44 moved to 401 Richmond St. W. to improve the centre's exhibition and production facilities and to widen its audience through a more centralized location._x000D_
+The main floor of our space currently includes the administrative office, main gallery and adjacent vitrines gallery that host our seven annual exhibitions and our Members’ Gallery, which exclusively showcases the work of our members. Gallery 44’s 2,673 square foot, accessible facilities are located in the basement of 401 and include darkrooms, a shooting studio, scanning lab, wide format digital printing, print finishing area, resource library, and the Production Gallery which highlights works produced in our facilities. _x000D_
+Throughout its history Gallery 44 has prioritized equitable access by breaking down barriers to the arts for artists, audiences and youth. We do so by programming outside of the downtown core, collaborating with numerous community partners both within and outside of our sector, supporting artistic experimentation and risk-taking and providing accessible public programs and production support to emerging practitioners, diverse artists and young people from across the GTA. Gallery 44’s partners include: ImagineNATIVE, Images Festival, Scotiabank CONTACT Photography Festival, Toronto District School Board, OCAD University, Trinity Square Video, NIA Centre for the Arts, Tangled Art + Disability and many more.  _x000D_
+While Gallery 44 continues to develop and evolve we have remained committed to our history as an artist-run centre, which in part relates to fostering collaborative decision-making and the sharing of leadership roles. Retaining the spirit of an artist-run centre, members, Board and staff work together to develop and implement programs that highlight unique artistic practices, engage a wide audience and increase the access to and understanding of image-based practices._x000D_
+Gallery 44 supports over 400 artist members through affordable access to analogue and digital facilities and various professional development opportunities, including conceptual and technical workshops, portfolio reviews and mentorships. Gallery 44 continues to serve an important role in the larger arts community by supporting:_x000D_
+·       emerging artists through such annual programs as Proof, OUTREACH, Darkroom Club, CameraLinks and CameraReach_x000D_
+·       Canadian and international artists and curators through dynamic exhibitions and residencies_x000D_
+·       diverse audiences through public programs such as talks, tours, discussions, screenings, writing groups and performances_x000D_
+·       writers in every stage of their careers through our vital and prolific publishing program</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Gallery 44 is focused on three programming areas:_x000D_ We offer affordable production facilities to over 400 artists, including darkrooms and digital printing, ensuring that artists working across different media have an accessible space to experiment and develop their photo-based practices.Providing a similarly accessible gallery space, G44 present dynamic exhibitions that reflect a range of contemporary issues and visual shapes. As a mentor-focused institution, rather than a curator-focused one, we maintain a collaborative approach in which arts play a central and active role in programming and supporting one another's development. G44dequents significance parts of our programming for years and years ago.</t>
+          <t>Gallery 44 is centered on three programming areas:_x000D_
+We offer affordable production facilities to over 400 artist members, including darkrooms and digital printing, ensuring that artists working across diverse media have an accessible space to experiment and develop their photo-based practices.Providing a similarly accessible gallery space, G44 presents dynamic exhibitions that reflect a range of contemporary issues and visual forms. As a mentor-focused institution, rather than a curator-focused one, we maintain a collaborative approach in which artists play a central and active role in shaping programming and supporting one another’s artistic development. G44 dedicates significant portions of our programming calendar each year to focusing on emerging artists. Longstanding programs, such as Proof and Cameralinks, provide a place for artists at the cusp of their own explorations into seeing to widen the dialogue around contemporary photography.An equally important part of our mandate is to provide production, exhibition, mentorship and scholarship opportunities to youth throughout the GTA. Gallery 44’s OUTREACH program, for example, offers photography workshops to youth from underserved communities. This unique program inspires youth to develop positive methods of sharing their stories and to initiate critical explorations into art-viewing and art-making. As one of the only artist-run centres in Canada providing ongoing, hands-on arts education to youth, our award-winning education programs encourage greater visual literacy, while fostering a new generation of artists.</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -24986,7 +25166,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Institute for Provocation (IFP) is a Beijing based independent art organization and project space found in 2010. Combineing the study of theory and artistic practice, IFP aims to combine cross-disciplinary knowledge and stimulate cultural exchange and production in a collective approach. IFP organisations and lawyers various types of activities, including artist residence, research project, discussion, exhibition making, workshop, publication, etc. on the basis of considering the dynamics of the relationship of the independent art space with the society. Through a wide network of artists, researchers and makers in China and beyond, IFP can provide intelligence to include residents and practitioners of the</t>
+          <t>Institute for Provocation (IFP) is a Beijing based independent art organization and project space founded in 2010. Combining the study of theory and artistic practice, IFP aims to combine cross-disciplinary knowledge and stimulate cultural exchange and production in a collective approach. IFP organizes and advocates various kinds of activities, including artist residency, research project, discussion, exhibition making, workshop, publication, etc. on the basis of considering the dynamics of the relationship of independent art space with the society. Through a wide network of artists, researchers and makers in China and beyond, IFP can provide intelligence to incoming residents and collaborators who themselves become part of the network. We reckon the interaction between practice of residence artists and IFP’s institutional practice are constantly in a relationship of mutual provocation, friction and cooperation.</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -24997,7 +25177,8 @@
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Research that offers cross-disciplinary strategies to collect information, read or produce work or artistic experiment. IFP also opens up for learning that can provide the contemporary arts with new insights, modes of thinking and/or research strategies.</t>
+          <t>Research that proposes cross-disciplinary strategies to collect information, read or produce work or artistic experiment. IFP also opens up for research in disciplines other than the arts that can provide the contemporary arts with new insights, modes of thinking and/or research strategies. Residency proposals for China show a link with the local context without being limited to it.BLACK SESAMEBlack Sesame is IFP's projects space which opened in June 2014. Located in a converted boiler room of the IFP courtyard at Heizhima hutong 13, Black Sesame is an experimental space for exhibitions, performances, workshops and more. With its characteristic high ceiling, flexible lighting conditions and ideal exhibition layout, Black Sesame is a unique 'white cube' located in one of Beijing's best preserved courtyards._x000D_
+Apart from being closely linked to IFP's residency programme and the resident artists, Black Sesame also works as a meeting space between the local Beijing art scene and international community of artists. With a programme focussing on solo exhibitions mixing Chinese and international artists with overlapping themes or interests, we encourage hands-on experimentation and transformation of the space itself. Artists and exhibitions are linked together through a programme which includes artists talks and performances.</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -25258,7 +25439,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>221A is a non-profit artist-run centre that present exhibitions, talks, publications and special projects that explore the role of design in the design of contemporary societies.</t>
+          <t>221A is a non-profit artist-run centre that presents exhibitions, talks, publications and special projects that explore the role of design in the shaping of contemporary societies.</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -25268,12 +25449,14 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Starting as a student-led initiative in 2005, the organization was initially animated by an opposition to the division between contemporary art and design.</t>
+          <t>Beginning as a student-led initiative in 2005, the organization was initially animated by an opposition to the division between contemporary art and design. Leaving the university grounds in 2008 to establish its first public exhibition space, the organization would be shaped by the history and upheavals of its new home in Chinatown, the embattled neighbourhood itself a microcosm of a global economic recession and the transformation of Vancouver before and after the 2010 Winter Olympics.</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>In 2015, semi-public, a 3,000 square foot exhibition site, complications its role in contemporary art. However, as the organization Grew, it found its ambitions increasingly restricted by the disciplineal conventions, compressed timelines, and precious economics of the artist-run centre (ARC). In its history of culture, Vincent Bonin describes how the ARC's original project of emancipation, of both creation and society, was abandoned after creation. The organization found the methods and logics of the traditional ARC's style, was invented in 22 years ago.</t>
+          <t>In 2015, 221A opened Semi-Public, a 3,000 square foot outdoor exhibition site, complicating its role in Vancouver’s contemporary art ecology. However, as the organization grew, it found its ambitions increasingly restricted by the disciplinary conventions, compressed timelines, and precarious economics of the artist-run centre (ARC). In his history of magisterial artist-run culture in Canada (1962-2012), Vincent Bonin describes how the ARC’s original project of emancipation, of both artist and society, was abandoned after decades of creative stagnation and bureaucratic red tape. The organization likewise found that the methods and logics of the traditional ARC could only interpret the world in various ways; 221A wants to change it. Consequently, 221A’s vision is to support artists to transform the cultural, ecological, and economic contexts they emerge from._x000D_
+Beginning in Fall 2017, 221A’s programming was comprehensively restructured around a ‘fellowship &amp; infrastructure’ model. Unlike a standard exhibition or commission, the fellowship program will host artists over an extended period of time, engaging with contexts, collaborators, ideas, and audiences. Over the course of three to twenty-four months, the fellow will occupy 221A’s former exhibition space and working with the staff to lead the organization’s artistic pursuits._x000D_
+The fellowship program will develop research that leads to new social, cultural, or ecological ‘infrastructure’. 221A defines infrastructure as flexible, semi-permanent projects and systems that exceed traditional forms of (art) production in their capacity to respond to fluctuating realities and needs. Whereas 221A’s peers and mentors—traditional ARC’s and public galleries—are institutions that commission and exhibit artist works, the ‘fellowship &amp; infrastructure’ model empowers artists to use the institution itself as a medium. Fellows will mobilize an expanded set of instruments—finances, communications, facilities, and human resources—to realize projects that intervene in, and hopefully transform, our contexts in contemporary society.</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -25538,7 +25721,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>The Aboriginal Curatorial Collective / Collection of Conservatives Autochtones (ACC/CCA) is a national arts service organisation that supports, promotions and lawyers on part of Canada and international Aboriginal curators, critics, artists and representative of arts and cultural organizations. The ACC/CCA develops and disseminates curatorial practices, innovative research and critical discourses on Aboriginal arts and culture. By employering collaboration and exchange, the ACC/CCA builds an equitable space for the Aboriginal intellectual and artistic community.</t>
+          <t>The Aboriginal Curatorial Collective / Collectif des Conservateurs Autochtones (ACC/CCA) is a national arts service organization that supports, promotes and advocates on behalf of Canadian and international Aboriginal curators, critics, artists and representatives of arts and cultural organizations. The ACC/CCA develops and disseminates curatorial practices, innovative research and critical discourses on Aboriginal arts and culture. By fostering collaboration and exchange, the ACC/CCA builds an equitable space for the Aboriginal intellectual and artistic community.</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -25670,13 +25853,16 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aceartinc. is an artist-run centre dedicated to the development, exhibition and dissemination of contemporary art. aceartinc. maintains a committee to emerging artists and recognizes its role in placing contemporary artists in a wider cultural context. aceartinc. encourages applications from all contemporary artists and curators.</t>
+          <t>aceartinc. is an artist-run centre dedicated to the development, exhibition and dissemination of contemporary art. aceartinc. maintains a commitment to emerging artists and recognizes its role in placing contemporary artists in a larger cultural context. aceartinc. encourages applications from all contemporary artists and curators.</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>aceartinc. is an Artist-Run Centre located in the Exchange District of Winnipeg, Canada. We were found in 1983._x000D_aceartinc. exhibitions 5 major exhibitions a year by contemporary visual artists and we welcome submissions from all emerging contemporary artists and curators working in any media to our annual call for submission as August._x000D_The gallery also runs several goning projects and hosts number one-offs; together other things we are the proud home of Flux Gallery and the Cartae Open School. This Artist Run Centre is passionate about the work being produced by contemporary artists and critics in Canada and critics. Many artists are aware of us and are not aware, ladies and daughters.</t>
+          <t>aceartinc. is an Artist-Run Centre located in the Exchange District of Winnipeg, Canada. We were founded in 1983._x000D_
+aceartinc. exhibits 5 major exhibitions a year by contemporary visual artists and we welcome submissions from all emerging contemporary artists and curators working in any media to our annual call for submission each August._x000D_
+The gallery also runs several ongoing projects and hosts numerous one-offs; among other things we are the proud home of Flux Gallery and the Cartae Open School. This Artist Run Centre is passionate about the work being produced by contemporary artists and arts writers and critics in Canada and abroad. Many successful, well known and not so well known Canadian artists have shown work at ace early in their careers- we are an established (but not establishment) part of the unique ecosystem of Canadian contemporary art._x000D_
+Founding members: Donna Jones, Douglas Melnyk, Larry Glawson, Janice Dehod, Gail Noonan, Vern Hume, Pauline See, Lorraine Wright, Gord Arthur, Karen Busby.</t>
         </is>
       </c>
       <c r="L189" t="inlineStr"/>
@@ -26070,7 +26256,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>The Atelier de l’Ile is an artist-run centre that promotes research, experimentation and production in contemporary printing.</t>
+          <t>L’Atelier de l’Île is an artist-run centre that promotes research, experimentation and production in contemporary printmaking.</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -26202,7 +26388,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>The Annapolis Region Council (ARCAC) is a registered organization dedicated to encouraging and promoting the arts. Located in the beautiful Annapolis Valley; a place that artists seem to be naturally drawn to, ARCAC was found in a group of artists in 1982. They started exploring their work and ideas with another community at large. They felt that if they were to study as cultural force, artists should take the practice of art.</t>
+          <t>The Annapolis Region Community Arts Council (ARCAC) is a registered non-profit, charitable, community organization dedicated to encouraging and promoting the arts. Located in the beautiful Annapolis Valley, Nova Scotia; a place that artists seem to be naturally drawn to, ARCAC was founded by a group of artists in 1982. They began meeting in Annapolis Royal to explore ways of sharing their work and ideas with one another and with the community at large. They felt that if art was to survive as living cultural force, artists should take the first step toward demystifying the practice of art.ARCAC has developed a province-wide and national reputation for being able to generate interesting activities and opportunities within the community. Our membership currently comprises over 200 individuals and families who believe that involvement in the arts makes life both rewarding and fun. We run a year round schedule of workshops, classes, concerts,"coffee house" evenings, readings, slide shows, talks and special events. Through our Scholarship Fund, we assist students of all ages who wish to pursue art-related courses of study.ARTsPLACE Artist-run Centre is run by an Exhibitions Committee of the ARCAC Board, comprised 100% of artists, to support and encourage serious artistic endeavours at all levels and of all sorts. Our exhibition schedule has been designed to reflect the role ARCAC plays as intermediary between the contemporary art world out there and the local community. ARTsPLACE is funded in-part by the Canada Council for the Arts, the Province of Nova Scotia and fundraising endeavours.</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -26334,7 +26520,8 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Alberta Printmakers (A/P) is a non-profit, artist-run centre found in 1989 in Calgary, Alberta. The organization’s goals are to increase public awareness of print media, to engage a variety of audiences and to provide resources for the artistic community and production facilities for printing._x000D_A/P has an open membership and is governed by a board of directors. Management and administration of A/P’s activities are the responsibility of its Funding and Communications Director and its Gallery and Studio Director. A/P also hosts a summer student program, as well as a residence program.</t>
+          <t>Alberta Printmakers (A/P) is a non-profit, artist-run centre founded in 1989 in Calgary, Alberta. The organization’s goals are to increase public awareness of print media, to engage a diverse audience and to provide resources for the artistic community and production facilities for printmaking._x000D_
+A/P has an open membership and is governed by a board of directors. Management and administration of A/P’s activities are the responsibility of its Funding and Communications Director and its Gallery and Studio Director. A/P also hosts a summer student program, as well as a residency program.</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -26470,7 +26657,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Founded in 2003, Arnica Artist-Run Centre Society is a non-for-profit gallery that provides a supportive environment for emerging contemporary artists. Arnica received charitable status in 2008 and is part of a Canada-wide network of artists run centres. Arnica provides exhibition space for contemporary art that is dynamic, innovative and thoughtful. It also serves as a space for artists to research and develop new work and helps emerging artists in our city, adding to the cultural mix of Kamloops.</t>
+          <t>Founded in 2003, Arnica Artist-Run Centre Society is a not-for-profit gallery that provides a supportive environment for emerging contemporary artists. Arnica received charitable status in 2008 and is part of a Canada-wide network of artist run centres.Arnica provides exhibition space for contemporary art that is dynamic, innovative and thoughtful. It also serves as a space for artists to research and develop new work and helps emerging artists in our city, adding to the cultural mix of Kamloops.</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -26743,7 +26930,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>AKA supports the creation and development of artist drive initiatives and emerging practices that speak to, reflect and encourage dialogue in our culturally diverse communities. This includes work in all media by local, national and international artists. Our veins consist of a street-level gallery, billboard and multi-use screening and performance event space; we also source off-site locations for site-specific projects. We are commissioned to act as a centre for risk-taking and artistic self-determination produced by a diversity of voices; engage in critical discourses and interviews with related cultural practices.</t>
+          <t>AKA supports the creation and development of artist driven initiatives and emerging practices that speak to, reflect and encourage dialogue in our culturally diverse communities. This includes work in all media by local, national and international artists. Our venues consist of a street-level gallery, billboard and multi-use screening and performance event space; we also source off-site locations for site-specific projects.  We are committed to acting as a centre for risk-taking and artistic self-determination produced by a diversity of voices; engaging in critical discourse and intersections with related cultural practices.</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -26753,7 +26940,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>The Shoesting gallery was found in 1971 by five Saskatoon women: Dorothy Boerma, Lorna Russell, Ann Newdigate, Jo Claire, and Betty Meyers. The gallery was joined by the first in Saskatchewan to prioritize exhibitions representative of the province's First Nations and Ukrainian communities. In 1982, the Shoesting Gallery was accepted as a member of the Association of National Non-profit Artists' Centres changing its name to the A.K. (also known As) Gallery. In 1985 AKA moved to the Saskatoon Warehouse Artspace where it remained for 20 years with The Photographers and Video Verite, (later to become Paved Arts), Tribe Inc. and Blackflash magazine of the</t>
+          <t>The Shoestring gallery was founded in 1971 by five Saskatoon women: Dorothy Boerma, Lorna Russell, Ann Newdigate, Jo Claire, and Betty Meyers. The gallery was among the first in Saskatchewan to prioritize exhibitions representative of the province’s First Nations and Ukrainian communities. In 1982, the Shoestring Gallery was accepted as a member of the Association of National Non-profit Artists’ Centres changing its name to the A.K.A. (Also Known As) Gallery. In 1985 AKA moved to the Saskatoon Warehouse Artspace where it resided for 20 years with The Photographer’s Gallery and Video Verite, (later to become Paved Arts), Tribe Inc. and Blackflash magazine.  In 2008 AKA and Paved Arts opened their doors at their current street-level location, 424 20th Street West in the historic Riversdale district. Riversdale is one of the oldest neighbourhoods in the city and maintains a charged history for many.  The neighbourhood and its diverse communities are now facing rapid gentrification.</t>
         </is>
       </c>
       <c r="L197" t="inlineStr"/>
@@ -26879,18 +27066,22 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>article’s programming aims to promote dialogue, to foster critical thinking and to promote a diversity of practices and experiences in the artistic and social realities. We are open to all disciplines, and present exhibitions and actions-and research-based works. article curated events, such as screenings and forums, to explore specific topics or artistic practices. Our flexible short-term programming, known as Special Projects, answers to the time-sensitive needs and initiatives of artists as they are. This programming channel gives particular attention to “undisciplined” practices and projects that manifest themselves in site-specific contexts and alternative locations. article provides criticisms and tools for us, tools and tools, tools and tools, tools and tools.</t>
+          <t>articule’s programming aims to provoke dialogue, to foster critical thinking and to promote a diversity of practices and experiences in the artistic and social realms. We are open to all disciplines, and present exhibitions and action- and research-based works. articule curates events, such as screenings and forums, to explore specific themes or artistic practices. Our flexible short-term programming, known as Special Projects, answers to the time-sensitive needs and initiatives of artists as they arise. This programming channel pays particular attention to “undisciplined” practices and projects that manifest themselves in site-specific contexts or alternative locations. articule provides critical writings, as well as a program of discussions, conferences and workshops to encourage exchanges between artists and the public. Recognizing the importance of community and knowledge-sharing, we initiate and participate in numerous collaborative projects with other artist-run centres and community organizations. Through our engaging programming, we offer a fertile space for creativity, both to our organization and a diverse public.</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>article was found in 1979 and incorporated as a non-profit organization in 1980 by a group of young artists who wanted to create a place of multidisciplinary presentation focused on research and artistic experimentation. These artists have been together to rent a space on the Montagne Street in Montreal, and shared programming and management. articles became part of, what was called the time, the network of parallel galleries. The organization has consistently moved a few times in the central neighbourhoods of Montreal. Since 2006, it's been occupying a bright space in the cultural and vital Mile End. In 2009-2010, articles celebrated its triity anniversary with amatic programming and events to which contribute_ who contribute to the event.</t>
+          <t xml:space="preserve">articule was founded in 1979 and incorporated as a non-profit organization in 1980 by a group of young artists who wanted to create a place of multidisciplinary presentation focused on research and artistic experimentation. These artists have come together to rent a space on the de la Montagne Street in Montreal, and shared programming and management. articulates became part of, what was called at the time, the network of parallel galleries. The organization has subsequently moved a few times in the central neighborhoods of Montreal. Since 2006, it's been occupying a bright space in the multicultural and lively Mile End. In 2009-2010, articulates celebrated its thirtieth anniversary with a thematic programming and Event Fundraising Who's Who which brought together artists who contributed to the center during its history._x000D_
+ </t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Choreography and Performance (Denmarked) by John Giorno, to travel (Bookmoble) and the VIVA action, and makes a significant contribution to this discipline in the Montreal region.</t>
+          <t>Site-specific choreography and performance (Dena Davida, 1979, Mona Hatoum, 1983) through Fluxus theatre (Geoffrey Hendricks et John Giorno, 1996-97), to travelling interventions (Bookmobile, 2001) and the VIVA! art action (2006 - ), articule supports practices associated with performance art in its broadest terms, and has made a significant contribution to the development of this discipline in the Montréal region.articule’s programming is equally marked by a desire to take art outside of the gallery walls. An agreement established with Montréal retailers has given artists the opportunity to exhibit in store fronts since the early 1980s. This practice continues today with subsequent exhibitions and events being held in apartment buildings, hospitals, retirement homes, theatres, cinemas, parks, and a Salvation Army centre, to name but a few venues._x000D_
+In tandem with its exhibition programme, articule has developed different avenues of activity in response to the needs and trends of the milieu. Examples of note would be the multimedia programming of the 1990s, comprising, for example, the work of Trinh T. Minh-ha, Steve Reinke and Pipilotti Rist; Special Projects, allowing for more site-specific works (1994 onwards); the conservation projects (2000 onwards), such as Hôpital (2001) and Carolee Schneeman’s 2005 exhibition, and the in-house window projects initiated in 2007._x000D_
+An enduring discursive tradition began in articule’s first decade, with the publication of Discussion (1981-1989). With important thematic conferences, publications, and workshops bringing national and international artists together, this space has continued to thrive as a centre for dialogue and knowledge sharing._x000D_
+Since 1979, articule has supported a great number of young artists, offering many a first opportunity to exhibit their work in a professional environment. At the same time, the centre has given the public the opportunity to discover artists of international renown. Among such artists are Marie Chouinard (1979), François Morelli, Stephen Scholfield, (1980-81), Lisa Steele, Pierre Falardeau (1982-83), Bill Vazan, Michael Snow, Chris Burden (1983-84), Martha Rosler (1984-85), Ed Pien (1985-1986), Peter Doig (1989-1990), Robert Houle (1991-1992), Pipilotti Rist (1993-94), John Giorno (1996-97), Dena Davida, (1998-99), Julie-Andrée T. (2000-01), Evergon (2001-02), Gary Neil Kennedy (2003-04), Carolee Schneemann, (2005-06), Kelly Richardson (2007) Nelson Henricks (2008), Aleesa Cohene (2008), Greg Staats (2011) and Carl Trahan (2012).</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -27154,18 +27345,19 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Art Metropole is a non-for-profit organization with a focus on the production, dissimination and contextualization of artist-initiated publication in any media, especially those formats and practices preposted to sharing and circulation.</t>
+          <t>Art Metropole is a not-for-profit organisation with a focus on the production, dissemination and contextualisation of artist-initiated publication in any media, especially those formats and practices predisposed to sharing and circulation.</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Art Metropole was found in 1974 by the artists' collective General Idea as an artist-run centre. Art Metropole is a non-for-profit corporation incorporated under the laws of the province of Ontario and a registered charitable organization.</t>
+          <t>Art Metropole was founded in 1974 by the artists' collective General Idea as an artist-run centre. Art Metropole is a not-for-profit corporation incorporated under the laws of the province of Ontario and a registered charitable organization.</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Further information on the history of Art Metropole can be found in the Art Metropole Collection available online and to the public at the National Gallery of Canada Library as well as on the ArchiveKeeped on this site._x000D_Art Metropole accepts submissions of artists' books, editions and multiples in any media. Please click the link and fill out the form to submit your work for consideration. Submissions are lawful monthly by staff. Due to the high volume of submissions, we are only able to respond to successful applicants. If you have questions about the submissions form or process, please contact@artmetropole.com.</t>
+          <t>Further information on the history of Art Metropole can be found in the Art Metropole Collection available online and to the public at the National Gallery of Canada Library as well as on the Archivemaintained on this site._x000D_
+Art Metropole accepts submissions of artists' books, editions and multiples in any media. Please click the link and fill out the form to submit your work for consideration. Submissions are juried monthly by staff. Due to the high volume of submissions, we are only able to respond to successful applicants. If you have questions about the submissions form or process, please contactinfo@artmetropole.com.</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -27301,7 +27493,8 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Founded in 1982, Artcite Inc. is subwestern Ontario's only incorporated, registered charitable, non-profit artists-centre, founded, directed and managed by practising artists in various disciplines. Dedicated exclusively to expanding the visibility of contemporary arts within our region and advancing the professional presentation, promotion and animation of contemporary art forms, Artificial maintenance and various programs of events, including: ten or more gallery and off-site exhibitions by Canadian and international artists; screenings of experimental film and residences; experimental arts and audio; multi-disciplinary performances of arts and arts; including arts and special arts; arts and crafts; arts and crafts.</t>
+          <t>Founded in 1982, Artcite Inc. is southwestern Ontario’s only incorporated, registered charitable, non-profit artist-run centre, founded, directed and managed by practicing professional artists in various disciplines. Dedicated exclusively to expanding the visibility of contemporary arts within our region and advancing the professional presentation, promotion and animation of contemporary art forms, Artcite maintains a balanced and diverse program of events, including: ten or more gallery and off-site exhibitions and site installations by Canadian and international artists; guest artist lectures, workshops and residencies; screenings of experimental film and video art; experimental music and audio; multi-disciplinary performances and special projects, including our annual, community-wide MayWorks Labour Arts Festival; our biennial, off-site Fahrenheit Festival of fire sculpture and performance; our Free 4 All Walls international street art mural project; our monthly Stitch ‘n’ Bitch and Artist Trading Cards sessions; and public readings by Canadian and international authors and poets._x000D_
+Located in the heart of Windsor’s downtown core (and only three minutes from the greater metropolitan Detroit area), Artcite’s highly visible, partially bisected storefront gallery space is particularly well suited to solo, two-person and group exhibitions, as well as installations that make full use of the gallery space and windows, and are politically or socially engaged.</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -27695,7 +27888,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Presse Paper is an artist-run centre dedicated to contemporary printing. Located in Trois-Riviières, near the St. Lawrence River, the studio offers professional artists a production context driving to research, creation and dissimination. Recognized for its openness, professionalism and the quality of its members’ production, Presse Paper facilities the development of major projects by artists from here and abroad.</t>
+          <t>Presse Papier is an artist-run centre dedicated to contemporary printmaking. Located in Trois-Rivières, near the St. Lawrence River, the studio offers professional artists a production context conducive to research, creation and dissemination. Recognized for its openness, professionalism and the quality of its members’ production, Presse Papier facilitates the development of major projects by artists from here and abroad.</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -27828,18 +28021,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Artspace (born 1974) is Peterborough's artist-run centre, a non-profit organization committed to the presentation of contemporary art and the support of artists. We change in response to the needs of artists, and work to engage and develop audiences. Our programming, though national in scope, is in spirit. By connecting artists to the community and welcoming a wide range of involvement, we continue to attract respected talent from across the country—talentent we are willing to compensate with feet that often exceeded recommended CARFAC rates.</t>
+          <t>ARTSPACE (est. 1974) is Peterborough’s artist-run centre, a non-profit organization committed to the presentation of contemporary art and the support of artists. We change in response to the needs of artists, and work to engage and develop audiences. Our programming, though national in scope, is regional in spirit. By connecting artists to the community and welcoming a broad range of involvement, we continue to attract respected talent from across the country—talent we are proud to compensate with fees that often exceed recommended CARFAC rates.</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Founded in 1974 by a group of dedicated local artists, Artspace differs from many of the artists-run centres that formed in this early period. Artspace was established and maintained by a membership spreader urban centres, rural areas and cities as part of a unique cultural environment within the region. The organization received its non-profit, incorporated, charitable status in July 1977. Since it's found, Artspace has played a role in the development of contemporary Canadian art, creating a space for prominent artists to present their first time._x000D in 2004 the art gallery site was destroyed and destroyed by the major Floods of the century.</t>
+          <t xml:space="preserve">Founded in 1974 by a group of dedicated local artists, Artspace differs from many of the artist-run centres that formed in this early period. Artspace was established and sustained by a membership spread amongst smaller urban centres, rural areas and townships as part of a unique cultural milieu within the region. The organization received its non-profit, incorporated, charitable status in July 1977. Since it’s founding, Artspace has played a profound role in the development of contemporary Canadian art, creating a space for numerous prominent artists to present their work for the first time._x000D_
+In July 2004 the Artspace gallery site was destroyed and its archives badly damaged by a major flood in downtown Peterborough. In September 2006 following several temporary relocations Artspace resettled at its current location at 378 Aylmer Street. With an expanse of floor to ceiling windows the centre maintains a prominent street-front presence in the busy downtown core of Peterborough, where. With additional presentation and workshop spaces the centre’s current location allows for the installation of larger, more ambitious installations of contemporary art, while also providing regional artists with adequate professional workspaces._x000D_
+In November 2014 the centre celebrated its 40th anniversary and marked the occasion with an interactive exhibition, publication, and public celebration titled “I Will Not Grow Old In Peterborough.” In 2016, after ten years at our current site, and after a history of regular relocation, the Artspace negotiated a new, long-term lease that will afford the centre locational stability through 2026. </t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>- To encourage critical investigations by entering exploration in curation, exhibition and performance.- To develop engagement public forums such as readings, panel and symposium presentations; workshops; broadcasts; publications; off-site exhibitions; and virtual projects.- To foster dialogue between contemporary artists from different cultural/political perspectives.- To serve as a versatile resource facility.</t>
+          <t>- To advocate for the rights of artists.- To encourage critical investigations by enabling exploration in curation, exhibition and performance.- To develop engaging public forums such as lectures, panel and symposium presentations; workshops; broadcasts; publications; off-site exhibitions; and virtual projects.- To foster dialogue between contemporary artists from diverse cultural/political perspectives.- To serve as a versatile resource facility.</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -27968,7 +28163,8 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Artspeak was found in 1986 by curator Kate Rimmer, artist Keith Higgins and writer Jeff Derkssen. Our early association with the Kootenay School of Writing served to sit Artspeak within a unique interdisciplinary community of visual artists, writers and critics. Artspeak is operated by artists from the visual and language arts which share concerns in relation to the theory and practice of contemporary art. The mandate of the gallery is to exhibit contemporary art and to encourage a dialogue between visual art and writing. Of particular interest is that crosses the</t>
+          <t>Artspeak was founded in 1986 by curator Cate Rimmer, artist Keith Higgins and writer Jeff Derksen. Our early association with the Kootenay School of Writing served to situate Artspeak within a unique interdisciplinary community of visual artists, writers and critics. Artspeak is operated by artists from the visual and language arts who share concerns in relation to the theory and practice of contemporary art. The mandate of the gallery is to exhibit contemporary art and to encourage a dialogue between visual art and writing. Of particular interest is work that crosses the boundaries between the two disciplines, exploring their common areas of praxis—a distinct aspect of the history of cultural practice in this region._x000D_
+Artspeak has played a significant role in addressing the historical, social and intellectual conditions of contemporary visual and language arts production from the West Coast. We aim to support the practices of emerging and established artists and writers from this region and beyond by providing opportunities to exhibit, publish and present new work to enthusiastic audiences. Artspeak actively contributes to cultural communities through our commitment to artists producing challenging, innovative work in diverse media, our affiliation with like-minded organizations and the public interest we generate in contemporary art.</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -28100,7 +28296,8 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Founded in 1982, the Circulaire Atelier is a centre of artists dedicated to the creation, research, production and dissemination of printed art. Atelier Circulaire supports the work of contemporary artists by encouraging the use of traditional techniques and new technologies.Atelier Circulaire, founded in 1982, is an artist-run centre devoted to creation, research, dissemination and education with a focus on print media. Its mandate is to preserve and teach traditional printing techniques and contemporary print practices._x000D_Atelier Circulaire’s programs and services are generated to both professional and prints for the purposes and printing.</t>
+          <t>Fondé en 1982, l’Atelier Circulaire est un centre d’artistes voué à la création, à la recherche, à la production et à la diffusion en arts imprimés. L’Atelier Circulaire soutient le travail des artistes en estampe contemporaine en encourageant l’emploi des techniques traditionnelles et des nouvelles technologies.Atelier Circulaire, founded in 1982, is an artist-run centre devoted to creation, research, dissemination and education with a focus on print media. Its mandate is to preserve and teach traditional printmaking techniques, while integrating new technologies and contemporary print practices._x000D_
+Atelier Circulaire’s programs and services are geared to both professional artists and the general public. It provides a workspace and specialized equipment for intaglio, lithography, engraving and digital printing. The centre welcomes artists-in-residence, organizes gallery exhibitions and conferences, and offers demonstrations, specialized courses and training in printmaking.</t>
         </is>
       </c>
       <c r="J207" t="inlineStr"/>
@@ -28498,7 +28695,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>GOSWELL ROAD was set-up on the 29th November 2016 by artist duo Ruiz Stephenson (www.ruizstephinson.com) in their workshop. Every six weeks they clear the workshop completely and invite an artist, offering them and exhibition and a publication. They also curate a bouquet of flowers in the entrance, in tandem with the practice of the artist.</t>
+          <t xml:space="preserve">GOSWELL ROAD was set-up on the 29th November 2016 by artist duo Ruiz Stephinson (www.ruizstephinson.com) in their atelier. Every six weeks they clear the atelier completely and invite an artist, offering them an exhibition and a publication. They also curate a bouquet of flowers in the entrance, in tandem with the practice of the artist. </t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -29190,7 +29387,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Over the course of 2012 and 2013, three artists, James Verhille, Fiona Valentine Thomann, Damien Sayer assembly in Berlin, developing a plan to create a gallery artists-run-space where artists could be represented by artists. The format that emerged: group exhibitions of handpicked artists from Berlin and around the world, working together one to create unique landscapes of art. Each exhibition is curated by one or the three of Erasmus foundations, which often works in conjunction with one or all of the artists to contribute to the art. These curators are often active in the exhibitions they could be represented by artists.</t>
+          <t>Over the course of 2012 and 2013, three artists, James Verhille, Fiona Valentine Thomann, Damien Sayer assembled in Berlin, developing a plan to create a gallery artists-run-space where artists could be represented by artists. The format that emerged: group exhibitions of handpicked artists from Berlin and around the world, working together and alongside one another to create unique landscapes of art. Each exhibition is curated by one or the three of Erratum’s founders, who often works in conjunction with one or all of the artists to contribute to the art. These curators are often active participants in the exhibitions they nurture, readily contributing their skill and inspiration to the task at hand. Over the pasts months, Erratum is expanding through a new field of curations, and had opened its doors to shows of artists and curators : Conor O’Rourke &amp; Fiona Valentine ThomannIn 2016, Erratum has created an anagramme label named Maturre, that its main focus is sound experimentation and techno music in the contemporary art field.In July 2017 Erratum was taken over by Dean Annunziata, Franck Rausch, Raphaël-Bachir Osman and Linda Franken. The new team carries on the tradition of the space by creating exhibitions in collaborations with a variety of artists without any restrictions in medium or thematics.</t>
         </is>
       </c>
       <c r="L215" t="inlineStr"/>
@@ -29316,7 +29513,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>3 137 is an artist run space in Athens found by three Greek artists. The space is used as a studio and opens its gates 3 to 4 hours per year to organize exhibitions as well as events such as artist talks, presentations and performances. 3 137 is a meeting point for creation and collaboration. An independent initiative that promotes artistic practices and supports experimental ways of art production, curatorship and presentation.</t>
+          <t>3 137 is an artist run space in Athens founded by three greek artists. The space is used as a studio and opens its gates 3 to 4 times per year to organize exhibitions as also events such as artist talks, presentations and performances. 3 137 is a meeting point for creation and collaboration. An independent initiative that promotes artistic practices and supports experimental ways of art production, curatorship and presentation.</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -30700,7 +30897,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>C5 is a space for visual arts who takes inspiration from "The Holy Theater", second chapter of Peter Brooks's controversial theory "The Empty Space". The author explains that he could have replaced the name Holy Theater of the Invisible-Made-Visible. It's all. This space proves possibilities and attempts that can reveal something out-of-the-normal to the viewer. It offers and experience that comes from the ordinary. Let's imagine that it can replace the sites of sacred long memories, somewhere to live out transcendental. Something is invisible – something looks like the</t>
+          <t>C5 is a space for visual arts who takes inspiration from “The Holy Theatre”, second chapter of Peter Brooks’s controversial theory “The Empty Space”. The author explains that he could have substituted the name Holy Theatre with The Theatre of the Invisible-Made-Visible. It’s all there. This space probes possibilities and tentatives which seem able to reveal something out-of-the-ordinary to the viewer. It offers an experience that overflows from the ordinary. Let’s imagine this to be somewhere that can replace the sites of sacred rituals long since forgotten, somewhere to live out transcendental experiences. Something invisible – something unsayable – must occur here. C5 intends to grant its audience experiences which tear them away from the everyday, all the while placing their feet firmly on the ground. Perceive what is sacred, yet remain anchored. That is the only way for the sacred to remain what it is in essence: never wholly uncovered. This is a slither of light creeping in through a door left ajar.</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -30846,7 +31043,31 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Strategy and Party_D_ The story of Botschaft can be read as follows: In the beginning there was a wish to find crossovers between different disciplines like i.e. art, TV. and every day life, in order to define new contexts. The motivation came from the unsatisfied situation of isolated individualism. As a result of this conflict, the possibility of using technical as well as communication structures._x000D_D was the first event of bots after the</t>
+          <t xml:space="preserve">Strategy and Party_x000D_
+The story of Botschaft can be read as follows: In the beginning there was a wish to find crossovers between different disciplines like i.e. art, science, TV. and every day life, in order to define new contexts. The motivation came from the unsatisfying situation of isolated individualism. As a result of this togetherness, the possibility prospered for the individual to use technical as well as communicative structures._x000D_
+Dromomania 01 was the first event of Botschaft after renovating the squatted 4th floor of the WMF-Building, and "united-party" (3.10.1990; the German reunification date). Artistic reasoning was connected with political interest, the situation in the squatted house, and the reconstruction plans at the nearby Potsdamer Platz (the central place of Berlin). There was a concrete interest for local publicity. To concentrate on the interaction, none of the Botschaft members appeared in public with their own projects. Later a search started to integrate personal interests. Today, work is done by different kinds of group constellations, Botschaft functions as an information pool, work- and thought space. Out of a yearning for continuation of discourse, most of the members stuck on certain themes. Projects ran through different phases and as a consequence it came to differentiation and a more intensive interest. In the best case, these different point of views expanded, broadened the discussion, in the worst case they led to an obstruction of handling._x000D_
+The attempt with Dromomania to bring together different disciplines, regarding a theme, was a model. "Richtig 92" 02 was the further developing of this idea. Border areas were sought, where valuation exists beyond the duality of right and wrong, true and untrue. Various projects and actions emerged from that. The different positions were presented one after the other and successively linked. Although different particles of publicity couldn't be brought together 03 , "richtig 92" reached a wide spectrum of people because of the heterogeneity of the projects._x000D_
+What Botschaft is, has developed out of the continuity of events. The work is less strategic as it seems and it should be understood as an ongoing process. Instead of theoretical farness, rather practical nearness. It has less to do with art, maybe more with cultural work in the broadest way one can define cultural. This means being a place for interdisciplinary work in the center of Berlin as well as offering drinks and functioning as a bar. The local reference is central, the question about the art system rather peripheral. The "Friseur" was opened 1992 to confront events with a bar audience. Film screenings, video projections, music appearances, political lectures and art exhibitions took place. The art system is not strategically exhausted but rather used as any other system 04 . Invitations from the art context are often answered with self representations, which also reflects the actual relationship of Botschaft towards the institutions concerned and art in general._x000D_
+Botschaft is not only known in a local area, but also in a peripheral group inside the European art centers, which means in the periphery of a so called peripheral area of art we reach a certain circle. To agitate local means addressing a wide spectrum of people. To be known by a group at the brink of the international art scene confirms the image of avant-garde in art._x000D_
+The way Botschaft events like i.e. a party functions without strategy has its advantages and justification - one can't arrange "everything" by strategy-. To renounce a systematic and success oriented program creates room for action. In a certain way this is also - let's not call it; strategy - a concept. If i.e. the connection between Botschaft, "Friseur" (the bar) and the WMF-club (the discotheque) is being offensively represented, than just to demonstrate the rooting in different surroundings and to show that Botschaft is not just present in the art system. To concentrate on a group-strategy would have meant to name Dogfilm 05 Botschaft TV, the WMF-club Botschaft CLUB, and all members would have published under this label called Botschaft. Corporate Identity - Multi-Imperium - But it isn't necessary, cause the links are being made anyhow._x000D_
+Considerations of becoming an institution were rejected because of the experience with ABM-jobs 06. Botschaft exists because of content, not by doing administration work. The two years with ABM and the bureaucratic bulk, paralyzed work and partly discussions were repressed. Today some members finance themselves by producing for a (B TV-magazine others by bartending or grants. Nevertheless Botschaft j|| takes over a few assignments other institutions would have to fulfill. Sll The infrastructure takes care of the social background._x000D_
+The reunification, the result of squatting the WMF-Building, and its location in the east part of town, were certainly important for the foundation. The whole physical context influenced the events Botschaft organized. A situation which is changing at the moment. Projects which were bound to a certain time or euphoric start failed because the atmosphere changed._x000D_
+The computer networks are now in a similar situation like the city was shortly after reunification. Something explodes into a vacuum. The webs are growing and free spaces are being created. Although at the moment the impression is spread that quick, swift action is necessary. Therefore, to squat "spaces" again...? The danger exists that the political connotation of these "spaces" will be neglected. We should be aware that what is changing is the form, not the content of the discussion._x000D_
+Botschaft doesn't appear in public as a closed group, propagating a manifest. Ideas are taken up by members and further developed. Authorship is automatically being questioned, without becoming a central theme. The question: What will future practice look like? The pressure to make a statement about the art system is huge. It is annoying when projects don't function freely enough, although they are principally all right._x000D_
+Projects with a more process like character such as i.e. "Beirut/NY/Berlin" or "Museum for Future" 07 stand beside events like "Botschaft Praxis" 08, a combination of three individual works or "IG Farben" 09 , a pragmatically political action. At the "Beirut/NY/Berlin" 10 project the ongoing character becomes clear. In the beginning two separate events were planned, one in Beirut and one in Berlin. However the realization was delayed. Out of that, developed an interest in observing the "non public" phases. A few projects consciously moved in the peripheral art area and use this place not as a springboard for the center but because of the quality of communication there, which isn't present in the center.- The option to work in a small group over 1 or 2 years on a certain theme without giving way to the pressure of the public, could be signified as a "Strategy of Refusal".-"Strategy of Refusal" is too superficial,-It is a "Strategy of Refusal" because there is a "Dictation of Production", The latter means that results have to be delivered and in any case, continuously,-Today the term "product" is differently defined, Information itself is the product. That's why it is necessary to tie strategic alliances, to build up, in a short time, a functioning web where information can be positioned,-Although to justify certain themes, sometimes a change of velocity is useful to slow down in order to delay the moment of publishing. This also means to understand BOTSHAFT as a possible "public space".-It is very convenient to declare the heterogeneity of the group as a fundamental principle. To give the inside communication a priority means excluding other parts of the public which could be an asset for the process,-This has something to do with the fear of "failure"-When the "failing" becomes and stays self-referential it is without doubt counter productive. If, on the other hand the public is integrated after a certain phase, then there exists the possibility that "failure" can release a public discourse._x000D_
+_x000D_
+Anmerkungen_x000D_
+01 In November 1990, the former headquarters of the WMF, a firm mainly manufacturing cutlery and kitchenware, became the spiritual starting point and place for the project "Dromomania - cult and ritual of daily movement-" Botschaft squatted the 4Th. floor of this house for the sake of working space room for events and initiated a project which operated on the intersection of architecture, city planning, art and citizens'initiatves._x000D_
+02 "Richtig 92" was a row of events dealing about the understanding of reality and in a broader sense about "documentation". Excerpt from the press info "In traditional media, but also in disciplines like art or philosophy, under the heading ot such titles as "The Disappearing of Reality", there is a desperate creation of strategies to save "reality". Out of a helplessness confronting the complexity of the phenomenon, very often critic arises against the audio-visual-communication tools and the developing computer technology, which basically questions their use and meaning. By doing so one thing is overlooked. Man without a TV-set already had a problem with reality. The question: Who we are and what happens at the moment? is as old as mankind itself."_x000D_
+03 "Museum fur Geschichte" (Museum of History) and "Fishing for Documents", two "Richtig 92" events, which took place one after the other, had a completely different audience although both events belonged together thematically, and had to be understood as a global statement. With "Museum fur Geschichte" six artists, for the duration of one week each, located a model-archiv. In the spotlight stood cooperation as a means to connect that what was presented and took place before with the actual exhibition. Each exhibition followed a model and took over from the previous exhibitions an excerpt, a souvenir, a fragment. With "Fishing for Documents" video and film makers were invited to do a row of seminars. On two weekends working methods in-between documentary and fictional movies were presented and discussed._x000D_
+04 Example: Row of exhibitions "Dagegen-Dabei" (Against it-in it) January 1995, Kunstverein Hamburg, shows production and strategy of art projects since 1969. Botschaft together with two other groups called "Büro Bert" and "minimal club" will work out a radio programme for 10 days. Temporarily the exhibition space will turn into an office, archive and broadcast studio._x000D_
+05 Since January 1993 Dogfilm (5 persons who are all founding members of Botschaft) continuously work for a political TV-magazine called "Z", once a month which is broadcasted all over Germany on the frequency of RTL. As part of the editing staff Dogfilm has the possibility to practically realize its vision of a reflexive, interdisciplinary videowork._x000D_
+06 1992/93 six ABM jobs (a project financed by the Berlin Senat for unemployed people) at Botschaftwere granted. An equipment pool was designed and the wages of 6 people were divided so that 10 people could work for Botschaft_x000D_
+07 In December 1993 the "Museum for Future" was installed for the first time in the Künstlerhaus Bethanien for the duration of a fortnight. Ideas about future were collected and communicated. The collected material, which was ordered in numerical organizers is at the moment being digitized in order to be accessible through Internet. The structure of the "Museum for Future" is in a state of ongoing process and at the same time subject of discussion._x000D_
+08 Three individual works, "cip", "pacemaker" and "E-SMOG", have been made and shown at BotschaftIn the Shedhalle in Zurich (may 94) these projects were for the first time under the heading of "Botschaft Practice" presented. "Botschaft practice" referred to the aspect of a community as a practical platform of exchange._x000D_
+09 By the example of "IG Farben" (During WW II the world greatest chemical industry, responsible for producing "Zyklon B"), it becomes clear how. a supposedly forgotten sector of German history is confronting us today again with the national-socialistic past. The "IG Farben" shares seem to be a good deal for young brokers. The main issue of the project was therefore to concentrate on the actual situation of "IG Farben", who tries to reclaim buildings in the former east. The 53 real estate objects in Berlin were marked by posters, which gave information about the history of "IG Farben" and what will happen to the buildings in the near future. Simultaneously in the exhibition space of Botschaft, the action as a documentation was presented and at the opening a lecture was given by Hans Frankenthal, who is a member of the "Auschwitz committee" and a former forced laborer at "IG Farben" and over 40 years now actively doing resistance work against this company. At the same time a lot of articles appeared in various newspapers._x000D_
+10 "Beirut/NY/Berlin" is work in progress and has already gone through different phases of work and discussion. This was actually not expected when Jayce Salloum and Walid Raad, participants of "Fishing for Documents", came up with the idea of organizing something like an exchange. During the preparations it became clear that those who wanted to be involved only had access to little information and clichés. No wonder, cause Beirut is being described as "playground of terror", the media constantly spread anti-Arabic propaganda increasingly since the disappearing of the old enemy "communism". After almost two years of communication, misunderstandings, euphoria and skepticism, five members of Botschaft will fly to Beirut for a direct contact with the participants in Beirut._x000D_
+</t>
         </is>
       </c>
       <c r="L227" t="inlineStr"/>
@@ -30974,7 +31195,11 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>'Openspace Bae' is an alternative display space. 'Bae' in the name is a Korean word with manipulation; a pair, a ship or double. The name itself means location of the space in the pair orchard, locality of Busan as a harbor city and promotion(double) of art. The name of the space represents our will to the promotion of contemporary art in the new space. _x000D_The goal of Openspace is to be a path to contemporary art world, which reflects the rapid change of art. _x000D_ By developing a new system of contemporary art, we have to provide the artists with space and chance to exhibit them in specially, and they are designed for thousands of years of years.</t>
+          <t xml:space="preserve">'Openspace Bae' is an alternative exhibition space. 'Bae' in the name is a Korean word with manifold meanings; a pear, a ship or double. The name itself signifies location of the space in the pear orchard, locality of Busan as a harbor city and promotion(double) of art. The name of the space represents our will to the promotion of contemporary art in the new space. _x000D_
+The goal of Openspacebae is to be a path to contemporary art world, which reflects actively and promptly the rapid change of art. _x000D_
+By developing a new system of exhibition and embracing new issues of contemporary art, we aim to provide the artists with space and chance to present their art. Especially, our Artist-in-Residence program will help them to draw a new vision of contemporary art by supporting their artistic imagination and experiments. _x000D_
+Also, our various support programs will create an opportunity to find promising young artists and to invite experimental exhibitions in alternative forms. Basically, we would like to support non-profit projects with an emphasis on artistic experiments or experimental ideas. _x000D_
+Located in the outskirt of the city and surrounded with nature-friendly environment, Openspacebae is a space for those who wish to break away from white cubes and the institutional framework for the sake of true freedom of art. It will be a platform of communication for artists, curators and critics from across the country, where they can exchange substantial information and construct a steady network. </t>
         </is>
       </c>
       <c r="J228" t="inlineStr"/>
@@ -31508,7 +31733,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Sox (formerly sox36) is a non-profit project for contemporary art. It is an alternative showroom in public space, a wine on Oranestrasse in Kreuzberg. The window measures 225 cm in height, 300 cm in length and 60 cm in depth. This space is located on one of the highest shopping and night life streets in Berlin, presents a different 24-hour audience to each event or exhibition, that change every 6-7 weeks and are different in form and content.</t>
+          <t>Sox (formerly sox36) is a non-profit project for contemporary art. It is an alternative showroom in public space, a vitrine on Oranienstrasse in Kreuzberg. The window measures 225 cm in height, 300 cm in length and 60 cm in depth. This space is located on one of the liveliest shopping and night life streets in Berlin, facing a diverse 24 hour audience to each event or exhibition, that change every 6-7 weeks and are diverse in form and content.</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -31884,7 +32109,7 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Bureau Berlin is an informal association of artists originally formed in 1978. The artistic focus and research shiftd from exhibition to works and events in urban locations. There was the determination in answering each question in the form of an immediate artistic experience. A concept of artistic production was developed during this research and published in the form of a manifesto in 1986, "Dick, dynn".</t>
+          <t>Büro Berlin is an unofficial association of artists originally formed in 1978. The artistic focus and research shifted from exhibition to works and events in urban locations. There was the decisiveness in answering each question in the form of an immediate artistic experience. A concept of artistic production was developed during this research and published in the form of a manifesto in 1986, "Dick, dünn".</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -34158,7 +34383,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Founded in 2013, an artist-run-space dedicated to contemporary art and music. Sonnenstube, which literally means “sunny room”, is a term used in the German speaking area of Switzerland to describe the Canton Ticino.It represents a place to relax, peaceful and idyllic. Sonnenstube is the point of view of the passing tourist, of the “balabbit” of the first half of the 20th century, or of the various intellectuals, hippies, and northern artists who were sought for their “other” in Ticino. Fourmore, a book and fantasy shop is regularly presented, where one can buy limited edition art magazines.</t>
+          <t>Founded in 2013, is an artist-run-space dedicated to contemporary art and music. Sonnenstube, which literally means “sunny room”, is a term used in the German speaking area of Switzerland to describe the Canton Ticino.It represents a place to relax, peaceful and idyllic. Sonnenstube is the point of view of the passing tourist, of the “balabiott” of the first half of the 20th century, or of the various intellectuals, hippies, and northern artists who searched for their “elsewhere” in Ticino. Furthermore, a book and fanzine shop is regularly presented, where one can buy limited edition art magazines.</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -34288,7 +34513,8 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Flutgraben e.V. is a non-profit, self-organization, art-association in an approximately 3800 square meters big building management about 50 artists accommodationing more than 80 artists from all over the world., located at the Flutgraben 3, in Berlin. The house also has two common spaces: a project space of 220qm, in which different artificial events take place in use by tens of the house. Both spaces are also available for rent. The non-profit art-association has been found in 1997, which was by that time still called “Kunstfabrik am Flutgraben 3, in Berlin.</t>
+          <t>Flutgraben e.V. is a non-profit, self organising, art-association in an approximately 3800 square meters big building managing about 50 artist studios accommodating more than 80 artists from all over the world, in all disciplines., located at am Flutgraben 3, in Berlin. The house also disposes of two large common spaces: a project space of about 220qm, in which different artistic events take place and a multi purpose hall of equal size in use by tenants of the house. Both spaces are also available for renting.The non-profit art-association has been founded in 1997, which was by that time still called “Kunstfabrik am Flutgraben” which later became “Flutgraben e.V.”, in 2008.Flutgraben is set in what has formerly been a repair workshop for the East Berlin public transport system. At KIB – Kraftfahrzeugsinstandsetzungsbetrieb – trams, trucks and buses were repaired. The building has been a part of the Berlin wall in the separated city. To find out more, read about Grenzläufte e.V at Supporters._x000D_
+Information about previous activities is archived (2011-2015) archiv.flutgraben.org and (2002-2008) kunstfabrik.org .</t>
         </is>
       </c>
       <c r="J253" t="inlineStr"/>
@@ -34557,7 +34783,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Many Mass there is to represent emerging artists with an intense research in contemporary photography.</t>
+          <t>Mucho Mas aim is to represent emergent artists with a intense research in contemporary photography.</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -34695,7 +34921,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>table is a temporary artist-run project space organized by Kyle Bellucci Johanson in the city of Chicago. table hosts artists for only shows and long-form discourseal fairs with invited guests of the artist’s choice. These speechful miles cultivated primary content for texts in a critical publication documenting each artist’s project. table is an experiment in becoming; housed three holdings between so-called discreet categories of subject and object, public and private, individual and collective, to sitite practices and facility critical discourse, building community outside of either institution or market.</t>
+          <t>table is a temporary artist-run project space organized by Kyle Bellucci Johanson in the city of Chicago. table hosts artists for solo shows and long-form discursive meals with invited guests of the artist’s choosing. These discursive meals cultivate primary content for texts in a critical publication documenting each artist’s project. table is an experiment in becoming; inhabiting thresholds between so-called discrete categories of subject and object, public and private, individual and collective, to situate practices and facilitate critical discourse, building community outside of either institution or market.</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -35111,7 +35337,11 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Spai Colona is a project and a work space dedicated to contemporary art, located in the city of Castro, on the large island of Chiloé. The interests of Spain focus on symbiotic relations that take place between territory and people, understanding it from two English: the conceptual relationship linked to landscape and the idea of territory with an origin in the visual arts and the alliance between lands, and the meaning of existence for those incapacitated it._x000D Within this socio-geographical relationship. Spain has always considered work and experimentation to be carried out through love and hospitality, issues that are combined in the fact of living and in Habixing and in respect of the subjects of the</t>
+          <t>Espai Colona is a project and a work space dedicated to contemporary art, located in the city of Castro, on the large island of Chiloé. The interests of Espai Colona focus on symbiotics relationships that take place between territory and people, understanding it from two angles: the contemplative relationship linked to landscape and the idea of territory with an origin in the visual arts and the alliance between territory and the means of subsistence for those who inhabit it._x000D_
+Within this socio-geographical relationship, Espai Colona has always considered work and experimentation to be carried out through affection and hospitality, issues that are combined in the fact of living and inhabiting an specific place in which research is carried out and then the respective exhibitions of the processes and results (understanding the term exhibition in an expanded manner)_x000D_
+--_x000D_
+Espai Colona es un proyecto y espacio dedicado al arte y pensamiento contemporáneo ubicado en la ciudad de Castro, en la isla grande de Chiloé. Los intereses de Espai Colona se centran en la relación simbiótica que se produce entre el territorio y las personas, entendiéndolo desde dos aristas: la relación contemplativa vinculada al paisaje y a la idea de territorio con un origen en las artes visuales y el territorio utilizado como un medio de subsistencia por quienes lo habitan._x000D_
+Dentro de esta relación socio/geográfica, Espai Colona ha considerado siempre que el trabajo debe darse desde los afectos y la hospitalidad, asuntos que se conjugan en el hecho de habitar y vivir el espacio en el que se desarrollan las investigaciones y luego se producen las respectivas exhibiciones de los procesos y resultados. (entendiendo el término exhibición de manera expandida.)</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -35371,14 +35601,24 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>New media society is a project space, archive and Library dedicated to New Media Arts. NMS acting as a host and mediator for several emerging projects across the country, by archiving and facilitating projects related to new media arts, by organizing talks and workshops, publications and events such as presentation, symposiums and exhibitions. Publishing and knowledge production as well as preservation and public will be a key tasks to provide a most needed platform for every media in Iran._x000D Description of the Project (what, where and where.)_x000D is a platform for research and promotion as well as</t>
+          <t>New media society is a project space,archive and Library dedicated to New Media Arts. NMS  acting as a hub and mediator for several emerging project spaces across the country, by archiving and facilitating projects related to new media arts, by organizing talks and workshops, publications and events such as presentation, symposiums and exhibitions. Publishing and knowledge production as well as archiving and preservation and public outreach will its key tasks to provide a most needed platform for ever growing scene of new media in Iran._x000D_
+Description of the Project (what, who, when and where. )_x000D_
+New Media Society is a platform for researching and promoting new media arts in Iran. NMS’s approach will be as inclusive as possible to maximize outreach and to include and initiate cooperation with existing infrastructures and resources within the country and the network of artists and professionals in diaspora._x000D_
+NMS is designed to create an open source archive of New Media as well as a study room/ meeting place for artists, researchers and scholars, and aims to bridge the gap between new media artists and their potential enthusiastic audience._x000D_
+NMS wishes to promote interdisciplinarity and create a context for practices that take place at the intersections between art, science and technology, geared toward video art, sound art, and new media. The society will be acting as a hub and mediator for several emerging project spaces across the country as well as the international scene, by archiving and facilitating projects related to new media arts, and by organizing talks and workshops, publications and events such as presentations, screening, symposiums and exhibitions._x000D_
+Public outreach, knowledge production as well as archiving and preservation will be the society’s key tasks to provide a much needed platform for the ever growing scene of new media in Iran. Another goal of the society is to reverse the one way stream of art and knowledge production leaving Iran and taking residence outside of the county. NMS aims to encourage artists/researchers aboard to share their experiences and expertise with students and artists back home. Despite the absence of academic opportunities inside the country, there is an emerging scene of young artists who are experimenting with new media. One the other hand, because of the same lack of educational infrastructure, there is an increasing number of artists and specialists who move to other (mostly western) countries,for studying, and then in many cases for living. In such circumstances one realizes that there should be a platform that can incorporate the intellectual resources from Iranian artists and professionals from all around the world_x000D_
+We wish to ask for help/support for design and promotion, building audience and the online / offline hub for new media society public artistic and education programs. To invite a team of experts to design the structure and guidelines for the archive, and articulate their finding and through the online bilingual portal. While our project room will be a multi-purpose venue for producing cultural outputs, social awareness and public engagements whining the society, our rotating screening programs and workshops in collaboration with local initiatives will be helping artists and audience outside of center to engage and participate in their cities without the need of coming to Tehran._x000D_
+As aside project we would like to invite international artist and thinkers as temporary residents and workshop instructors to elevate the scene and the quality of the programs.</t>
         </is>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
-          <t>- research and study room facilities such as Wi-Fi connected library and workshop on Media arts, international books, catalogues and artists- Media Archive combining few existing archives in Iran and standardizing the archiving method and making it available as an online index and as offline library on our computers/viewing stations-Online Media Studios in Iran will be a hub for artists, writers, translators and knowledge producers to connect and share ideas, etc. calls and reviews from various domestic and international projects._x000D_Events and activities: mini exhibitions and</t>
+          <t>- Research and study room facilities such as Wi-Fi connected library and workshop space on Media arts, international books, catalogs and artists’ journals- Media Art Archive combining/reorganizing few existing archives in Iran and standardizing the archiving method and making it available as an online index and as offline library on our computers/viewing stations- Online Portal for New Media Studies in Iran will be a hub for artists, scholars, Writers, Translators and Knowledge producers to connect and share ideas, publishing entries, calls and reviews from various domestic and international projects._x000D_
+Events and Activities:_x000D_
+- public presentations Talks, mini exhibitions and workshops on Preservation, practice and theory)- Seminars with international Guests on various New media related topics (Video art, art &amp; technology and sound and interactive) approximate reach 80-100 People including local professionals and international guests- Curatorial platform/Archive of local and international New Media Art_x000D_
+Rotating Weekly screening program- Designing/launching a bilingual online platform for New media Studies and making its archive index available online.- Producing catalogs and readers with each seminar and blog entries mapping activities in Tehran and other emerging scene across Iran. And creating narrative for a possible introduction to New Media Art in Iran.</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -35510,7 +35750,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>A4’s mission is to transform the meanings by which cultural works are produced, accessed, and supported in Ireland, and by doing so to contribute to the development of a more just society.We want to make Art Matters.Our workspace is an extension of this work, intended as a participatory socially engaged arts and education centre in Dublin. Drawing on the best elements from existing artist studies, make spaces, social spaces and education practices both nationally and internationally, we are developing a unique model which both support practitioners’ professional development and effects real social change in response to our needs as citizens and communities, and how we access and participate in arts and education.</t>
+          <t>A4’s mission is to transform the means by which cultural works are produced, accessed, and understood in Ireland, and by doing so to contribute to the development of a more just society. We want to Make Art That Matters.Our workspace is an extension of this work, intended as a participative socially engaged arts and education centre in Dublin. Drawing on the best elements from existing artist studios, maker spaces, social spaces and education practices both nationally and internationally, we are developing a unique model which both supports practitioners’ professional development and effects real social change in response to our needs as citizens and communities, and how we access and participate in arts and education.</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -35646,7 +35886,8 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>A-B Projects is a space for the exhibition of work by artists who are expanding and redefining the field of ceramics. This non-commercial gallery allows artists to push their practices forward by taking personal risks and drawing to exhibit seemingly ineffective work. The ancillary mission of A-B Projects is to use Clay as a conduit to connect and support community. Nicole Seisler found A-B Projects in 2015 in conjunction with her position as Lincoln Visiting Professor of Ceramics at Scripts College in Claremont, CA. In 2018, Nicole relocated the gallery to the Bendix Building in Downtown Los Angeles._x000D_</t>
+          <t xml:space="preserve">A-B Projects is a space for the exhibition of work by artists who are expanding and redefining the field of ceramics. This non-commercial gallery allows artists to push their practices forward by taking personal risks and daring to exhibit seemingly infeasible work. The ancillary mission of A-B Projects is to use clay as a conduit to connect and support community.Nicole Seisler founded A-B Projects in 2015 in conjunction with her position as Lincoln Visiting Professor of Ceramics at Scripps College in Claremont, CA. In 2018, Nicole relocated the gallery to the Bendix Building in downtown Los Angeles._x000D_
+ </t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -35785,7 +36026,9 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Easttopics is a non-profit initiative launched in 2013, led by young art professionals based in Hungary and Serbia and dedicated to the promotion of the Eastern European contemporary art field._x000D_Working as a think tank for the Eastern European art communities, Easttopics is a very interdisciplinary cooperative which is going to draw the Eastern contemporary art field and the international art scene closeer to each other._x000D_ This cross-border project takes form as an online website and database focusing on the following countries: Albania, Belarus, Bosnia and Herzegovina, Bulgaria, Croatia, Czech Republic, Estonia, Lithuania, Greece, Greece, Lithuania, Greece, Greece, Greece.</t>
+          <t>Easttopics is a non-profit initiative launched in 2013, led by young art professionals based in Hungary and Serbia and dedicated to the promotion of the Eastern European contemporary art field._x000D_
+Working as a think tank for the Eastern European art communities, Easttopics is a genuinely interdisciplinary cooperative which goal is to draw the Eastern contemporary art field and the international art scene closer to each other._x000D_
+ This cross-border project takes form as an expanding on-line website and database focusing on the following countries: Albania, Belarus, Bosnia and Herzegovina, Bulgaria, Croatia, Czech Republic, Estonia, Greece, Hungary, Kosovo, Latvia, Lithuania, Macedonia, Moldova, Montenegro, Poland, Romania, Serbia, Slovakia, Slovenia and Ukraine.</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -36063,7 +36306,7 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>LA&gt;&lt;ART is an independent non-profit art space presenting experimental exhibitions and public art initiatives, offering the public access to a new generation of artists and healers, supporting both risk and dialogue, producing new work for new audiences, stimulating the conversation on contemporary art in LA, animation dynamic relations between art, artists and audiences, extending the cultural landscape of LA by supporting calling work and reflecting the diversity of the city.</t>
+          <t>LA&gt;&lt;ART is an independent nonprofit art space presenting experimental exhibitions and public art initiatives, offering the public access to a new generation of artists and curators, supporting both risk and dialogue, producing new work for new audiences, inciting the conversation on contemporary art in LA, animating dynamic relationships between art, artists and audiences, enhancing the cultural landscape of LA by supporting challenging work and reflecting the diversity of the city.</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -36074,7 +36317,7 @@
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
-          <t>RESPONSIBLE FOR EVER-SHIFTING CULTURAL CRIME, LAXART TRADITIONAL CONTEXTS FOR THE EXHIBITION OF CONTEMPORARY AR, ARCHITUTION AND DESIGN.WITH A RENEWED VISITION FOR THE POENTIAL OF INDEPENTIENTAL ART SPACE, LAXAR IS A CENTRAL FOR INTERDISCIPLINARY IDEAS BULT THROUGH PROFOCATION, DIALOGY, AND ENGAGEMENT.LAXART A SPACE FOR THE PRODUCTION AND DISPLORATION OF EXPLORORORORORATION WORK, SUPPORTING PRACTICES OF PRACTICES AND INSTITION AND INDUCTIONS.</t>
+          <t xml:space="preserve">RESPONDING TO LOS ANGELES’ EVER-SHIFTING CULTURAL CLIMATE, LAXART QUESTIONS TRADITIONAL CONTEXTS FOR THE EXHIBITION OF CONTEMPORARY ART, ARCHITECTURE, AND DESIGN.WITH A RENEWED VISION FOR THE POTENTIAL OF INDEPENDENT ART SPACES, LAXART IS A CENTER FOR INTERDISCIPLINARY IDEAS BUILT THROUGH PROVOCATION, DIALOGUE, AND ENGAGEMENT.LAXART OFFERS A SPACE FOR THE PRODUCTION AND DISPLAY OF EXPLORATORY WORK, SUPPORTING ARTISTIC PRACTICE AND CURATORIAL FREEDOM IN LOS ANGELES AND ABROAD.LAXART IS A HUB FOR ARTISTS AND CURATORS BASED ON FLEXIBILITY AND OBLIGATED TO ACCESSIBILITY. IT ADDRESSES THE URGENCY IN CONTEMPORARY CULTURE WHILE ADVOCATING FOR TRANSITION, SPONTANEITY, AND CHANGE. </t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -36341,7 +36584,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Apparatus Projects is an artist-run curatorial and publishing project in found out of a Lincoln Square dying room in Chicago, Illinois. Located between the institutional and domestic, our mission is to develop a critical framework that both rises the level of speech around emerging contemporary artists while developing a pedagogy that is accessible and comfortable for a world public to participate in the discussion. Device focuses primarily on developing conversational two-person exhibitions that seek to develop deeper critical commitments between artists and their work with each exhibition is accompanied with a curator’s essays towards producing critical writing and research about the artists and the work.</t>
+          <t xml:space="preserve">Apparatus Projects is an artist-run curatorial and publishing project in founded out of a Lincoln Square dining room in Chicago, Illinois. Situated between the institutional and domestic, our mission is to develop a critical framework that both raises the level of discourse around emerging contemporary artists while developing a pedagogy that is accessible and comfortable for a wider public to partake in the discussion. Apparatus focuses primarily on developing conversational two-person exhibitions that seek to develop deeper critical engagements between artists and their work with each exhibition is accompanied with a curator’s essay geared towards producing critical writing and research about the artists and the work on view. </t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -36473,7 +36716,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>DAS ESSZIMMER (the dying room) is an artist-run-space intended to differ from main commercial galleries. It was found in October 2011 by Swiss artist Sibylle Feucht. In favour of a wide range of artistic positions the gallery program explicitly renounces a particular conceptual focus. DAS ESSZIMMER is usually present only shows.DAS ESSZIMMER consists of two shows connected by an urban patio. A 35m2space – previously the internal court’s entrance – is located towards Mechenstraße offering a 24-hour view. Another 50 m2 space is located in a form print shop now designed as a part of the owner’s studio.</t>
+          <t>DAS ESSZIMMER ( the dining room) is an artist-run-space intended to differ from mainly commercial galleries. It was founded in October 2011 by Swiss artist Sibylle Feucht. In favour of a broad array of artistic positions the gallery programme explicitely renounces a particular conceptual focus. DAS ESSZIMMER is mainly presenting solo shows.DAS ESSZIMMER consists of two showrooms connected by an urban patio. A 35m²space – previously the inner court´s entrance – is situated towards Mechenstraße offering a 24-hours view. Another 50 m² space is situated in a former print shop now designed as a part of the owner´s studio.</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -37424,7 +37667,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Current Space is an artist-run gallery, studio, and outside performance space, delivering and starting dialogue between artists, activists, performers, designers, curators, and thinkers. Operating since November 2004, we are committed to showing, developing, and broadcasting the reach of artists locally and internationally.</t>
+          <t>Current Space is an artist-run gallery, studio, and outdoor performance space, nourishing an ongoing dialogue between artists, activists, performers, designers, curators, and thinkers. Operating since November 2004, we are committed to showcasing, developing, and broadening the reach of artists locally and internationally.</t>
         </is>
       </c>
       <c r="J276" t="inlineStr"/>
@@ -37705,7 +37948,8 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>It also implemented the use of shared resources and means of diffusion that remained virtually unexplored at that time in Spain. Its hybrid structure was the result of opening up and marching different artistic concepts as well as beyond the traditional limits of the exhibition space, the stage and the laboratory for research and production. Its has been to explore the visual, performance and sound arts, as compared with</t>
+          <t>Espacio P is a benchmark among alternative spaces that are self-organised by artists in Madrid. Launched and directed by the multimedia artist, Pedro Garhel (Tenerife, 1952-2005), it developed collaborative dynamics of research, training and production. It also implemented the use of shared resources and means of diffusion that remained practically unexplored at that time in Spain.Its hybrid structure was the result of opening up and merging different artistic concepts and fields as well as crossing over and beyond the traditional limits of the exhibition space, the stage and the laboratory for research and production. Its aim was to explore the edges between the visual, performance and sound arts, so that different practices and languages were linked, through the sharing of a single space with multiple functions. _x000D_
+Moreover, its programme was inclusive and socially engaging: it was a place where artists created community and art was synonymous with life and with shared experiences and knowledge.Between 1981 and 1997, Espacio P organised all kinds of activities related to performance, photography, installations, visual poetry, postal art, film, video and experimental music, as well as electronic and virtual reality art, at a time when the majority of art galleries and museums were celebrating the resurgence of painting.The remarkable trajectory of the activities of Espacio P is related to several thematic hubs: do-it-yourself culture between fluxus and punk; action art and audiovisual language; the gender question; interventions in the public space; and the transition from the analog era to digital culture. Overall, it aimed to focus attention on artistic practices which were facing up to the challenges of the globalisation of culture, of production and of the markets. In addition, those practices tackled alternatives to the impact of media power by the construction of new spaces as well as individual and collective identities in a period of transition towards the post-industrial society.</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -37832,7 +38076,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>MALA FAMA studies is a meeting point of new and independent ways of making art from different approaches, combining the creativity process and the communication. It is a project originally designed as a home for studies, but not only. We want Mala Fama to be something else, a space for sharing experiences with the different cultural agents with the aim to browser the sense of creation, exhibition and promotion the vibrant art scene developments from Madrid. Our goal is to offer a unique, participatory and functional space that favors the communication between artists, curators, galleryists, collectors, critics, and current society. The main focus of the studio is to offer a new space that creates the communication and works the</t>
+          <t>MALA FAMA estudios is a meeting point of new and independent ways of making art from different approaches, joining the creativity process and the communication. It is a project originally designed as a home for studios, but not only. We want Mala Fama to be something else, a space for sharing experiences among all the different cultural agents with the aim to broader the sense of creation, exhibition and promotion the vibrant art scene developing nowadays from Madrid. Our goal is to offer a singular, participative and functional space that favors the communication between artists, curators, gallerists, collectors, art critics, and of course society. The main focus of the studio is to offer a new space that favors this communication and the realization of events related to the creation and artistic innovation from a participative and functional bet.</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -37970,7 +38214,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>In 2015, in collaboration with Markus Lichti, we created an exhibition space called Rinomina (in Italian renamed, re-named). We found this place with the objective of giving shape to our own artistic practice here in Paris, but most of all, to give other artists the opportunity to create exhibitions there. The name ‘Rinamine’ comes from the Italian expression for renoming file on a computer. It is a transitional verb {consistes of ‘re’ and ‘name’} and means to name again, to rename or change a name; in particular, in the IT world, assign a file or document a different title from the previous one. The fascinating possibility of literal renoming everything else, but to give other artists the opportunity to create exhibitions there. The name ‘Rinus ’ name comes from the name ‘Rinus ’ name’, ‘Rictures’, ‘Rictures of the name’, ‘Rictures’, ‘Rictures of the name’, ‘Ricces’, ‘C’, ‘Ricks’, ‘Runch’, ‘Runch’, ‘Routs’, ‘Routs’, ‘C’s’s’s’s’s’, ‘Runch, ‘Runch’s’s’s’s’, ‘s’, ‘s’, ‘s’, ‘s’, ‘s’, ‘s’, ‘s’, ‘s’, ‘s’, ‘s’, ‘s’, ‘s’, ’, ’, ’, ’, ’, ’, ’, ‘s’, ‘s’, ’, ’, ’, ’ and ‘s’, ’ and’, ‘s’, ’ and ‘s’, ’ and’, ‘s’, ‘s’, ’ ‘s’, ’ ‘s’, ’ ‘s’, ’ and’, ’ and’,’, ’ ‘s’, ’ and’, ’ ‘s's's's's’, ‘s’, ’ and’, ‘s's's's's's's's's's's’,’,’,’,’,’,’,’, ’ and ‘ssssssssssssssss'</t>
+          <t>In 2015, in collaboration with Markus Lichti, we created an exhibition space called Rinomina (in Italian renamed, re-named). We founded this place with the objective of giving shape to our own artistic practice here in Paris, but most of all, to give other artists the opportunity to create exhibitions there. The name ‘Rinomina’ comes from the Italian expression for renaming a file on a computer. It is a transitive verb {consists of ‘re’ and ‘name’} and means to name again, to rename or to change a name ; in particular, in the IT world, assign a file or document a different title from the previous one. The fascinating possibility of literally renaming everything is one of the main inspiration for this exhibition space.Rinomina conceives its programming and curatorial practice as strongly rooted in our own artistic activity. Since its creation, this space has exhibited many artists from the contemporary French and international scene, in a heterogeneous and dynamic program, such as: Felicia Atkinson, Louise Drulhe, Raphaël Bastide, Cécile Bicler, Eric Giraudet de Boudemange, Vanessa Dziuba, Martin Chramosta, Victoire Barbot, Jean-Philippe Breitin, Noemie Vulpian, Dominique Koch, Ambra Pittoni, Thomas Geiger, Claudia de La Torre Ana Navas and many others. Rinomina tries to act coherently in a flexible, conceptual and collaborative process, aiming to maintain a divergent perspective on what an exhibition space can be.About the founderDaniela Baldelli was born 1977 in Asmara, Eritrea. She worked as a fashion designer before completing at the Academy of Fine Arts in Karlsruhe in Germany in 2009. She was recently awarded by the Centre national des art plastiques, but also Landesstipendium Baden-Wuerttemberg, Germany, Cité International des Arts, Paris and Chrisoph Merian Foundation, Switzerland. Her installations and performances has been exhibited in various galleries and institutions in Berlin, Düsseldorf, Copenhagen, Milan and Paris.Markus Lichti was born 1980 in Speyer, Germany. He graduated from his Master at the Academy of Fine Arts in Karlsruhe in Germany in 2010. His work has been exhibited internationally, selected solo and group exhibition includes: Arratia Beer, Berlin; Castillo/corrales, Paris; Couloir, Hamburg; Thomas Dane gallery, London; Été 78, Bruxelles.</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -38104,7 +38348,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>VIDEO DRAMA is Amsterdam based artist's initiative, which makes exhibitions from place to place. It focuses on composition short term art exhibitions, events, developments adapted to choose theme and available space. VIDEO DRAMA enables artists to share their works with the audience and shed light on valuable works (mostly in the field of visual arts). VIDEO DRAMA is travelling art platform and it's concept is to move from place to place and representative artists working in the field of moving picture and beyond.</t>
+          <t>VIDEO DRAMA is Amsterdam based artist's initiative, which makes exhibitions from place to place. It focuses on composing short term art exhibitions, events, happenings adapted to chosen theme and available space. VIDEO DRAMA  enables  artists to share their works with the audience and shed light on valuable works (mostly in the field of visual arts). VIDEO DRAMA is traveling art platform and it's concept is to move from place to place and represent artists working in the field of moving picture and beyond.</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -38242,7 +38486,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Warenlift is a non-profit offspace found in 2020 by Adrian Shär, Fabienne Ehrler &amp; Samir Seghrouchni. Warenlift is located in Zurich Altstetten. Our program focuses on a mix of emerging and established artists from Switzerland and its surrounding area.</t>
+          <t>Warenlift is a non-profit offspace founded in 2020 by Adrian Shär, Fabienne Ehrler &amp; Samir Seghrouchni. Warenlift is located in Zurich Altstetten. Our programme focuses on a mixture of emerging and established artists from Switzerland and its surrounding area.</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -38512,7 +38756,8 @@
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
-          <t>The first presentation of the project was made with a video presented in Salzburg at Salzburger Kunstverein and in Vienna during the Vienna Art Week in October 2009. In this video 0gms radicals the importance of art market. Then 0gms started to develop exhibitions in a driver (ICA Sofia, Cabaret Voltaire Zurich, Gallery Skuj Lubjana).... _x000D_ They also participated in Varna Biennale, organized and exhibition at WhiteSpace in Bangkok, participated in two to Vienna Art Fair (2011 - 2012), Scope Miami (2012) and organized since 2011 many exhibitions in their space in Sofia, Bulgaria.</t>
+          <t>The first presentation of the project was done with a video presented in Salzburg at Salzburger Kunstverein and in Vienna during the Vienna Art Week in October 2009. In this video 0gms ridicules the importance of art market. Then 0gms started to develop exhibitions in a drawer (ICA Sofia, Cabaret Voltaire Zurich, Galerie Skuj Lubjana...)._x000D_
+They participated also in Varna Biennale, organized an exhibition at WhiteSpace in Bangkok, participated twice to Vienna Art Fair (2011 -2012), Contemporary Istambul (2012), Scope Miami (2012) and organize since 2011 many exhibitions in their space in Sofia, Bulgaria.</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -38778,7 +39023,7 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>ηla/Ela projects are run by the artist C.Pradal with the support of artists. ηla/Ela projects is an open space on the last flower of a residential building in Petralona area in the centre of Athens. We usually ask you to contact us for a private visit or for any information about ηla/Ela projects. We report guests that reached the last flower, it's by a star.</t>
+          <t>έλα/Ela projects is run by the artist C.Pradal with the support of artists. έλα/Ela projects is an open space on the last floor of a residential building in Petralona area in the center of Athens. We kindly ask you to contact us for a private visit or for any information about έλα/Ela projects. We inform guests that reach the last floor, it's by a stair.</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -39186,7 +39431,7 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>The Grommet Studio is the name of Jean Dupuy's loft, so named for its location at 537 Broadway. Grommet means “eyelet”, an allusion to the arrangement, dedicated by J. Dupuy, in which the spectator was invited to discover, perchered on chargers, the performances which were given on mezzanines using eyelets arranged on a wide canvas reaching from flower to celing. He inherited that loft in 1976 from his friend George Maciunas (Fluxus theoretical), before the place became the present-day Emily Harvey Foundation.</t>
+          <t>The Grommet Studio is the name of Jean Dupuy’s loft, so named for its location at 537 Broadway. Grommet means “eyelet”, an allusion to the arrangement, devised by J. Dupuy, in which the spectator was invited to discover, perched on ladders, the performances which were given on mezzanines using eyelets arranged on a large canvas reaching from floor to ceiling. He inherited that loft in 1976 from his friend George Maciunas (Fluxus theoretician), before the place became the present-day Emily Harvey Foundation.</t>
         </is>
       </c>
       <c r="J289" t="inlineStr"/>
@@ -39989,7 +40234,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>All Stars is an artist-run space found in 2020. The space is dedicated to organizing exhibitions and contemporary art events as well as promoting Swiss and international artists.</t>
+          <t>All Stars is an artist-run space founded in 2020. The space is dedicated to organizing exhibitions and contemporary art events as well as promoting Swiss and international artists.</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -40675,7 +40920,7 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>In 2016, the past four years we organized more than 22 musical performances, participated in two international arts (in Stockholm and Helsinki) and collaborated with artists, musicians and artists from Eastern Europe to the United States. As a DIY cultural initiative is built on a constant dialogue of artists and healers. Our project is a community-run culture and as such, the values of cooperation are inherent in our structure.</t>
+          <t>MŰTŐ was founded in 2016 in Budapest. In the past four years we organized over 37 exhibitions and more than 22 music performances, participated at two international art fairs for non-profit institutions (in Stockholm and Helsinki) and collaborated with artists, musicians and artist-run galleries from Eastern-Europe to the USA.As a DIY cultural initiative MŰTŐ is built on a constant dialogue across a collective of artists and curators. Our project is a community-run gallery and as such, the values of cooperation and openness are inherent in our structure. The existence of MŰTŐ is not only reliant on the team behind it but also on the support and participation of the local alternative music and art scene. Even before the pandemic, Hungarian cultural politics had been characterised by the refusal of critical contemporary thought and the systematic exclusion of independent, self-organised cultural initiatives from the state-run infrastructure and its funding bodies. The post-pandemic economic crisis only made those tendencies even more apparent, while it also verified the increasingly important role that DIY cultural initiatives have in the local context of contemporary culture and its communities and future possibilities.We’ve been building an international web of long-term collaborative partners whose work is reliant on mutual interest, reciprocal dialogue and creative solutions. In our 2019’s open call we received more than 100 proposals from Hungary and abroad. The half of our yearly program is based on international artist’s proposals. As a joint program we invite local and regional musicians or performance artists. This has grown into organising two international events funded by different grants. An international performance festival – funded by Summa Artium, called Sandbox Festival, where real time efforts collide with virtual ones, where the traditions of performance, happening and action expand and bring about an event where the consumption of art becomes a shared experience. We realize this event with past collaborators and new partners in Spring 2021, in Budapest. In February 2020 we launched the Alterum – Artist-run network in the CEE region, Visegrad Fund project that focuses on non-profit, artist-run galleries as increasingly important platforms in the context of contemporary Central and Eastern Europe.</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -41781,7 +42026,8 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Tilde is a para-Institution for contemporary art and research, presenting projects in several forms and places, both in its space in Amsterdam and working with other areas in the Netherlands. While organizing specific projects and off-site events, whichever unexperimental practices in close collaboration with artists, thinkers, researchers, and the community, Tilder to create connections between local and international, young and older practitioners.</t>
+          <t xml:space="preserve">Tilde is a para-institution for contemporary art and research, presenting projects in several forms and places, both in its space in Amsterdam and collaborating with other spaces in The Netherlands and abroad. While organizing specific projects and off-site events, carefully unfolding experimental practices in close collaboration with artists, thinkers, writers, researchers, and the community, Tilde aims to create connections between local and international, young and older practitioners. Tilde promotes interdisciplinary dialogues and encourages involvement with other non–profit spaces, as well as institutional and educational systems nationally and internationally.It is run by artist and curator Diego Diez, who was previously co-directing the Amsterdam project space Plat- (2017-2019) and organizing group exhibitions such as Lockers (2017, 2019). After co-directing Plat- for two years I decided to work on my own and I founded Tilde as a some sort of next step of Plat-. Tilde aims to be able to reshape itself for the needs of the artists it works with, not being tied to a set of walls and lights, but with the possibility to offer to the artists what they might be looking for at that time of their careers.Since its start in October 2019 Tilde has created a line where works by stablished artists such as Francisco de Goya y Lucientes, Laure Prouvost or Moyra Davey are shown next to younger artists such as Vincent Verhoef, Maria Nolla Mateos or Sara Milio, a.o.. Another characteristic of the space is the intention to put in context the work of artists working in Amsterdam with international artist, allowing both parts to discover different contexts within a similar approach to art making. Mostly presenting duo or small group shows the aim of the project is to offer a space for conversation between different generations and points of departure, with a public presentation understood as an exhibition but with an important part behind the scenes, where the artists discuss and share their knowledge and methodologies. Relationships make up an important part of the shows at Tilde, especially as it is based in my apartment: the artists usually stay there for a week for set up. This means the conversations about the show happen more informally, like when cooking breakfast. While theoretically grounded, my approach to curating is based more on direct relationships with artists, proximity, friendship and the processual development of exhibitions, rather than working on a thematic base._x000D_
+ </t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -41917,7 +42163,9 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>As Corridor Project Space we are an independent and interdisciplinary contemporary art initiative in Amsterdam. We believe in the importance of experimental art practices which focus on the creation of new content that are off grid from the institutional and commercial circles. There we initiate projects where artists, writers, curators, activists and therapists can meet. Together they can think and work on projects with the aim to blind their practices and cultures. We want to make it possible for artists to work together new and expanding potential accountants. Our belief is that it is necessary to give the artists, collaborators and visitors a knowledge of both artists, writers and artists where they are and their expresses.</t>
+          <t>As Corridor Project Space we are an independent and interdisciplinary contemporary art initiative in Amsterdam. We believe in the importance of experimental art practices which focus on the creation of new content that are off grid from the institutional and commercial circles. Therefore we initiate projects where artists, writers, curators, activists and theorists can meet. Together they can think and work on projects with the aim to blend their practices and cultures. We want to make it possible for artists to work together creating new projects and expanding towards potential encounters. Our belief is that it is necessary to give the artists, collaborators and visitors a safe space where they can express their own concerns, expectations and hopes._x000D_
+What identifies our initiative is that together with creating space for duo and collective art exhibitions; we also organize dinners, talks, screenings and lectures that make space for conversation and new interactions. The social aspect of our events make it possible for an international working platform where artists, writers and mediators from Dutch arts and international hubs get to know each other._x000D_
+Inclusivity is one of our main focusing points. We do so by including in our collaborations art professionals from all nations, genders, abilities and career stages. Not only do we include a variety of collaborators, but we also convey an openness where artists and curators may propose to make use of the space by their own initiation. Our team itself is composed internationally and we have special connection with artists based in Turkey. This inclusivity goes beyond the artists and professionals we work with, and applies also to the audience and visitors we want to attract. In our public communications, we convey a receptive language. We intentionally seek a variety of artistic perspectives and critical approaches. We create an annual program and draw curatorial directions while leaving the development of each exhibition experimental and flexible. During the making of each project we create a smooth dialogue between the collaborators and support them as much as we can practically, intellectually, economically and emotionally.</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -42617,7 +42865,7 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>NICC [New International Cultural Center] creates spaces for interaction between visual artists, institutions and society, with specific attention to the position of the visual artist, on a local, regional and international level.NIC plays an active role in the support and self-realization of the professional visual artist. Its aim is to function as first contact and representative for visual artists, streaming for a qualitative social framework encouraging the visual artist to develop his/her practice in a professional and autonomous way.</t>
+          <t>NICC [New International Cultural Center] creates spaces for interaction between visual artists, institutions and society, with specific attention to the position of the visual artist, on a local, regional and international level.NICC plays an active role in the support and self-realisation of the professional visual artist. Its aim is to function as first contact and representatives for visual artists, striving for a qualitative social framework enabling the visual artist to develop his/her practice in a professional and autonomous way.</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -42627,7 +42875,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>The International Cultural Centre (ICC) in Antwerp was founded in 1970 and was the first public institution for contemporary art in Flanders. During the 70s and early 80s the organization contributed significantly to the stimulation and dissemination of the Belgian and international front. The closing down of the ICC (1998) resulted in the occupation of its building by the group ‘Hit&amp;Run’, which resulted in the establishment of the NICC.From 1998 to 2002 the NICC was run by artists such as Luc Tuymans, Guillaume Bijl and Danny Devos. In addition to the exhibition program, the NICC was committed to the development of the visual artists. From 2002 to 2006, the NICC focused on social policy. Three new organizations were founded by the</t>
+          <t>The International Cultural Centre (ICC) in Antwerp was founded in 1970 and was the first public institution for contemporary art in Flanders. During the 70s and early 80s the organization contributed significantly to the stimulation and dissemination of the Belgian and international avant-garde. The shutting down of the ICC (1998) resulted in the occupation of its building by the group ‘Hit&amp;Run’, this resulted in the establishment of the NICC.From 1998 to 2002 the NICC was run by artists such as Luc Tuymans, Guillaume Bijl and Danny Devos. In addition to an exhibition program, the NICC was committed to the advocacy of visual artists. From 2002 to 2006, the NICC focused on social policy. Three new non-profit organisations were founded by people who had previously worked at the NICC: Extra City, Objectif Exhibitions, and Air Antwerpen. Indirectly, the BAM and Kunstenloket support centres were also established at the request of the NICC.From 2008 to 2012 the NICC was managed by a new group of artists. Despite the limited budget , a rich, public program was developed in Antwerp’s Tulpstraat.In 2013, the NICC moved to Brussels to further develop its supra-local operations and influence. From this location, the NICC Vitrine, a diverse program of artist talks and vitrine presentations was realized with local and international artists such as Dennis Tyfus, Sammy Baloji, Shana Moulton, etc. Ahead of the 20 year anniversary, NICC returned to Antwerp South in 2017.  In 2018, NICC presented two large-scale projects: OPEN STUDIO’S 2018 and 20 YEARS NICC (view the powerpoint of 20 YEARS NICC here). With OPEN STUDIO’S NICC wanted to focus attention on the need for affordable workspaces and cultural usage of vacant space, from this grew the initiative to bring all Flemish studio organizations together in the UFO platform. In the summer of 2019, NICC organized a debate in collaboration with De Nor on the sense and nonsense of the artist status for visual artists. At the M HKA, NICC reacted to the policy plan and announced cuts in a visual way with Without Artists No Art (2020). In the summer of 2020, NICC became part of the Artists Coalition. During the period of 2018-2021, the NICC also maintained a constant conversation with advice and critiques to the Cabinet and the administration of the Department of Culture. The NICC also spent 1.5 years as a partner establishing the correct pay framework “right is right” and the federal holistic reform of the socioeconomic status of the Artist, Working in the Arts (WITA).Anno 2023, the NICC continues to question the realization of the above-mentioned trajectories in daily practice and wants to know how we can continue to stimulate dialogue between governments, support structures and interest groups in order to strengthen the position of the artist in a sustainable way.</t>
         </is>
       </c>
       <c r="L314" t="inlineStr"/>
@@ -42899,7 +43147,7 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Fashion Fashion, which name comes from “fassion” in English, Chinese, Spanish and Russian, colloquially referred to as Fashion Mode, started as a cultural concept guided by the idea that art can be made by anyone, anywhere. Fashion Mode was an art space located in the South Bronx, New York found by Stefan Ones in 1978. As a museum of science, art, invention, technology, and fantasy, it was an alternative art space that combined aspects of a community arts centre and a global progressive art organization until its closure in 1993.</t>
+          <t>Fashion 时髦 Moda МОДА, whose name comes from “fashion” in English, Chinese, Spanish and Russian, colloquially referred to as Fashion Moda, started as a cultural concept guided by the idea that art can be made by anyone, anywhere. Fashion Moda was an art space located in the South Bronx, New York founded by Stefan Eins in 1978. As a museum of science, art, invention, technology, and fantasy, it was an alternative art space that combined aspects of a community arts center and a worldwide progressive arts organization until its closing in 1993.</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -42909,7 +43157,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Fashion was found by Stephen Ins after his previous project, the 3 Mercer Store. It was so joined by artist, poet and William Scott, and native year-old as co-directors. The gallery was located in the South Bronx, outside the traditional art district which was emerging at the time. Despite this, fashion quickly became a voice in the New York art world during the late 1970s and 1980s.</t>
+          <t>Fashion Moda was an art space founded by Stephen Eins in 1978 after closing his previous project, the 3 Mercer Store. Eins was soon joined by artist, poet and musician, Joe Lewis and William Scott, a nineteen year-old from the neighborhood as co-directors. The gallery was located in the South Bronx, outside the traditional art gallery district which was emerging in Soho at the time. Despite this, Fashion Moda quickly became a strong voice in the New York art world during the late 1970s and the 1980s. The venue provided a platform for exchanges between downtown Manhattan artists, graffiti writers, and Bronx residents. The space encouraged the production of creative art, unhampered by the contemporary art market and academic art training. As such, it was a center for many downtown and local South Bronx artists, writers, and performance artists to workshop their ideas and first display their works. Fashion Moda received funding annually with grants from the National Endowment for the Art and the New York State Council of the Arts. In addition to art shows, the space held auctions, performances, seminars, and other events.With the South Bronx location, Fashion Moda was closely tied to the global emergence of Hip Hop. Wild Style, a documentary by Charlie Ahearn on the manifesto of hip hop used Fashion Moda as studio and subject. Exhibitions and events were usually accompanied by musical performances including those from talents ranging from Afrika Bambaataa or Rammellzee to jazz musicians such as Jerome Cooper and Rasul Siddik.Fashion Moda played a major role in legitimizing graffiti as an art form by presenting one of the first graffiti gallery exhibitions in October 1980. Curated by the 19-year-old John “Crash” Matos, the Graffiti Art Success for America show featured artists such as Fab 5 Freddy, Futura 2000, Lady Pink, and Lee Quinones. It was one of the first spaces to allow artists to paint directly on the walls and facade of the gallery. This influential show opened up new possibilities for the art form by allowing street artists to connect with critics, collectors, and curators.Fashion Moda introduced and exhibited a wide range of artists. Fashion Moda facilitated many exhibitions and collaborations between artists. John Ahearn and Rigoberto Torres utilized Fashion Moda as a meeting place and collaborated to create life casts of Bronx locals which were exhibited in the South Bronx Hall of Fame show.In addition to highlighting new talent, Fashion Moda was a major force in establishing new venues. In 1980, Fashion Moda collaborated with the downtown progressive artist collective, Colab (Collaborative Projects Inc.), on The Times Square Show, which introduced uptown graffiti-related art to the downtown art and punk scenes. Set up in an abandoned massage parlor in Manhattan's Times Square, the Times Square Show included a mock store, performances, graffiti, a punching bag, peep shows, protest actions, and parodic manifestos. The goal of this shows was to legitimize an art form outside of the traditional art scene and exhibit it to the mainstream art world.In 1982, Fashion Moda was invited to participate in Documenta 7, a quinquennial contemporary art exhibition held in Kassel, Germany. At this event, a store was set up like the Time Square Show where shirts, prints, and novelty items from participating artists could be bought. A video lounge was also set up so that artists’ videos could be watched and purchased. The exhibition reflected the idea of art as a commodity and its power to spread social messages.Joe Lewis left Fashion Moda in 1982, but it continued a program of exhibitions until its official closing in 1993.</t>
         </is>
       </c>
       <c r="L316" t="inlineStr"/>
@@ -43612,13 +43860,15 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Founded in 1972 in Downtown Manhattan, Artists Space entrepreneurs the artistic and cultural life of New York City as a primary coming for artists' work in all forms. An affinity with emerging ideas and artists is central to our institution, as is attention to the social and intellectual matters which active information artistic practice. We strive for exemplary conditions in which to produce, experience, and support art, to be a place of critical discourse and education, and to advocate for the capacity of artistic work to significantly define and reflect our understanding of ourselves.</t>
+          <t>Founded in 1972 in downtown Manhattan, Artists Space fosters the artistic and cultural life of New York City as a primary venue for artists' work in all forms. An affinity with emerging ideas and artists is central to our institution, as is attentiveness to the social and intellectual concerns which actively inform artistic practice. We strive for exemplary conditions in which to produce, experience, and understand art, to be a locus of critical discourse and education, and to advocate for the capacity of artistic work to significantly define and reflect our understanding of ourselves.</t>
         </is>
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Artists Space was founded in 1972 by art administrator Trudie Grace and critical Irving Sandler as a pilot project for the New York State Council (NYSCA), with the goal of assistance and presentation of artists. Artists Space quickly became a leading organization in the bottom alternative arts scene in New York, which also included bourgeoises such as the 112th Workshop, and the Institute for Art and Urban Resources (which became P.S. 1 Contemporary Art Center)._x000D_ During its first years, all of Artists Space' exhibitions were organised by artists and works of other artists.</t>
+          <t>Artists Space was founded in 1972 by arts administrator Trudie Grace and critic Irving Sandler as a pilot project for the New York State Council on the Arts (NYSCA), with the goal of assisting and presenting emerging and unaffiliated artists. Artists Space quickly became a leading organization in the downtown alternative arts scene in New York, which also included burgeoning institutions such as the 112 Workshop (later renamed White Columns), and the Institute for Art and Urban Resources (which became P.S. 1 Contemporary Art Center)._x000D_
+During its first years, all of Artists Space's exhibitions were organized by artists presenting the work of other artists. Other early efforts to engage and help artists included the Emergency Materials Fund, which assisted artists with the presentation of their work at an established nonprofit venue, and the Independent Exhibitions Program, which supported the needs of artists who were involved in the production and presentation of work outside the context of an existing institutional structure. Through the decades, Artists Space has adapted to the shifting needs and concerns of artists and audiences in and outside of New York._x000D_
+Artists Space has been the site of provocative discussion and experimentation within contemporary artistic debate, from the postmodern image (Douglas Crimp’s Pictures, 1977) to identity politics (Adrian Piper’s It’s Just Art, 1981), to institutional critique (Michael Asher’s Untitled, 1988) to the AIDS Crisis (Nan Goldin’s Witnesses: Against our Vanishing, 1989), and Artists Space has introduced countless artists to a wider public, amongst them Joan Jonas, Cindy Sherman, Jeff Koons, Sherrie Levine, Louise Lawler, Laurie Anderson, Barbara Bloom, John Miller, John Baldessari, Jack Smith, Andrea Fraser, Haim Steinbach, Tim Rollins, Lyle Ashton Harris, Ashley Bickerton, Peter Halley, Lari Pittman, Group Material, Stuart Sherman, Barbara Kruger, Laurie Simmons, Anthony McCall, Fred Wilson, Felix Gonzalez-Torres, Mike Kelley, Judith Barry, Michael Smith, Robert Longo, Jenny Holzer, Pope.L, Hito Steyerl, Danh Vo, and Cameron Rowland.</t>
         </is>
       </c>
       <c r="L321" t="inlineStr"/>
@@ -44026,7 +44276,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Founded in 1972 by Allan Heiss, the Clocktower Gallery is an alternative art space for exhibitions, performances, long term and site-specific installations, and artist residences. Located on the 13th floor of a City-owned building at 108 Leonard St. in Tribeca, the Clocktower Gallery presents a full calendar of exhibitions, live performances, events and settlements by emerging and established artists of cross disciplines. The galleries are open Tuesday-Friday from 12-5pm, with events multiple events a month. All Clock programs are all-ages, and free to the public. The Clock Gallery's radio station operating at www.artonAir.org is free and</t>
+          <t>Founded in 1972 by Alanna Heiss, the Clocktower Gallery is a legendary alternative art space for exhibitions, performances, long-term and site-specific installations, and artist residencies. Located on the 13th floor of a City-owned building at 108 Leonard St. in Tribeca, the Clocktower Gallery presents a full calendar of exhibitions, live performances, events and residencies by emerging and established artists of across disciplines. The galleries are open Tuesday-Friday from 12-5pm, with events multiple evenings a month. All Clocktower programs are all-ages, and free to the public. The Clocktower Gallery's radio station operating at www.ARTonAIR.org is a free and searchable online cultural audio archive with 6,000+ hours of diverse, indexed content, including recordings of all Clocktower events. An unduplicated collection in any media, listen online to non-commercial &amp; experimental music, audio art, spoken word, cultural news, new media innovation, and restored historic audio.</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -44036,7 +44286,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Over its 40-year history, the Clocktower has presented formal work by some of the most important artists of our time, including Gordon Matta-Clark, Vito Aconci, and David Tudor with many others. Today, the Clock shows a full program of exhibitions, performances, and residences that honor the spirit of the alternative space movement on experimental, interdisciplinary, and intergenerational projects.Allan Heispes, and the Clock Gallery, is a leader of the early 1970's movement in New York City, beginning with the Brooklyn Bridge, a 1971 exhibition with New York and New Year.</t>
+          <t>Over its 40-year history, the Clocktower Gallery has presented formative work by some of the most important artists of our time, including Gordon Matta-Clark, Lynda Benglis, Vito Acconci, Laurie Anderson, and David Tudor among many others. Today, the Clocktower presents a full program of exhibitions, performances, and residencies that honor the spirit of the alternative spaces movement by focusing on experimental, interdisciplinary, and intergenerational projects.Alanna Heiss, Director of ARTonAIR.org and the Clocktower Gallery, is a leader of the early 1970's alternative spaces movement in New York City, beginning with Under the Brooklyn Bridge, a 1971 outdoor exhibition she organized with Gordon Matta-Clark, and featuring installations by pioneering American and European artists. She founded the legendary Clocktower Gallery in 1972, founded P.S.1 Contemporary Art Center in 1976, and was its Director until 2008. Heiss has organized over 700 exhibitions at P.S.1 and in art spaces around the world, including the inaugural P.S.1 exhibition Rooms (1976); New York, New Wave (1981); Stalin's Choice: Soviet Socialist Realism, 1932-1956 (1993); Greater New York (2000 and 2005, selecting curator), and Arctic Hysteria (2008); as well as solo shows including Robert Grosvenor (1976); Keith Sonnier (1983); Alex Katz: Under the Stars, American Landscapes 1951-1995 (1998); John Wesley: Paintings 1961-2000 (2000), and Gino De Dominicis (2008), among numerous.</t>
         </is>
       </c>
       <c r="L324" t="inlineStr"/>
@@ -44168,7 +44418,7 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Art House has been conceived as a meeting point where the house, a place where people can share intimate time and space, meets the experience of art, as a human need to shape and to craft personal experiences.This place aims to be a center where the family will open up to the community of this small town allowing it to grow from the contributions and interactions with the international art world; allowing for an enriching exchange value to a close and friendly relationship between participants.To us, art is not a decorative ornament on the walls of a luxurious villa or in corridors of power, but a space where creative visions and a vital taking form is concerned, which is not an art here</t>
+          <t>Art House has been conceived as a meeting point where the house, a place where people can share intimate time and space, meets the experience of art, as a human need to shape and to articulate personal experiences.This place aims to be a center where the family will open up to the community of this small town allowing it to grow from the contributions and interactions with the international art world; permitting for an enriching exchange emphasizing and giving value to a close and friendly relationship between participants.To us, art is not a decorative ornament on the walls of a luxurious villa or in corridors of power, but a space where creative visions and a vital thinking take form. Art House is not a temple where art is venerated, but a laboratory where art is always questioned. This is why we hope this place will be transformed into an art think tank where culture is not a mere accumulation of books, but a vital human experience.</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -44310,7 +44560,13 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Franklin Furnace was founded in 1976 to serve artists who are publishing as a primary, "democratic" artistic medium, and were not supported by existing artistic organisations. From its inception, Franklin Furnace's energies have been focused on three aspects of "time-based" programming: A collection of artists' books; a performance art program for emerging artists; and exhibitions of time-based artists, both site-specific works by contemporary artists, and historical and contemporary exhibitions of arts' other time-based, ephemeral arts._x000Dring the last 20 years, Franklin Furnance has won a national and international reputation for the</t>
+          <t>Franklin Furnace was founded in 1976 to serve artists who chose publishing as a primary,"democratic" artistic medium, and were not being supported by existing artistic organizations. From its inception, Franklin Furnace's energies have been focused on three aspects of "time-based" programming: A collection of artists' books; a performance art program for emerging artists; and exhibitions of time-based arts, both site-specific works by contemporary artists, and historical and contemporary exhibitions of artists' books and other time-based, ephemeral arts._x000D_
+During the last 20 years, Franklin Furnace has gained a national and international reputation for identifying artists who have changed the terms by which contemporary art is discussed; mounting scholarly exhibitions that have embodied the history of 20th Century avant-garde activity; and standing up for the right of the artists to freedom of expression as guaranteed under the First Amendment._x000D_
+Among those artists who were given the opportunity to mount their first New York shows at Franklin Furnace are Ida Applebroog, Guillaume Bijl, Dara Birnbaum, Willie Cole, James Coleman, Jenny Holzer, Tehching Hsieh, Barbara Kruger, Matt Mullican, Shirin Neshat, and Krysztof Wodiczko; while among the performers who got their start here are Eric Bogosian, David Cale, Guillermo Gomez-Pena, Karen Finley, Robbie McCauley, Theodora Skipitares, Michael Smith, and Paul Zaloom. Additionally, Franklin Furnace's performance art program has enabled more established artists like Vito Acconci, Laurie Anderson, Jennifer Bartlett, Lee Breuer, Richard Foreman, Joan Jonas, William Pope.L, and William Wegman to experiment in ways that would be inappropriate for mainstream venues that attract larger audiences. Franklin Furnace's exhibition program has included many historically notable exhibitions of time-based art of an ephemeral nature -- exhibitions on Cubist books and prints, for example, on Fluxus, or Russian Samizdat art -- critically celebrated exhibitions that have contributed to art historical scholarship._x000D_
+In November, 1993, Franklin Furnace and the Museum of Modern Art signed an agreement to merge Franklin Furnace's collection of artists' books published internationally after 1960, the largest repository of this nature in the United States, with that of MOMA, forming a resource of unparalleled value: the Museum of Modern Art/Franklin Furnace/Artist Book Collection._x000D_
+Franklin Furnace's basement performance space was closed by the New York City Fire Department in 1990 in response to an anonymous caller, and since that time Franklin Furnace has been presenting performance art to new audiences throughout the City by developing strategic partnerships with institutions great and small, from The New School for Social Research to Dixon Place. From 1998-1999, Franklin Furnace presented new temporal art to worldwide audiences through a collaboration with Pseudo Programs, Inc._x000D_
+In 1996-1997, during its 20th anniversary season, Franklin Furnace reinvented itself as a virtual institution, not identified with its real estate but rather with its resources, made accessible by electronic and other means. No longer providing a venue for performance art projects, the organization concentrated on awarding grants to artists via the Franklin Furnace Fund for Performance Art and the Future of the Present programs. In the spring of 2008, Franklin Furnace combined the Franklin Furnace Fund for Performance Art and the Future of the Present programs into one, entitled the Franklin Furnace Fund._x000D_
+In December, 2014, Franklin Furnace relocated to Pratt Institutes Brooklyn campus under an organization-in-residence agreement. The decision to "nest" within Pratt Institute coincided with their announcement of a new Master of Fine Arts program in performance and performance studies.</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -44450,7 +44706,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>The Mothership is an artist-led project by Yto Barrada creating space and time for research, artistic exploration, and retreat, inspired by natural dikes. Based in Tangier, the project is perceived as a 'eco-campus' for growing, making, and learning natural dies and indigenous traditions, and a place for experimental collective artistic practice through art settlements and workshops. The Mothership will be “a place to conjure pan-African eco-feminist practices into being”.</t>
+          <t>The Mothership is an artist-led project by Yto Barrada creating space and time for research, artistic exploration, and retreat, inspired by natural dyes. Based in Tangier, the project is envisioned as an ‘eco-campus’ for growing, making, and learning natural dyes and indigenous traditions, and a place for experimental collective artistic practice through art residencies and workshops. The Mothership will be “a place to conjure pan-African eco-feminist practices into being”.</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -44460,12 +44716,13 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Founder Yto Barrada grew up in her parents' home adjacent to the wilder lands which now house the Mothership; in 2003 she moved with her family to live in the Gardener's House, and now share her time between New York and Tangier. Since then a growing circle of collaborators and friends have joined her efforts to help inspiration and manifest The Mothership's Natural Dye Garden, residence and education programs.</t>
+          <t>Founder Yto Barrada grew up in her parent's home adjacent to the wilder lands which now house the Mothership; in 2003 she moved with her family to live in the Gardener’s House, and now share her time between New York and Tangier. Since then a growing circle of collaborators and friends have joined her efforts to help envision and manifest The Mothership’s Natural Dye Garden, residency and education programs.</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>The Mothership education program organises its teaching around 5 steps of colour research. In the first step, we identify the plants, in the second we move or source the plants, in the third we extract the die, in the fourth, we transform the day into different media, and in the final step, we apply the die to textiles and other materials._x000D_These five steps are circular, it is a process that repeats itself. Students can intervene in a single step, or through the entire process, as relevant to their needs and practices. Classes and workshops focused on natural dieting and other textiles, sustainable planting, and land management, are organised and facilitated by the Mothership to produce materials and other materials in</t>
+          <t>The Mothership education program organizes its pedagogy around 5 steps of color research. In the first step, we identify the plants, in the second we forage or source the plants, in the third we extract the dyes, in the fourth, we transform the dye into various media, and in the final step, we apply the dyes to textiles and other materials._x000D_
+These five steps are circular, it is a process that repeats itself. Students can intervene in a single step, or go through the entire process, as relevant to their needs and practice. Classes and workshops focused on natural dyeing and other textile techniques, sustainable planting, and land management, are organized and facilitated by the Mothership as an effort to bring awareness to the need to preserve traditional practices and encourage artists to explore these techniques and materials in their work. This educational programming is offered in different formats and taught by local and international expert artists throughout the year. Scholarships to local students will be available.</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -44596,7 +44853,7 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>The Not Gallery is a Tbilisi-based contemporary art gallery dedicated to supporting and promoting young Georgian artists. Founded in 2018, by friends and fellow collages artist Gvantsa Jishkarani and curator Ellen Kapanadze, the gallery was first conceived as an experimental not-for-profit project space that was created in an underground passageway as its first location.Dedicated to challenge the accepted standards and conventions, the gallery moved to its first permanent space in 2020 and started working on larger exhibitions. So it established itself on the Georgian arts scene as the inventions, provided full support for the arts and crafts of them.</t>
+          <t>The Why Not Gallery is a Tbilisi-based contemporary art gallery dedicated to supporting and promoting young Georgian artists. Founded in 2018, by friends and fellow colleagues artist Gvantsa Jishkariani and curator Ellen Kapanadze, the gallery was first conceived as an experimental not-for-profit project space that chose a vitrine in an underground passageway as its first location.Dedicated to challenging the accepted norms and conventions, the gallery moved to its first permanent space in 2020 and started working on larger exhibitions program. Soon it established itself on the Georgian arts scene as the main destination for discovering exciting emmerging Georgian artists. Providing full support, the gallery often organizes the artists’ first solo shows and acts as an instigator to their careers.The gallery is dedicated to providing a platform for all sorts of experimentations and trials. In 2022 launched a new space, dedicated to more experimental projects that hosts a variety of creatives not limited to the field of visual arts.Apart from the exhibition-making, the gallery also runs the project The Why Not Gift Shop, where it collaborates with artists and produces limited edition items. The collaborations translate the artists’ practices in unexpected ways and result in affordable, yet unique finds. The project also provides additional source of income for the young artists and contributes to developing the scene.</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -44744,7 +45001,8 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>019 was never going to last the place we worked in. From the start, it's been a laboratory that swings into unknown directions, continuously saving our sense of improvisation and reinvention on the spot. For three years, from 2013 onwards, we made that old welding factor at Dok Noord in Ghent (Belgium) the focal point of our activities. People even started to identify the essence of our collective, Smoke &amp; Dust, with what was basically the name of its ninteenth project.</t>
+          <t xml:space="preserve">019 was never going to remain the only place we worked in. From the start, it’s been a laboratory that swings us into unknown directions, constantly sharpening our sense of improvisation and reinvention on the spot. For three years, from 2013 onwards, we made that old welding factory at Dok Noord in Ghent (Belgium) the focal point of our activities. People even started to identify the entirety of our collective, Smoke &amp; Dust, with what was basically only the name of its nineteenth project. We became 019. The whole project turned us upside down. But in doing so, we became aware as well. We understood that the act of occupying and taking possession of the site was not the goal of our work at all. From the inside out, starting with a wooden construction in its interior and up to the billboard at an outside wall and a series of flagpoles on the roof, we gradually developed the place into an assembly of undergrounds for public and artistic encounter, an emerging space for collaboration that was grounded on the premise that all media at our disposal were common grounds to be rediscovered. That is when the work began. That is when things began to move, for real. That is when we realized—artists, architects, designers and the like—we had all turned into scenographers, regardless of our discipline: co-authors of a scene that was constructed out of margins and constraints, participants in a game of give and take that we endlessly play around a display we like to recycle. In the end, that’s how 019, our handling of its space through appropriation and dispossession, became the site of a moving practice, a collaborative way of working ready to be moved, reproduced and reinvented elsewhere. (Tom Van Imschoot, 2016)_x000D_
+ </t>
         </is>
       </c>
       <c r="L329" t="inlineStr"/>
@@ -44870,13 +45128,15 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Gallery Huit was an art collective and gallery established by American artists in Paris in 1950. During the mid-twenty century American artists traveled and lived in Paris to study and make art. Many of the small American artists were able to finance excursions to France because of the Services's Reading Act of 1944 (the G.I. Bill). The city provided access to modern art as well as African art. Led by Haywood Rivers, American artists at that time joined to create a cooperative gallery space to show their work. The Gallery Huit was located at 8, rue St. Julien le Pauvre. It existed from 1950 through New York's 19th century agreeing to a catalogue for the Queen Sofia Museum_Fairs in 1950.</t>
+          <t>Galerie Huit was an art collective and gallery established by American artists in Paris in 1950. During the mid-twentieth century American artists traveled and lived in Paris to study and make art. Many of the male American artists were able to finance excursions to France because of the Servicemen's Readjustment Act of 1944 (the G.I. Bill). The city provided access to modern art as well as African art. Led by Haywood Rivers, American artists in Paris at that time united to create a cooperative gallery space to show their work.The Galerie Huit was located at 8, rue St. Julien le Pauvre. It existed from 1950 through 1954 according to a catalogue for the Reina Sofia Museum, other sources state that exhibitions were held from 1950 through 1952._x000D_
+In 2002 the Studio 18 Gallery in New York City held an exhibition entitled Galerie Huit: American Artists in Paris 1950-1952 featuring Galerie Huit artists. In 2018 the Reina Sofia Museum in Madrid, Spain held an exhibition entitled Lost, Loose and Loved: Foreign Artists in Paris 1944-1968 that featured several of the Galerie Huit artists.</t>
         </is>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Artists associated with the gallery include:_x000D_ Oscar Chelimsky [fr], Carmen D'Avino, Sam Francis, Sidney Geist, Simon Huntai, Al Held, Raymond Hendler, Shirley Jaffe, Herbert Katzman, Paul F. Keene Jr., Jonah Kinigstein, Jules Olitski, George Earl Ortman, Marianna Pineda, Reginald Pollack, Haywood Rivers, Shinkichi Tajiri, Harold Tovis, Hugh Weiss [fr]</t>
+          <t>Artists associated with the gallery include:_x000D_
+Oscar Chelimsky [fr], Carmen D'Avino, Sam Francis, Sidney Geist, Simon Hantaï, Al Held, Raymond Hendler, Shirley Jaffe, Herbert Katzman, Paul F. Keene Jr., Jonah Kinigstein, Jules Olitski, George Earl Ortman, Marianna Pineda, Reginald Pollack, Haywood Rivers, Shinkichi Tajiri, Harold Tovish, Hugh Weiss [fr]</t>
         </is>
       </c>
       <c r="L330" t="inlineStr"/>
@@ -45002,12 +45262,18 @@
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Extracted from the very good article by Natalie HarrenThe cédille which ended: Robert Filliou, George Brecht, and Fluxus in Villefranche (deregulation version)_x000D_Integrity: http://www.artadition.net/la-cedille-ne-finit-pass-ropert-brecht-brecht-leix-in-Vilfranche/_x_In the summer of 1965, George Brecht and Robert Filliou, with the support of their partners Donna and Marianne, opened a shop at the 12th Street of Nice, France.</t>
+          <t xml:space="preserve">Extrait du très bon article de Natilee HarrenLa cédille qui ne finit pas: Robert Filliou, George Brecht, and Fluxus in Villefranche (deregulation version)_x000D_
+Intégralité : http://www.artandeducation.net/paper/la-cedille-qui-ne-finit-pas-robert-filliou-george-brecht-and-fluxus-in-villefranche/_x000D_
+In the summer of 1965, George Brecht and Robert Filliou, with the support of their partners Donna and Marianne, opened a shop at 12 rue de May in Villefranche-sur-Mer, a seaside village just east of Nice, France. The space, 36 meters square, with a canary yellow awning and chalkboard sign in the window, was called La Cédille Qui Sourit, or “The Cedilla That Smiles.” Conceived first as an English bookshop “under the sign of humor,” it was actually, as Filliou has recounted, “a sort of workshop and of shop, of nonshop would we say now, for we were never commercially registered, and the Cédille was always shut, opening only upon request of visitors to our homes.”_x000D_
+The artists, both associated with the international, neo-avant-garde Fluxus collective, called their shop a “Center of Permanent Creation,” for they were continually producing research, letters, jokes, puzzles, games, recipes, poems, drawings, and events. Yet there were few unannounced visitors to the Cédille, or at least ones who were successful in visiting, since the shop did not have a telephone and Brecht and Filliou seemed not to spend much time there. The artists presided more often at one of the nearby cafés, devising more of the visual gags they called “One Minute Scenarios,” “dis-inventing” objects, adding to their “Anthology of Misunderstandings,” or talking with their friends Alfred the bricklayer, Antoine the fisherman, Fernand the plumber, or anyone else who happened to drop by._x000D_
+ </t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>The Cédille carried materials from a variety of artists associated with Fluxus, including books from Dick Higgins's Press as well as interactive multiples published by Daniel Sporri's Editions and the Fluxus impprint, organized by George Maciunas. However, none of Brecht and Filliou's works began there seem to be a fertility; or, their material structure emphased the possibility of erasing. The Cédille's charitation made its opposite display of the surrounding works-in-progress, and appropriate set-up for the sale of the</t>
+          <t>The Cédille carried materials from a variety of artists associated with Fluxus, including books from Dick Higgins’s Something Else Press as well as interactive multiples published by Daniel Spoerri’s MAT Editions and the Fluxus imprint, organized by George Maciunas. However, none of Brecht and Filliou’s works initiated there seemed to come to fruition; or, their material structure emphasized the possibility of endless reconfiguration. The Cédille’s haphazard, almost anti-retail display made its wares indistinguishable from the surrounding works-in-progress, an appropriate set-up for the sale of editions whose openness to change and alteration belonged to a nonconventional trajectory of artistic objecthood indebted to the readymades of Duchamp and the indeterminate compositions of John Cage. More like an atelier than white cube gallery, the Cédille was an extrapolation of the Fluxus model of the artwork-in-flux into an artist-run economy of production, distribution, and exchange that would, to borrow language from Maciunas’s 1963 manifesto, “promote a revolutionary flood and tide in art.”_x000D_
+Given recent economic and political events, I am now encouraged to think of the transformations on the art object enacted by various Fluxus practices in terms of aderegulation of the art object, for that very term first came into use in the early 1960s in relation to emerging federal policy changes to the rail and truck transportation industries. These historical facts seem fitting, for what I am about to narrate is a story of the deregulation not only of the art object but also of its movement through certain art networks, motivated by artists’ frustration and disgust at networks’ paradoxical tendency to consolidate power._x000D_
+The Cédille was a shop that kept no regular hours and had no tidy, reliable stock of merchandise. Still, it subsisted until 1968, when in March, Brecht and Filliou realized they could no longer afford to pay rent. By October, they had defaulted on a contract that should have carried the project into 1974. And thus we must admit that the Cédille, if indeed it was meant to function as a store, failed as a commercial venture.</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
@@ -45447,7 +45713,7 @@
       </c>
       <c r="AL334" t="inlineStr">
         <is>
-          <t>I'm not sure I fully understand this question but I'll try to answer. I feel a need, had to assume other people did everything. That assumption proved true as artists upon artists have been a part. We're ideally created a Hub for culture, we ideally invited artists to submit work, we have faith in the power of art and sharing it.There's simply infinite amounts of art being created and limited space for sharing it. So long as there are human making work, there is a need for exhibition space. And so a valuable tool for PeepSpace is the open call. We're constantly introduced to incredible artists who we wouldn't know this way.</t>
+          <t xml:space="preserve">  I'm not sure I fully understand this question but I'll try to answer. I felt a need, had to assume others did too. That assumption proved true as artists upon artists have been a part. We're idealistic in our approach. We idealistically created a hub for culture, we idealistically invite artists to submit work, we have faith in the power of art and sharing it.There's simply infinite amounts of art being created and limited space for sharing it. So as long as there are humans making work, there is a need for exhibition spaces. And so a valuable tool for PeepSpace is the open call. We're constantly introduced to incredible artists who we wouldn't otherwise know this way. </t>
         </is>
       </c>
       <c r="AM334" t="inlineStr">
@@ -45457,7 +45723,7 @@
       </c>
       <c r="AN334" t="inlineStr">
         <is>
-          <t>I feel different about it than I do about my own personal visual art making but it is certainly a creative process. We build a thing, we bring others into the thing to experience it, it communicates our perspectives along with the artists we are showing. Just like another work of art, we diagnosis and configure previous ideas along with some possible new thought, and created a new item. Monica Career, PeepSpace Founding Director PeepSpace, New York. www.PeepSpaceNY.com</t>
+          <t xml:space="preserve">  Sure. I feel differently about it than I do about my own personal visual art making but it is certainly a creative process. We built a thing, we bring others into the thing to experience it, it communicates our perspectives along with the artists we are showing. Just like another work of art, we digested and reconfigured previous ideas along with some possibly new thinking, and created a new item.  Monica Carrier, PeepSpace Founding Director PeepSpace, New-York. www.PeepSpaceNY.com </t>
         </is>
       </c>
     </row>
